--- a/day39/flight.xlsx
+++ b/day39/flight.xlsx
@@ -481,30 +481,30 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 57</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024-01-14T05:50:00</t>
+          <t>2024-01-23T06:15:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-01-21T08:35:00</t>
+          <t>2024-01-25T08:45:00</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d18000087fcf175_0%7C091e0b774d1f000032dd8284_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GYOe8rX06-J6KSLC-fGotwGgTC54riwImXoPTItsRJdNC9O6NA4_vYS47cd-ZuQ6HRWZL9hknlVGTh_G5nVP4pziXp6kSKV2GOBoyqMCsqOW0Nn55TlCF8H2OadtRhME8aBhrOx1GOStXLcvO3oF2Wtfor7LWqi2KsH4CmHD_JSNeSTPuylUHIu8zrlQd-G7eEsZTiHJ0XK22cAgYlU8u3Zg5egEJtIoL5YDIfH1hvF60RvHGo_6FfWKl1HzQ53xAzVUqHjtJB30dReqjDoWbA_LaZbAh-71aBGoeuuuSW2KqMQzH2GkS7waLssK3Qb5jiuTl0ZAOZFZiejKLWjlukStdchODcx-oO2F30K4Zjo3vzf2FmmRrpwO3LzFrziuV4yjMvPxS-ryHT_KPfYDIKYWCdzB7FWQn-hqRo9y9hQ1buUMN7VssgW22duoe5bLsjdyz5ZffJurk_00dJyE1IItW0l_dXVQzluCFvE0TnxoN5a2XNUESx60rYdThpK0TYNFpt91Zqd5B7SVNgG9obIyWdSccYgnbRJQWaU0uBggNVgBW9Q7wPPPpw370OMxwQGa2oP5gLULKPgc5uVKSzgu_KYIk6-OQxnugHtg8BBM=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d2100004965382c_0%7C1cb20b774d230000b793a0ad_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=GLkqmv-u4ITb5k-Xe9dNsLvQp6MWV1M99pRcGO_KFTYYcKSCp9S2eldCCR3gITQeA6ig-k5WPe9h9fc4O5UsxMiWNFNTMt1zV27O3MXPc0VuZTfEw7OOjJCXqOdAoTA2uBF_-TguO2k1kzNmppzMQ1J-wMR22u9UjREi4cpyzouPnPCBaCg4LS_OqVEWRgpR66mdojtpRR2hgxRlgRtXQaMus05PZddUfKyowtJthpXV9tNjrT_tP3fSXhdDQBcavFb-eLfdY4-Tuu0XsfuV_DphuuudY1bRvQY8fUl7sFP5bUDYOM_mHgShQwwvtPvFeBRFdcWyfR0KM3xqnVFFzOVVs6N4rOAMiPVnPwZG6Nx1acKldX-3HNloal2SF3TG_I0rmRYkH90BfOkUT4Di1wp1EeZKuQ3-lzUUvrB6s_HJj7m8Md7yAN-EwqNMD_VDaiOk-pvNP0O2cXSRFvDM5kVuk72ptZsqWxjwQMYyUauUWFCxOUrkZjT3Jr4vwKVzzMLaVOz--9QZ-UDou43s_yxeYyHVUjvD2YYUi_RgATKhHkemjH9vIacjhLjv4pnxd</t>
         </is>
       </c>
     </row>
@@ -519,30 +519,30 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 58</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024-02-13T06:00:00</t>
+          <t>2024-01-31T14:50:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024-02-17T08:45:00</t>
+          <t>2024-02-07T17:35:00</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d3600004246e611_0%7C091e0b774d3a00000f4d52f4_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=G2YaY_x9mg_wUyoLu4eBiqurRFzfKrbDzOFRvODvr_trjom8o0C8H5SwXY2X5hZqgMefxRSQgI8jU-NWoh65dWEnLGw_Q0y1Aae7ZXZyh0G5HW6fp_Fyzl6cTU-PVItlBkDQ6DIuL8CwB0fhGcBpVEv5TIsI7KRlZRVX9bAaOWKxvafGhA9okAl0o3_aspaTiIltabpFJPGHScPUU85_Nd8TZok5k5B_OQlEY6K3rnvGiPSBsV30nbn22hW7n9FOr7CNbrLw1ZZnX--xcgSPz4CMhObbXhfLjY1NzF9x0rKoWfpNBM-h2wiY9iMcqx3U4GihLKGkUr4EPJoHWOMtDLqDE2-IsvTyAKuTPP2lAcWx5pK0sQsa83en4a-76QbBeYhgNGedwgK4R_cb2e9NsH1LXvRtSC3aDYP0moF8scGs8fu97LN2mfWUozhCOrsrOW-Dg4eOx3iFoE27k46XVwRA2qrBi01Na3fnetMCamS53uxAHoch2BhmmozazoSdkD1GoWEpDKAEEgZJHix43ZRk8ThGKKX88E3N9DnxmdbSuGgB_Pec-At5_zdyKG7EQ_zMCIkfWWWNY1_9WrvJadw==</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d290000136ab627_0%7C1cb20b774d3000003f281047_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=Gmi-czEMeAbVcbtavmWkQ-cfqIc_uhsijobbJg--cU7T67MD9KgB6b0nFzXkOigPJRxY4TfrZ_7JO_8DRTdLNWaEhRf5bsubIEQ0iTGMJ9l4E93_n87CCHnchb7BDh7HtXFgYKP-Sa-ZEfNrYbWE_EDQp4PhWcoVFlhn6LgT9_VLhW53eKXGhZyaCHZ7AT_XOBj6Y7lyhVfZAjX2xVL6H71Znj_vugkzXqGpqxYzoykIvb28bHy7I7Wmta_0Qq20DDjpYq4LW06wCbCde36_OXVH9f2U8ewUt8gr4TGz4OdptLL0AV-z36wTQmIQvj42rzhljGzyKuuAEBUG9Q5bBpdK7nZmjJsaxrZzUL18P2WKup_7TuZ1kaSZ-eBUr4-2VvvKJPwLlJVT1OPbQHwtZxc6zchdXT3rLwIt4hcHjw5EG7fhT5s_2ndhx8u39VaCbelRWqp59KQIZsWiX9L_Gxe23ivKofdlMsL0VB2sRocgA5Pj92SL0cZnp0AprYC-wB0tK04EFsfiMj2dOcyoEjx_ZKj2WRJRbZ-aAPCLH6PSd236EZq3BYqKJsfS0Bqw6</t>
         </is>
       </c>
     </row>
@@ -557,22 +557,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024-02-14T05:50:00</t>
+          <t>2024-02-01T05:55:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024-02-20T08:45:00</t>
+          <t>2024-02-07T17:35:00</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -580,7 +580,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d3700000df6bdb5_0%7C091e0b774d3d0000dd9fb350_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GsCzFZjxAhezkMtMT6wMOcMyOI05jok4yVSBG8ajYJBIpcmoCrJ2bQ-xTDgFMeMi1k6UtbgfrIPZX-v7_ogb8Avt2icTJBKhM-w_lJvxCOHoeo2VOO1O70YybP9Liqx4mGCXfTc1DYLn-GfefBQG_pMoveV4xHsX0jTszBe3ka5ZOaVxhJsw_PsD3h0i5T-FIDxXlvonYVcEYoL8Az5nwILXIUMIvAnJsA6zg7a-TnM7rAJ2DyMSKJ6DBWi_6WMbPNboYE-905z00Djlj6_yRiZhnRDa2L_SIG3KU_lSfO-qwi79FhoXjntgR--4MGUhO0iVsj4u37InUNi4TCAFwxm-rZg2aZMl8G1M4uCxYODYKb7-2HtSe38Nvl1yrj285Xhl8uLlfl8YWz-AhKjE6SV-Auw0BX1VutL5n7hxgTbotG4QRCVMzgUmED1YmC9cgwoYImJLhuAAXrxaH31cNJdQpLzxG1Ld3K_Jl9NdValCKsAtaR5XA4ACiQJmTvRTJ9Je69KGIiFSNvD16KEV2jcdzANW7_XCeV2tRrw8BOSJtRe3WcFDxhZ9AziHv7J7dqGQkXjRRgs8DAGC4fUPVHQ==</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d2a00005f58ff37_0%7C1cb20b774d3000003f281047_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=GfZjzrUyj-JrPaGZgvVw8JMht4FJdoDNuW-o72-zeu5XpRNWg7GQquoVrXmuikfLd7g28yqSRYq5CozHlPM_2zcOCw_MzRCvGxwEKtvXXuJ3r0fSF0nRR7ESaXim82AHGKGcAORRnKTqSwwcg2qINIOBnRTJ46doH2b6JcTMbi8PiU_RjUpXFXEFesjkSH581QKzuQyzk12f9JMnTZlZCmjuJb6v_s-h3dpS_Qapm_k3wLaxl1B1aqsa3ctaCXqsm4YhW-MyZJnq6IklvWdx7CvIFRDu3-tFzCXfdAkCSQOQ7CEA5BVNHHrmXJ-m77Wjp9KzflzCNA9ObG7_0j-bnxVe1ADweuTLHY2fpqSXdXLmt4CD7nguuZCKm5uClPwcB4cUaTmJd5zPkQ52luayqcIIiFE2qKD6vhDg34ctMFIEGpkQwHyu23jfMkQtOJWGsQQl6qYlbYyMb0wl8Il0_oUXkrE9EdxPmlkwjAAraBhTR_Rv5bLv3jTAZcFnF40PCETndga5Mls3w17kXQVp6KuJbDejP--cUSL8QHUzZZKg=</t>
         </is>
       </c>
     </row>
@@ -595,30 +595,30 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 58</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024-02-05T06:00:00</t>
+          <t>2024-01-18T05:55:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2024-02-07T08:35:00</t>
+          <t>2024-01-25T08:45:00</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d2e00007b5dadee_0%7C091e0b774d3000000be4f8ea_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=Gp85B-iFnTMXvytxR_8UO2DeoYENLaEm6_p3aHD36twC7lvK3qW58tN7mfeif-XOptxYWKDmd_DenHrNCQAm8TA8y0F9O5aSb0AdDuvd1ARE4fNjlsGgNmt1x0eGOF6tu1slhQC-xeoLfTEqUHGpIMOtvQnfSxaPCWB7lRGm5TWLoWl5B74VwpczrDsBPqwYtBZgWoshUE2WrcwYjETwijiI8_6FXhbwAEjXeAlGDyWrxjaUt0Qhn8dqmDS8ie7LjtWVyh2xpkxkLnAZh56-ZtOGeu0DH1EXwJZwAjbSa5S3_PKT1uWoriPFDuhLmca0O9mx3-UmPmHe0u-K_PRXJrdZ_W6S0azOoSBxHANb8K2vMln7hyt9sVaJHPJO8HNlGUr5Cx-9xIxGWe7IBqMVMKMWEj5FBzIX1vk8UK4En1_zc0WP5MkzC4FDo7rIVYwzOXtG2sYEKeaBMb4FKe_z8CxjqLSMi9r_OmfLK97Z9MqFsnURuVpy9IdpOi-1A20hq_ORjA23n7_pZckPsd7XXS4bYCQZ_nOJIi9vyWW3wBn9K9bMjH7QDU2XzPViNGnAT4fC5UOgZbjMV-CTNMI2YPJg8mlhSwwif10_IL0y-I-kOCm4KDx31apK84ma91qKy</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d1c00006d94ba3d_0%7C1cb20b774d230000b793a0ad_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=GQiY6ZAB8BhHukAtvd8OBnppLhs9LgSsY00MO709ODT6FhEPQQnwLcXkNqpBmhbHKMr0ahc3snThMsmR4NqEmRs4dph8VxA5oqCbiKOfSMYEyrHGh5Jvr0fCmZEc2h8GepBAjUaZIN-0gy4WJf1Ku64ztpdFKEg-9le3eEJmN0E01gPNOIogqaE7YWt8S6NUDuIrxc7S6JZMl1AOO7iKxddFj8Koc9jUFFDX47bTM7S3KztUn3d8GQHwR-S93M7UfccCyfG2-F8A9ZRRqMey9NZ1We8UzdI6dPK0KA6czGyk_IfuOQVsHG0Nc2_mdhda25PDlnEHHYnkyPC5XFLdcVOn0iyOOYLpqFbuBcxpHsinooXaxF6os3WWfpDpfKgVrR6Rl2wcuwNYIbq-SemHWWiOq97H4eMQRjv50oMWwDBmimMnjgsNWTus97WAB2lOnWbSpDkw3C5PNx_N9Ahc8zR1pYLX-3PWSVazpGVrSmrbJhd7u-MQBL_vWxgGTVSjDXnc0Q8JVmtfKXPnLCOsALRkzTz7Md9UOvARK53_Oa3Q=</t>
         </is>
       </c>
     </row>
@@ -633,30 +633,30 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 59</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024-02-14T05:50:00</t>
+          <t>2024-02-01T05:55:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2024-02-19T08:45:00</t>
+          <t>2024-02-07T13:05:00</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d3700000df6bdb5_0%7C091e0b774d3c00003be982a5_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=Gl1pDe79IWUWw_xPF7dxAajdXy7I0P1uVtPVx6tJvZneoHzrc9KW0GSeMQMiiQNHAAF6GKjXmdWEIuTfFP1yQUk4yNwgu54WRdeaNL3huIm5iYY8G3_9jyO-XP_lrTDsj7I5V3OdZo9NrFwkEEaNgdgEBtZGL1RjW-TzFbdUV0_2RErDZkrTxm58htvQoPlRkl4H1H90LBsOIzMHDS-v5zXtbGn1BYNqK4JwfP32bWYW6r75YLwQZy9kdyhkCNG4PoZ4E9ISBuAy1va4fEQ8FZBT6KsylmHJReCUgWypoxfKF87l1iqif750A3AB6YfgTyVSpNu7jzvT0FFrKxNOjdCmyeBHGA4H03K1OZRawJhSX6qywzsdWciSYv7EWMOKEKdvsekq4qhqgkllcuWyxgF50tF5GawLldMOWtd_Kc5yiXzXyGQL43qHnpHFVKyMSLQRRGi00I8bp8LugOoNYb8V7HNtD8tif82VqqqxK8dZShtINDqbllj-cI9xinnAnKesbwJJ6weLpxtVtujIvtsySyzcnIvlxu7SoFUfgoSE=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d2a00005f58ff37_0%7C0a7c0b774d300000dcc3e60d_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=GSmpmp2Fa1MTm-fP-NRdj-J_TezjWJETjLfv4lMBcc9DOMoJhl__7nWlPFoWg59I-6kVNokBZ3WdqaYi59h0Z41BRkOXC5TiFoYtEZFaNX8BLK4W0wqbl-4tA-DjMcTsOZJrewmcMGX0qqgkimJkPfC2PCWHENHGR4Ts8c7Xp0opJqP9rV8GL0T8xxAFbDOQQnV1-Cjkq9BFCPVeRPXSPfNgtQoKbzWECzEqDVpteGBsETAIdsiBpcV1JBDFisPywTTEsOdEBogq84k56Gg1VilZru45mH-AGjZLwkcOrvN_DaCfVEJE3FUQZcCA_Bt7KGeu6fERs_7mnO5AeMhKUBYVvOCqhOxd2_8Y0GMLYDPAuhXAPmNXF05wPZSUAd_WHwjumJy2bPQOTX71awYUPikRr_4vPb382ieqAswjaLMV7Wb77yb85_-oXny2Gc7irgagr0N9lFEDNvMl3SokzLhgiOtTfXJpCT7ZrvMCvuBffUq82u7tEyHh45R-Y4RqmNuSAugEpaVxfE0xNFGCHZG6wzq1oXV5rbWIV1chTeHSdPh2dCOSwKv_UsEkzUJua5ZBncW53oHkW0kCAIkWC7tyt5sad43wXlN7S461LnquR6gmy1b6EltYwcMnJB9YT</t>
         </is>
       </c>
     </row>
@@ -671,22 +671,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 59</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024-02-13T06:00:00</t>
+          <t>2024-01-31T14:50:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2024-02-20T08:45:00</t>
+          <t>2024-02-07T13:05:00</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -694,7 +694,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d3600004246e611_0%7C091e0b774d3d0000dd9fb350_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=G-t0oXGT1CxD83uwOc52PLjGRy8Wgx1zQN1cWfjdz6g7QNusJF54RHH1xNfHgG9Z_6MfI1l3co1hs61pDO2ESGtg2xWT-5CMs3_UlXVQm5KnKAq6_lWzeRzrXVUgzp-__6YZtRN44Kx6vdn5SgkF2Cs6IuEslErbiL1xWmaS7dF_SbUN9_R05A5aOCMg8wO00nWJRqPgHmdqIUi27vziwjRfvVEgjChyVP9g9FbWU_aO8NhGyIicqHwOu4iVxwYx6E0bcdM4iPeAzel5L4AY0sCmFQdPuAdiBKYoYyhG1YFnGh5gGcJYdMwU81JUih6BWUSPKd4pKlzXej6JiUdXNzh9YTYomyLlaCYzZ2PCApJ1fac7hanLhUUq3Qnbw1yopxTzejpBeTdnkLi0knYC5wfu6QPC8KJB_ptCRTVq32CUzdo8Rj_jXPycP4Wwkb3e6vKNCpSYhDOEbITxrMPyOB5R-Mdwu7PnDRRtw6EVqK8akej3ElxJde9-t9uTXNKlQq-PsU6imi-AXHqJb_tLxgpTpk9saqZ034G_OHFV1_Sbr7Phl840W8iJrw55dILO2XPMTX9KWO8JPzhD-LQL6ArwrVk7WObMqkssxYt4bfGA=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d290000136ab627_0%7C0a7c0b774d300000dcc3e60d_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=GbhXt7vQ5nK8mTbleuF_GGiRQjKrgaVGbpYH1f0o75cgDaG_HrVv4odmAE4qSde4wV8NVmN0vnKI5WrT0QTYZyD_dW_vA-TPdVMzQpk1mf_PuHQKE8Z6eZ_x9SyNpkbSrlJ-BfCwI4H795fbXRFbI8bqbSZK8t5exYS8fsIfgVR7CjYqM_EYxrIkjpoFXK3--S2-nHCwLleg8Vb6ZqECclVoZWRSfpURfbmbRJdE-E8B0sx35q_E2UKRTyqviRRCV1PcNA6VoomiK-hpkOgkuEOKkMN4_anwZE9LW5E5tGxYjV1B3G7Zd7XpAaaZ0NqhJwAmaR9YF8QTIiGnfdNBTQKLWjAzDfpzlXzfrbZU7jA2qFifC48Q8iZhWTRZ71lJVjx-Xsy01uBrBMt8QIB5EzmfrxBRJqyLlW0b1m52RisQMUieKwYlKQY-Hg8v87BfkcelNeXreMJt_OeQ6yviZmwUDc1KOrYEbJ78G0mX2y7TYk92GyrVHjoRSw8fBpQozjCzRHVe4YD9Hj-i7Bi4FqEaEE51ft9DpM_UxZ5HWTiTt8qP09BSyGY1OQxnNnIxsGaT1yTgkekU0mSPGJbVykxs9bQMHq8xD3f8G7d8m9U8=</t>
         </is>
       </c>
     </row>
@@ -709,30 +709,30 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 59</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024-01-24T05:50:00</t>
+          <t>2024-01-30T06:15:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2024-01-30T08:45:00</t>
+          <t>2024-02-01T08:45:00</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d220000763c4dc7_0%7C091e0b774d280000f647a807_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GygehmRYdLgCNvXT8k9gde3dE1IViZlXaxEL6_Y3QP-r4kPzY6MK4sRAwfTDkho_nFsY7B20DKbHrJgjClWnwygPDbVxJylceWvkJO6WHO_sw3HYpSkfVTyTr-IxsaEKt2NjnvDJiqd3Om8xCzJYz_jKMS6QKehLzDKxAU4Xxqe66TyNnDHkKPbZoZEE3voI_RVnPbdzVhEi7epf4g6fM760Lhavi2tNKImtQracDUqHqljhjy7aqkQDnTR4_zn-7Tn7liMREdEEPrQyJLD0tgl7SNIy6rv0I9j-bW3tM16oULFM92v9HMzbIQVZr494Fh81DaCPz6Qy4qmtOw0Z1InjZdw_QQ44SEN9uOAY-Ucop_WvzMkF_ygeKdQSJJGHGg7iJkFsjfkP8BjOE0heAFuZbSdD6YINI6buwPcfS2d0HjJjzMlV3HC3rslK_JnnXRkNidCVrNdhix6xv8qadXl26dedPcWWw1xmDz2n7vsnNSt7bP7bTrZ1UlrUGLXF74miAj1CjEKB_Z8UfMcUr12AeiuEe8WpeodbWp1QKqfusV77MXHJ_yRwoFd70zc5ivYAdGEjgJg70Wm2mhmkH1n1wWKUPEE53bc2qtyIaAWQ=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d2800009de8820e_0%7C1cb20b774d2a0000003b3d93_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=GsgQPPO7-j-_QT7ORNTRoSoQcv6QWWdz9kxv1TU4UVUJeVQu8F_Zs6H3CXCg8_6FODfL01zD1ErIix6x2p65oL8uFnEEUwCGgs1G7ba0SuIMYHUjotfxg6ifm2TMmUAIoDXGrSFTzc2Q-r7pQhmlVxbv9zdxFEGJTUflJqMgizcTYVPYcW6gLEPJs0PYKymOcrREkmSVQHl7gyEMh1LexDGqHCzVrfFataOsL63z74gUh--NbvbmmPJLHGSyale4pfF-ByCrx5aTOyVNI_2NMrCQmZ1NEioU78bhTpaPgLbkUSx4x9a0a1iZgmU5s1f68xvltVdkDNZF8S-6ZskuVfq04_Sev72r-Ec1FC3PbXynfRbLx-Zc0jwXXN_Fz4hdBYILcOucqNtYqHXCRPRCD0iWrn_OqvTVqCLubbvAY1l1pWoSEHIvan3LwrpS7hhuE2XXdZ5LU9ovTZILOj_7Ids-ZemOUE_fKprj7-Wk7ND6WWh0PU3Hkwq8_JNxKbKbfXpBhaxON5XjiVXX226Csag==</t>
         </is>
       </c>
     </row>
@@ -747,22 +747,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 59</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024-01-21T05:50:00</t>
+          <t>2024-01-21T05:00:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2024-01-24T08:35:00</t>
+          <t>2024-01-21T17:00:00</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -770,7 +770,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d1f0000e3b177fe_0%7C091e0b774d220000a750b8bd_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=G4Dv2MI1-j4QbAB8xCZ0Yp9RWTeYqwcwf3m3J_yurSG_F1pP0xSa8gGr6dJNmZ2vAGIZPtCUFTwmHPacs7TxV03jy1m1KGf40Aljk4rEtH0M5eFldL9asMB_uz516S0eOjWwSE6AqNCDVh64KvNEujISRjTClK_TaIyb8TO-CKRQR7n-llaowG09zt1_MCwGRlcudgDTJh9a3LFS6XPEf_qCBzizqMWgoGLh5xu2D6Cq4oaVdcDtrS7eJn9e3d8H3gc9Cr6ONdajSvaMxcs023HoTBSfqtsoRDwfXxo8uOa0qiLDcf7_q_i-MG6-9ze_ZwrY0CjIcFhi5AUxTKRD9PTO4FyqibT1JqznLkIn4Ke7EkOvx5lAgcOmoBydkjdImcgYSAujWufN3FIOQJXa_nD3lhTUyYBxB0ctA-JTunW3UV_nb7PnbejvlGGaO-7paB53vm0PhbT6c2sM-cYESybDjf20L0bfh_JiPH6dqwr23FSWZujSil0H5wwhfy8PwAs3ODH4qK7iHm9zHOWZw4u4-XLm9YX8MhiuUg9ddhisddfqnghMhFGDnrOtgUxzpAkCrr_r3s-pi8XeiieqeZSoqxo8HmDD0rpx8A_gpRE4=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b7723334d1f00006e21c920_0%7C23331cb24d1f0000bd98a972_0%7C0a7c0b774d2200007077a65a_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=G7BN7S2K1er34qdbKkzvhTSFPs8OyxS26dOEjjXnux98u_H8KT1B_QFJ1tcF4hTYwKQ7IvT5z_ZYcyNudzRjjMApGUGw3yxFu6Q2IhaxQ0VIJnHm1S1OW5g-F2AKgihyrNe6QajgORDJtpNXgG5RG3agSxLvAfvPXi41_xrMXdfqz-Ur0u86qW4qxIjAOnddX3ctW6gw1U28dkMgsJopgZ_lQMCEfoxzZYi6sH6ZEL3Oxjq-6v-0TldCTm2-IRk-a_s6MXfAszzZXWZAqKDnZBVHrQfGsdMZvxl_h_myh16LwjnobMfiBYklGwRJ3ViGsZYFpzzfFL4E1oX6tQiwQzMmdqMfoDNTm0n4nYXPFCoq_JKtGM8k0cfbJ6w65wbdDqmnrXDb3YPqusAhHG3UNAU4HG_7T92Gx_HKv19CQ70tpyYaL2U9-lr6FD4Glsh4i1bFVLIwDeRw_H5JIknCjYl2PGd7crdy5L34tX7KB0350zGq6-5wGLWfDgmA0ceVHWX7cA7dohslvIlTi7j-VeKqQqD3vtF7PAsOwBu2yvfBCMXTH1l1G8mc69MrJyK_d15cNjhNff8kSiolvsQjxvEw1rka0CBImBrtKiFhyhK8FaT2i9Y0tkDQ5HsKLP4uivGKXFp301alXldB10pGvLliC-OKR0J0Ar4vj4HQIifP-7uBMrU2UO8yGwzrLDVN1</t>
         </is>
       </c>
     </row>
@@ -785,30 +785,30 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 60</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024-02-14T05:50:00</t>
+          <t>2024-01-18T05:55:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2024-02-17T08:45:00</t>
+          <t>2024-01-24T13:05:00</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d3700000df6bdb5_0%7C091e0b774d3a00000f4d52f4_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GkOUscTE_6_H7aqXWH2mrSXj0FzkXyQ-Q9nJ2jbKrY0mUPLRxh8J5I8Ussr7bi_YOh8hlCtB8PClAieAZ-f_N6J5dAtAGRmap_rEYFeByrNeYFHkfiUKuPaUXo_JR2hWBDSw8QApLX7ERB3FP224M4tm7fSrIeZSkTWMfwtjIMntenhOYTIFNJRnTP64M9skD1m4OWR4QADM9m8-WDjBZ_gOTbDnPo8No1YYhulfMLPrwg60m843_HzSR-WnhL1Ayj1wBjMnaJupZRt3iVtJTaHNWo87DYvKv_3zOZc5EurONPOljW6NhXuTndn3D7I0VR7RaszU9rtL0Gg0hdjSCc71O4zAvDQ1fzQ68uUtxVZdWSJzELkxfHBq-n-475aeBCl3Pl6gGcwkUIPgs7ZgJxH0q-fmt6_2BBAjYRwwngpffIJIzUwuD5wZx7BPGuRwtwM_VLokONwZkWGco4bKaKn6hoJqIppAxE-bQlQKPo0rl4pR9rmmTJ1IntxZlKSQZka9LgB6PboeQsoPuzAZ1m4UyZutJ5H5kINpcuvEpDao=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d1c00006d94ba3d_0%7C0a7c0b774d2200007077a65a_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=G6gzQGg_mtxfjgw0hVXNU64VGHwDCyxdVi1IYhBJfMZpJTqlb-l5lUOQ6nSwYqbb4uL1SRm7xJCPSPpb5_I23DIzqGhvYSZsH8xNsJVe86af-zZx68JHmOiqybqPkTlWvlR1iyWe7OSKyM6mdhwnbF2vLlsi43UCzbj0B8OE0XuXvXZo5I-rCqRnIKaOV1V8xlLHqMJErHoZ7YfLo-YZf_QPynpo52fudf1idJDsQDNQz0Y1Ry4vGkiHqPNLFDzgjdNHAodMstg5P5VNRu3M_EdTwMEsv6VreRVrTosTNxv_5qYwIKkV1IRAiG5y1yMyJz7hA5KQKpAfaCn3P-JzvocJAMZ6rcHsd2R8H-d6tmKQJBqHniH8vGYEEAr7DYoGtq2H8hJl3wZkSgu402Rqh0AjQoUHwprumkxEG83Kw9FnlihqsWNo22S-ixLqleIQb93YNnFuVD-bYYieuSmyc67M5us2XZe9v9I_lgwyfhsYGP1bWIN0n6qH32B-n4jLbULKLgQEoiP5Ma-zyYbT6klSOXSdTiCj-rPOYIGQ1BMVHq2G-ExEZRNbYUpfrOnkV3uSOToSl2zb2O7AK8FhqYkLtYMisVVR4pDHMvlwuNnU1LZoLL9iwQUFufgFey43W</t>
         </is>
       </c>
     </row>
@@ -823,30 +823,30 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 60</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024-01-21T05:50:00</t>
+          <t>2024-01-18T05:55:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2024-01-23T08:45:00</t>
+          <t>2024-01-24T17:35:00</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d1f0000e3b177fe_0%7C091e0b774d21000022ca1225_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GyG1ittyR6H-wJTAFpjwlDP2V0k_JYDJg_0mKeyP4BoX-wV-xzl3-QCAUBBxG8oNxllbEFrk1IXLovQlt-f2FG9A6keqGyxgTSVq0-mj0R5tNHPnAFjs0Q6_LEvOML7m0Ffw0flJs8q1wwj7UYJewext1cJxmueVih512-c6mEHoI1ZdCLecmwrr4Hg5ryU57SaswM0q6J_XLLh19Php3io8O_tVjNHLoAZsx_q-M66NvI8oQxmGVLE-I7YPNiaqdJshY3F8gnATFI3r8eHsr5i2SujGiUnO5BLTtOLvQfAPYzslXrLjkzIdyEanEvh51roCe4HnuSqFVGP0spluaAEVCXgXenJOebV0zWMl-jo_1-HPpmL1SB9GKtDjCzq_fT5hKPHCpB_5oeLU7NarnREt7FqVQpwrbYsHNtPsM7ZlFy7ePA-P75QhzfTKfs1whc7Ekr-bMzyw9TuX2CB0bzW70ttPk1E1L_TslA4KtuUFixUeJ7ySf6eEaIEHC6svstamydzI4H-2ljdTOgnmsU8GTL4uTeE8Y6vhobI8tRYY8TeyilheRVZE4U9a8xcmsC9F4biUC7Sq-2JPKDnOXRZ4tp2r30fvGlBBb3KfeqNE=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d1c00006d94ba3d_0%7C1cb20b774d220000939c5010_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=GRJ3k6gO8sjGBkHsorkCZsMeslOqnkp096JwtGbniWNHRbrabUKpx7JBJ9DcbyQvaDgAsHq_skzzTKkEOPOhwTPHSJdJZkB2gnRDwHwJLMWyYAmnEmZ3rHbZNRZn80NdJ3xSHeEH3w0P0bLi202yPcPfy1iuBjYZPc3e0CqRZIzw5nnqixudFQ21eS1mVRM4U9AhUYqf_XCgi-6BYOmjt-Cnri2w6GpF3cUOhKXPffdlFplxSJO4ABB8ycxr8drlAFnrufmfeUUzVYitezZfC_mQWdMGqsk2I-4OVspevc408zfBcnOBMeiRj4VE5edjGd5KwDePmtj68IHIP9XMBXtNOtg41YaxfsH2UMTANX97JJ02xpQdQTX0vsPONln8y-qiaSC8oCQmZdHqw_hmv70ky9YOwi3HHVClF9K5kLixfJ4LpK5zpdGS_tDWn-rlu67fiIY6a8EWO-qUhanDxzVdpWh2gMrl4B8zeNCmIwBRWvg33WwdFxKZpc1H18E9PIyegpGRnmKynD6soFCA_UwqAcJ5oPJG3CYzGqhA1Lds=</t>
         </is>
       </c>
     </row>
@@ -861,30 +861,30 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 60</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024-01-15T06:00:00</t>
+          <t>2024-02-01T05:55:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2024-01-21T08:35:00</t>
+          <t>2024-02-08T08:45:00</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d1900002462cb02_0%7C091e0b774d1f000032dd8284_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GkJggK_KySZi0pxGU1y2jQma6oTsSFg72_3ANc2im3d8iVg1ZaBXdqFC906npbWD9U3MIZpnl3jjQMFuGc3pMKcBBmBUYLNtg-CTO9Cj4BhRXNGuWNL6E_67Cqc4O_lzCdwJHXSdNGN8H5l6HC0P4Cyhc_Feyli1Is0zqCr2c0MvnGtZIarPA3NKgD6hE1BYBPkf_HgJBMlTWiM_7CyZ10jsHAhovZ9-RzCrbzWLvwn4wU5gndXxCBoIaTAL7_AJGuHa69Dsj33_7SGYiovXWKllrFb9DfVTeF9KrJ0i1zNPA905qAyoz2g-CqZ0GhXtsDKX-REeVzb1PJ_9VVOy8rMrFZ8U4MPoRpNS2pRMAgeK4RByeJYe-VzHbBIgC-a0JszEY0y_vpsesp6e6Pm3FDFT2ilRcqu_J-pZK4WriCJWghrjphCGKe_4sWcBZde46U_6VO4PC3ePKJyHehzZcu1GD_l21nJiOb9G9x7VMG6J_6v5Q7Z63Z0lnRfUueg9JQjIVcGkQu70Kw7PYT5hxQnQfxtSbdSZJ4yEYQCXxL5dWlHC7EYSk2Z7_q2BSeMrU_yYnkF_AfmivhZi8JcvS-gz2YeGWlWIYsFlEvs4S3x76iy7VMQoaohdkfGCc9qP1</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d2a00005f58ff37_0%7C1cb20b774d310000cc372b72_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=GAkb-eMeL6IT3AE5Up2Bf3IGpdai6DYutj0K3AbecG9XsSTpoBwIXEX9WKY_VIN-4D3dEg7r2-F46IMtBD4HBGlBlDBo1YKLaYOH65xeE2ioBH5D1KkbxxSDVUD3-njhDqeNytvwxntO_G73AaYicAQ5zauDD5h4qG3OuZUEwgl6smbH01tKohvA7X7_bioa2PIMnnibr_aPzju6kkn20Ftrx0zYNP1xHUi3jUFFSxvWJoa4jVZ5nrhDx0diFfl7N0jjdDxZ6wHrxJSYtplV3zVYXQ3LQOe36_akRRcBxnZ6YXo74TzRqgv9_XcAr9S3by3iT98eIMOXi8XAyqSWYbQB0b2asRIIS4mMfywdaqfiMI-bmBDbpDi9L39HuBFlxwdYm9ftWo8u0nXFToK8sK2ESUYLBChNJ5erzdsbP5L1yXko8VvEScUEZS9D72mIk70kHFbafIiagHTIjcCvaUvdwNhiI2UJbXS7RLRyug8HqyBFdtl2wwNJqilEz39qz708SyQuGbjrm56JUlAH3gs35iPV3DWbMnkMNBB0OPR1sP2bJFOXRjIsUxunLui-iIyLkxRUyEB-v0Q0qAhUcLw==</t>
         </is>
       </c>
     </row>
@@ -899,30 +899,30 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 60</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024-02-05T06:00:00</t>
+          <t>2024-01-25T10:05:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2024-02-08T08:45:00</t>
+          <t>2024-01-31T13:05:00</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d2e00007b5dadee_0%7C091e0b774d310000f8fbc3df_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GGgwok9SwxmxTfP29mlT3WMgy-2Wb4OLN4s90o42HqDVB2xXFqxCbSqw2j_JNzoMn3t60X7UFGDYABgZNz-Z3A8K5GDHBYEeq90oICxD1e46CxvfhRUpHAdyFtO90yFxzvwSoMLfMDIjAVXt4m7jQsIKr1x_jfO9dHn6y_2wzN5rFzLN5wbU_qQ1oGmtWUs6V5tNMCsMLveztFSJ38i8ANEFFSX-HvYHUiuT-jkyUBosZQLrvB-EAtzbEKIWUPrNKilqkn7t9giT5rAr2U2lPW4IBZvAiK5iQLk7_kl9Foy0tMY6YF91YaCubnz8aWJG4CDGpayvrLbGyZh9GyRgVOhgjDpX6GSQMcW9S0otVjkTYSHWdGnS5RPBa0dtMzREreOKt-JcX4f1gxtOGH_jw2hLYoSIZh8FaRRyN5ctbcGaT-wAqrX7VNBmE04F_an0MNrJ5cpyt3qKjSRntkl7L9J1TZciqSayK3m6w0KSsFQ03v5D2ymNmNjcklIFR01iNRi_yMrt08A_oO_dgRa5t6l8UCHF4O-7eIgD-8QP0Path9ISXmmz3Ce39EdSMV8G3r7cQNIRh5yxgwE41LAlexl_6Zib13oeG98UZNnrDRe2Nw4CYBkl_a8d29EqYMI4q</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b770a7c4d230000317423a3_0%7C0a7c0b774d290000afe282c9_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=ORY&amp;booking_token=GMFb9xPYMJCjsD-bDDnKwy8nF5JZyIweg45co1tQTwpsh35toQo05Xhnh0IcO8t3TVOwJw7h-I3BaTeufrWQGt11p7aH8ZZRtqzjH9uIeDnOaPfmIZERxyEqIfz2xXlqxmwjnU1PsGb7DsH44sQqB4ERLrg2HNJRrZMpWj6H-lf1PciFgSYgy5VgYmg4USP456XktCgaUWRbxASZ0zLvfU0oL6ENk9skE4GuyjTybSQgfpcf6S7JCmrPNXyj4hvqq6r-RmjFou7JXvJ2iCTo9O7LbwDbj8DdnWMBl3_WsJH2ccGS54ilMbbUB74oloVIeQhxxXElWnrFYYYYOECy-ksW3p1Fo63_C85CLpr69boxbY6ftv5wsNQIs_PzKJY7XurwIMjnb-V4ltMjTJuvxT3cWp3GACPrNiedG14ebsn5KmWSMoRNvCu3oi_UYoyX0JfqDV4O_Y5N7sGB3h2WG8CnkypHtTf75QSSvIi6jg7OXfC4E9ztUzC9X8u30APLrCBcJaWdokbu4xcfHRPOzWQ9_0tzu-ImeKawXVdxWrZ7z7ZHrTz4yJBfSabb_FIJLlF7rBEVKreKEYKzq25bCnxB_mCOKTSb8L6Zag_AX_LfRfreLTwMw3klmLLSIyp4w</t>
         </is>
       </c>
     </row>
@@ -937,30 +937,30 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 60</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024-01-17T05:50:00</t>
+          <t>2024-01-24T10:05:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2024-01-21T08:35:00</t>
+          <t>2024-01-31T13:05:00</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d1b0000edd367a1_0%7C091e0b774d1f000032dd8284_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GM5XhqxXha9iJ3tJjl8Tcb7FS7yMPeEDwDIHUxWufQrNULwkewllAibIo-0dasWmGisuQNNQldcjM31cOOkyu-JPrvBePOsi6o6kgCCpfS85c7f638Jd58zua-PIgs9mM1A5Lmn08bPnoi5T_bsGCQx6ATsHFwaNBlhGazefSQgsHToAfi9RYB4B6wdfobCDct2XaDfAbjTPnvbygq9he7RBuPU-Q-HN8ocX7UNCZ-zuMwEqSXV7ywr6SM0VYp3DBB5xbSDhx_IztioJqSO2Ss2dByJiP2FW2yGUdoFOOe4FDu6JhZK4SQFN1XQffUqOK-9Vro3ZJEeIfB5Id8EHfxWZwRQtb5Adr63DikzDFpuTGOUqryPJ_WtrS0RkUuVwJH72Yh0lqHq_XbJIfbmAWltx7pu0lmCbZXvhspPtjGXJwnRcAYowYhRvtUFLrz6zBuiuRHeqEn3dDpaHDG5okdNj2OzB5qHIe7OEfYUY-LOLnNsX-zxZGEdRg65Hqg17pYJFAtQi2Pb2YswjT4c0LpOXMYzOAZxdRsHt4zQJBztsBzXPEglqqpbJxfbn8t7l5Drkmd0pUC1hP1C7OkICgfsui1c1K520ZcAkfEFYqqtY=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b770a7c4d220000157bd31e_0%7C0a7c0b774d290000afe282c9_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=ORY&amp;booking_token=GPRmpXPUu6UV8UPM582aUqcoMserOtnRSIzN_90dHAAWPBlQqsSxv-PlxkJLL-dY18eQxzXHDFwuLLHJkuW_0GsGtVSkvTf9Zro4ey5WTMxoK3PPgM2SpUb3z1IiUscgGOHcixSYRJPACsXWgVN0mTRKaC2fqGoHAbQvkRdISQG5eGlNzAPLYpos5oI0zIOhD_lOnbZBFfV0KgwCLmuHzoVEgJe7ITnbBza4BqXxV49gNSFzR--KSriWTRv4pAb8QAS9VEBI9GUVHg1XeKOek5vlHYEeQIUmSbvf_OAG6D2jTE2VCWA0Fbh3SU-hZwwLCZgiG8nm_NiavWDbeN9yXWtAnTFlsgKyo_ovIrnkL8lY3Kf0vZUSdazVq_lbmmICN9aipgabhsf0sANja87xU7ZTH7GQLIGjKAEpkm-PMn2AT7VEPYAbfiedtHuiJa9HUkllAwtb2fSkiZK3r2-3vK918DZ6omyNjAL32-S7ANQnqb5zzO0lYWVpkgGojRu3HIgyP2KGt3DDJD3gNT6j6IWF5UA2DTFw4Vv5P-dNq317AyTJgrNlUqBIwO13zN7B6UwlXnqRLIL6m2Y-dyprVHbOdWW4GtlpZV-TAYKt96k0=</t>
         </is>
       </c>
     </row>
@@ -975,30 +975,30 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 60</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2024-01-17T05:50:00</t>
+          <t>2024-02-02T10:05:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2024-01-23T08:45:00</t>
+          <t>2024-02-07T13:05:00</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d1b0000edd367a1_0%7C091e0b774d21000022ca1225_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GHvJV15AC35PCeXb6xgu6is8TWbSHbQYRiuxgi3rbfMbA-sX-X05wvzb9MNsgjWcpaOc8kr01jqs6oYqid9Wr2JwMuvrsa2NjpPsSEg4oVfX5PST3C47usFAiFzL7ibE5wU8KV_05eZaguvXnj6N0HYNxqLrlf8hpzAtNpSqg20weAbA45GR3XW7n1e7iewvFlSfaRFv2wjwPZ8hR1WLAbIrRcCzWco5-uHOwFgdycSA7tk1S3gN7Z6prHtkxDyGIIUQlfISz1qZMi6hqGQ5dGpT_gmG-xYFfaWQ-scrf1twJ9h7egSZY58aoS6bfXE2oVtryVzljfDDUyUXYkqKhtIRn7X6Q3Hn8nv3ChPM6pNM3TTRz5RBepWFsTfPdlNdi2XD95N62FzrAjJ8ifWz5TF0wbbZvqbMGHQl-05t1_31KXbt76YQOLwBlMe_rL8UGDzMbTVhHWY0mgU7He2-t-W6Epa6OwLDsNY1QjgoBJOQphzox5k9U9j_I_TvJP9Y53eqLgljzo4Mn26qNaBpVGyyNwOiVpN9WGQNM-brvJQytt3NPFZ1ev9kvLCSIewr_gAbxHLQMlJbH8H3TtcU3ig==</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b770a7c4d2b000055f6356c_0%7C0a7c0b774d300000dcc3e60d_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=ORY&amp;booking_token=G5Br4VluBZYN1gI-1reASs9gKQz7GzrcA8UpCLllDZ8aBHqTLdQ6_1td92x88qNMfNDeaGCEQ2r7CHPBXkLMojri9mHL_2O3X6IvOgDgIT5KoN9ytpEQgXMetZTaUKIh-O1PgjX6GCv4ei_Octj-M3G_hM55XTPEJolAmxcojW6KxGYcn_qOQCNjB_dsoUa34Wggqb2Pwi66_qYIIdc4meAEOiMSZRFr9hYquJf8eEbexw2ZnPpcqHzA6f6lmIcxzjakSDZGJch5R3wqf05qtJfR24fgi5RofbDv8bLkZDnYgngJRYBaF5QNKtA3KeqyujEjbagF0n8s8N3UIKqpbQ3eeTRcRfALx-EhSNsFVdo3zKHn4Cv3loIdeubVnaIcKylCiHKH9vb4lsjMGizUm-0Cu0YCVXMqPnrfOBkEngHIjzom7T0EAqeEIrIVD98xTf6LjcJTQ1fn1it8T7i3hRuf2rcn-FG_lgQco09bh8EFb89FL8XRCW9F9Av6inI9raI8Gthpx5zM2y2uvYn9MREoPf5DRI9JXNfNwKDjx7XA9QO6XhmKSkacFCLzeEDgGpHDEtXSTcgWeRT-7wDaNOd_Cu3TYvjnOdLkdsV-n9j0=</t>
         </is>
       </c>
     </row>
@@ -1013,30 +1013,30 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 61</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2024-01-13T06:00:00</t>
+          <t>2024-01-17T14:50:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2024-01-16T08:45:00</t>
+          <t>2024-01-24T13:05:00</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d170000a24f8549_0%7C091e0b774d1a00000015d301_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GwwbwDcGE1FWzhYNDEpLuIWeQs9Tc1Cmt1BVRsc97o3BCsgyCamiRBsaFwyS722Z2OdJrZE7v0FKifFQrL4F-pHGJVO0nSvBlY7q0EjHdaJBdN7ZfearZx9HdbC1tP43jJzFlJqu64E00ItMUq9UeQLUguvqZOdZtyhmIWPBWyaU5AFm3wcLDfF9BkbMiJ39IKbi7wvMOmsn4U8PZLL4tWeMqCjfsyScKVS7eLwyC91raxwmG8YJxUz79gfml8mDXxKBuAzfC4y5fFWgCdjvplQYmRHG6ziMURtGuvGAOW2XFsMdhrs5YKKcJZjUlKAAcwe2TX4VRYb8Y5-_22dQ0O_q50Wm4iRgRWZEDGXSC01nD2259I1e2TZoJ6As0e8lziz-NSPaDgvJ40DGppSKdvnKXAK4ot3j09sfFWkdWJaH8OhVvpEmPlBffOUmNhSj1GF-zw8qB2ghRDEF-Z3Urx5kIt5p6Gzx9_JF3JV3ElfS7bAXOFAsuTl4RAFqo9GsjF26IxYqjznxWkvADAsFRC33Hx3Cx-h3S6FplbQARBTU=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d1b00005710b8d2_0%7C0a7c0b774d2200007077a65a_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=GS9WlU-Tx8I2QFMAB9lY8M4jqFsM1scE7oA0tzykUU6Mm47R5aSPPvEo09A7A0njsLa-t5w8_jYj9zqHN_twDCwNbuXmh28Fm4ThxpTTwDwZ5qTrIEKaP21_RI-qTQz0CkXR6wHsJImRTWv1nIMhwYrNvkO3JtNlE1BnVl0D1FOjjSbWXyD1V-PkzTBHYaueqe8N8_pLVsQCpxpXRpvC8BUzamza15cCkdSNQdjK0mvs3ptMMQInWfd_7zYwHrsZy2HFEkFr0g1hHo5vv9tUKmVYwrM64sZeHfRUDaQtxeo2TbHFzI3N9Na2gZwEIfIf1Etjnlcof6phivNimPM88rmpT3qvTYvO-DG5cCGacgwofp3VoWPmr3cwIluuHFncoJS3HuZ_g98hgoGpHJto0-W74FBtYGSYYAS00iXxPuz6g1Pe77dAliG2bFYlpFedGBqQ4KNQd5RG0kK4Nvz3KTMM9SHrU7wnb5R-gNqy89TxyrVXSeyswAseyxdKF2-g0R3Jk4Qb9VoeVvU-zrxzJRBjgQMDVVU8bW0BovUuv38wETX9Q3Q2sD_B5OizmBPTD5Q4c0ZK3hUHxJPCq8-lIW5UTdQjt7ogXwgMixcE9xAd-Pk-Dpxe5o8pKfxIWTInj</t>
         </is>
       </c>
     </row>
@@ -1051,30 +1051,30 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 61</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2024-01-16T06:00:00</t>
+          <t>2024-01-17T14:50:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2024-01-20T08:45:00</t>
+          <t>2024-01-24T17:35:00</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d1a0000d179267b_0%7C091e0b774d1e0000ae4752d1_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GX_EhSLnogvfYkyphMH1jlaoT3x8VNf9OCLSzd5zYeK1A6ckmSvrziU1YVwjRMw4ABQSiVC84kHlKz29bC7UvA7-zBL_NqDkhD5JlrrClKrKSHRCrq01CAe7rnPlS67IA5K8yqCl5NhklJg6leNl-SwurfnL00KAMFZXS_0NlSa3LfrSPhtUczkNRPv9syQ2bb2a0m6iV67iDn9zk3C5t7BAQ9OSoRpXDxI1RJ1tFwe3USjR_nk_2wApvgGA-Pud-sr_7soKlWi0NtB-eqcE5os24nzOrpKs_KJrRxBVwRm1rRQkOKqyaLDVCMqYgc7b6_6Kbzmy8_8q5tjaSqlicJovF7gHkV943ryI-BNg517aQ-pJBoAtDs7qA2fTCBJwcE3g-kHDS86RFacNW25La4Y_ppAzKvR15xXwk8GJrMOf6633sCyYG_Qp1T-WO3K6NuawwNMFetP5a9hLYkDXxElU2oOhqHhvg7_Vyx0TjL0dvVVSNXxUD5zDkQ9R4shUCkDZ3bQUMk4uBfSarwGB00S-kWo7jBBgynQpB3co-WUwhq4PBGO4b4NXQQryMOwh8UEdTUSTGCR22bMvinfudEw==</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d1b00005710b8d2_0%7C1cb20b774d220000939c5010_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=GzIP7dPEPLCC1o5rKxSLQVB5JkO4YWUda-w4Nt14NSH7fAde854SpscHZKn7LqQZC7_K6DRZf9h7UivkHS-vgm4lZ2qldnMNykRMBphOGHlCtjGHTlBM2f93Q7qXIz6gtkfsms7UZEVrBOxdHdt9rVjsvrxqKmgVTugK1yqG1lhgAmM0EXL6rvgcxPkMj0AzS9F4xA6mwcSVH5vYcM-v_JxCUZPCIC4Y_9wxXESSkUbyVi0Gl69HXP0uIa4v06hYE-ZwWWO-tqheYLn5Jv_jFUAzdviGn23BDigvKr03PNLJYiAPQPa2Z8KWiL6G9W-FtWwVlbw6vY8KgXj6D1p9_ofTM1-9YZXgC4Cx0NsUE_i-Y-xMvoHRpR5z-MW26xk8xQVkgdTnLVvaudH-eDJvS1m4hbY5stXqy4Agt4Uzmc4hTRDwfJcoRn4e09dyx5ry3-pdtMB4vKd0Km_cJ_jBv9sCgKhvabVZoZxh47GmI3ZShAehxRmej8kIBIFXg3O_sDOl5NGwc73OEk-A_rRxtsm0XqSBX3t8Ri2rYn5aBxmjTpptRLDl77gSsc_R2RJax</t>
         </is>
       </c>
     </row>
@@ -1089,30 +1089,30 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 61</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2024-01-28T05:50:00</t>
+          <t>2024-01-27T07:15:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2024-01-31T08:35:00</t>
+          <t>2024-02-01T08:45:00</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d260000f96aaaf7_0%7C091e0b774d29000078c59c2e_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GuC2dIJnYY8C77sH5U9343fEmQCe3-V5Ti-yPt6VbHm5MOrGBvYhbclI2bQcXg1F3mHIS7dU2-k_T03b21cuZ9tUHg_r8RX0BZRbm-X3pOFl740ZGuowRz7v7lZSpshPSVyySsagLmb6BWI0AaMFzQF9HIzopdzGhll78u7FG1AmsmVGlkdY96sUzmOrg4HZsGa8jZ4VCCZIQytb2xmaffZ5OxoFCRIcXEXyYuhj3GwQxIfVVeJvnUq2ohyoFvBV00oybJBT9Oxg1qhUmrxb9EcNmccRUMQVby0c3z1qXlcsT_J1SNeluq_LcFB6yQGT-5F4WA_8IUepjNLjmxziDKtwd5wSwKmvwaDolqe3TOZgocazJ0JomZZZ-h2wBqUs20-TbH5svTHrydc9rJJOvj6oIK16od8kAJ_ASrNu8eWr-_MLEv8ntmiR1gKoLN_7q4mcHSkIKzrIS2KSsguKBWn1HaPXOqriKVcfZjS6V67bmYhZzPoXiVE5705VKuodXz7-SvGxGXnUNxWgGzHPlk2Tnh7_vM0Am5tV5oSYZu9Ik8x4y5HGnkqp5z426lARVJDxMJ65-gDw8QP-Y8rGu0hBDEJsGpx5yrHQF-RuOvq4=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d2500007ab23e7b_0%7C1cb20b774d2a0000003b3d93_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=G9FvNlQq4raMnohmMu3RNGOkOohgzjf1fRl8MkJbHGI2EyleGPhfEPF6TkHAIPCBtiR-Cfy6fJ4rILtLBZfXlyU1x-P7ECa_-OSBEpVOYYQ8h8cqBhTzK6Pred8CchCd5Tsm7tBEoGsJt6C8hrofn0AQ7EIOHinN4EfUdcJsq3SwynL4r5pdUHiY0igVbbDVzYMCsKDxKg0paUoZOVlovuZdcpkhqtLLmdZaXpONpwedUrRlK8_7IUjXcXXh2WrIr6k3dTibYRp5Av1YOmQfQgQPEOv1gRObwvvSz6dU5Q6J4Y8yBPFgnvplq80c-qE7cp-rMbT-nvFxFwzmsSjqFYeCLXLviLmUxrb3i_SeH9pZGBC6uNfnJTGhlED7EDP1gYYnoR-dpi1a9KDHV4NNgufcIldmEtsKfucTLQJc0bh4JdpLuLZucVijIRQeFFubnDy6XxzWUJbPsW_C7d7OsxYJF_FcOZNs0pfAiIAFXn3Z2TEPlbO2TXRxrntlFDXSu2Gv9yJPfYUVLW82z4jyZhSPJ52akUpI3C2epaGL-G9s=</t>
         </is>
       </c>
     </row>
@@ -1127,22 +1127,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 61</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2024-02-12T06:00:00</t>
+          <t>2024-01-23T06:15:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2024-02-19T08:45:00</t>
+          <t>2024-01-30T09:00:00</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d350000b5ac0d19_0%7C091e0b774d3c00003be982a5_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=G6iV6hgMeX2I_Rs2E4WUQFbXoBbW4zdh9s6z--FB1UE3x33KQK6oRL-x4kl8kHBHwuKRPNiWhs-hYrkaCRSUuFWppTbYDQgl876EjCNPDHF_dLrJ2c6xl_6PqtGkvs4X8nE1vrCtqpFUa7Qi6pTN1ZaHegnrnLY2bvNY4zAwfdnQgxLpiAQUqbK1_hrSXkoA_yMtenDOILdaHPgZ0FPo-8Y5o6Ry6SItuqxkcv1a19zl9AoZAKElsXee7xuQBOHKalMloCDHacTk0MTjmXC0w4-Ag62N9gOfier_zoN3Z1ImRnSEx3uEPFQXNMaSKmNfAdNYAQlxnieb2HphsWRgqPEXuvFaFvU7Vt7YguyxKWFaeW6H1tNJYzJx5M5CcbSvLsaYjCjlYuYLOIz-VeQgs_VeLwcahl9SnWdekxq-27kt2R-G2tL5Twc5yyHbUFq9O9kXPEfsERUo1Zyd1nnKMsnWzpKBljwqx9hMMRbA1TCEvhIZISiTNWhcliNMD_GbJl9AIvoPJQg0nbFeC-05NhwLFoWcCvY2_mM07f2v3enQ=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d2100004965382c_0%7C1cb20b774d280000c28b40aa_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=GqHzfr8JD8yJq14mkZaOfKqO9uSeDIdOJjYaGOROYxQvoZGASejsfYWM44VjzMU8-EjsfqyTyX1WdX86Bia8vaXwRgAz-ve-WUpuI_EL80GI2m5k4hej8QZI-OR_1amyRcRCxK6DUAAHM5-6lpcxBdN70f03JlbsgAD3AJKkh-GuKE_uUZSxWBT1NHJHJhzmcYWKgxxcpAtCL_FYSuFPcD8YFrGnfcuX8JloE2-TLWQVJpbkOMfX_Y8gPeQlIwKxznCzQzF0QWWJJ8xYyVUVam3C3tHJeCUhOE--zLJ4L6fbH04C4CtijqHl_gmnU6r4n8Oyx8TaAeUvCUXWgUzmvj1z7BTzK6BC8F52NTOy6L1PGJ7nIDv5GxMNe49o_7b7cCnF7ThFMu0W_yWrIpYng6zKnzr6GQYKOzMLuLAwMfefVU5uXOKmUu2aA52eZyxNT0vh0-aFKRNqOvH2FvW4Yf9-XUPms_9_Y-1bC0qhqSUiUs4p3hCQAgMxl6qg54XRX3cyO4Ov7s-kJrTJucQ5U64r6XYbaCsSaE1WULt3Hm6RZs4xFcLR12WWU3KN5aIBz</t>
         </is>
       </c>
     </row>
@@ -1165,30 +1165,30 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 61</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2024-01-18T06:00:00</t>
+          <t>2024-01-21T05:00:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2024-01-24T08:35:00</t>
+          <t>2024-01-21T17:00:00</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d1c0000d757654e_0%7C091e0b774d220000a750b8bd_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GYmtOt4vIapJBPY6bkf2OV1xh7Z8Cj7tPPBW37fj2c1vqOj5mwmZ_8QCQxkHGvlccGPg-A9OU8DGgo4myoc3JaLAOmBO8pVCVJQg25OtQiQvg3D80cteWFc12q8qNs75FBHWD762a3Jc1wtuSWCWOOFEWL65rDmhCGis53JJPcCAgUZ7bGdqMuuz49Nj5TDCSU-34CFcWEqdyekMvdKjdtt0aBo85Av4qVbeHpVshjlerOahAGBB2O0UQU5Bxp3GmwjN0RrPdjtHeK1X8yr-YFrfyQ2-Kecc2__icrxfIzZ3D6lGX2kOyfhxzCPkhotIf6ZJ2o6IU9yM9QDTJAqPOTcE18c-ECfLoLe8FlpezAKY69AU9eDRXccecpLk9Qie4ZXYCDx8guE_3r8Kba4ql16wiCRF7RDE-vEhZSMmjR0W9HX6O1byaXri24MmETrQKNUVPij3FZyTBCB0jmuZP0vnUO7lh373K56kX4DwFvOCWDK1d0MrsyPWu7fcFjdIyGbrX4FZM7zT250xq4h9erOPz4dKjak5FC6ZyeQpcRkxLmvYDT5z6ZVBg9KkP7kYu</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b7723334d1f00006e21c920_0%7C23331cb24d1f0000bd98a972_0%7C1cb20b774d230000b793a0ad_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=GmJYvDDbgGwD554vJo1TTRQJ0NQ4FCY4i9mRCoXX_9yk8atX9roqOceTQAVfPMNQob4Q78-wbXntn7kPkjknekvPmt7qcHJekyfmV-itv6tGYzvVLBx9wBjtW7m5gYBLhf58CutdbhS6Zk0YZO2frz6AOyjIa5tCO7tENFQPK5ssVGPd3H4Yek5rjkrPqaABttwzTi3eAYtN_6eoP9r0mjMS4N9UBSnUJFnTE7kCFd4uI96VbrLt7NRtbVN9dZvJtatuypFVwUUk0Oqel479dpIyV88r0ReEhKxjLO-AGK8r8nqEBLfvZl8M6lETy-0qMSkFewKpvpbcsryxa-uRnFEWS6mQE7j5mVaHcGfsMD0KddG3lY-JWTZ41RFA7Wv14ozWiR18FjntmSCKkk6_u_E368RUG_JMuHiWJLqiqz78P4mOvRe3tEcDowh02_jo_Zj0sfaYC_yo-J1vFPks6EQ6plYBflaIEMAJiuEbsvN0rmgfuwpc8LutfXjU64jykFTCvJy1FgqzzT6v_QfPAKjsg1l1kNxkwazkapLTKDFtyGgwlGqTzUeYa9OSDsTkp7KjZNlD0f7o7AqQ9O2uPJh7_olCGgUcQeSlbpCTfPc7mcL-wdyPTNwOyVFKF2N1wtm2LOqwjZkJntbh8FMNXXg==</t>
         </is>
       </c>
     </row>
@@ -1203,30 +1203,30 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 62</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2024-01-28T05:50:00</t>
+          <t>2024-02-08T05:55:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2024-01-30T08:45:00</t>
+          <t>2024-02-14T17:35:00</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d260000f96aaaf7_0%7C091e0b774d280000f647a807_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GE3lAb0ZyD2Lsbmr1FFOUmgbFD2K3RY5nQfPZPrpg_ehzfDCHquIkaVl3R0JQ3WStNz0Bh9azCtf7B9jgV9-uyWUD8LyQNbVw_-8Nb5-Zw5voUCUXmoUHhneW-PmS6HtHfgdEltbTZhbEqc8KpbMFd_LnUe7nje7bFBE9P1sEUvPZjdBbeT9dczHYq2RPqZDQ8GKYByWtIjazmtkOU0yxZkUQizVuwy-tVCt3OQ9LT7KWlLlaJIHtWDCDG2_YqKmac5JozaqonR1oDYD7Ne3rKX4mStPUG1pQCJHfkui9rTlqYdIA59W5NycMUQCw3ct0KPBQx4UAksnLm0I3oWsIrPFWIbY6o4dO6eYMHT6AoeAE9rrcLNh3ZLMfzX6zfbE0JfT_gMrgck6LrTNE9enBy-CO7mNlpIIOUmj8_kfBM9TmirKMLJJfmRx6uqHfgMab-cwWFNToAoDxP0W3vBPbfom4zL8YIjc4YaWYggQR1RjK5V8KQwyWPhKte4714e-ZPIM1s4Im1s4I6IQ8vmNji27GYi0DzZSqt86oZNWS4bW1KigVrc-_JU6TI3p0Wlh2vJWXRHyRhcB_zJfxoxxNd_orfQSVZ2ho3F1KZ5AxvRs=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d3100009354e9d6_0%7C1cb20b774d370000e856a062_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=GjH6TDTHRFQMQfnILXNyN7zRSYJPq9uju2s70W7ohFp6SYRa9Ah7LbbYmZLgudD7H9jH96eXoyXvTyhCoAsk6y3o6oL0ANnol1x09CcwzG5QSAq_3bOi-P9zcYHAWLvY3Vbl2k2yXrySa-6T6zKQ9b9VpDoaQVF32N5k6bvFEzW1TC0HfIo1LUOUnIwZZvy-DobmqGSvvLCjMZJuWklr9cZg0N4Ccx1v8zQlbSpjfRUcWTP1BJhRqcYckLg52NhyfXDx03_S5phdA28Uw8uiN0a4DkXvldO63w1utAK3GaoZGohxm0ySArPcnDrqFuJcaDzHDm-DhhnZbtrvuEMmdIVarge9XE-LwE2ApdT7H0i_e7Z542GdSWiuiMLf4aEMtC5Du8QLvOxEUBJzhg5a87Uk-gKzojSo_-fDFvl_fiP9f31yzNuQImMDbHrc-tWQ6k6yNg_OLZQok_tenAUzZ98RhKv5x6X4Gyf8oE_Sc3rVwki5kogSNb1P953JgUh2ZE_hQcMfeOn7EevagaQ5gAnHKDWEvRvvc2-pwdEXVihiBZzB428f_XMefHSid5xXxmMks-8KQVaqTcIzB62a0eQ==</t>
         </is>
       </c>
     </row>
@@ -1241,30 +1241,30 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 62</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2024-01-24T05:50:00</t>
+          <t>2023-12-07T05:55:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2024-01-31T08:35:00</t>
+          <t>2023-12-13T17:35:00</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d220000763c4dc7_0%7C091e0b774d29000078c59c2e_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GE0xtZWCwHmrWO-ZQ9MNaeAaoH11QTdJCMSvLe3KW1NS_RcH5uJKnlMDM-ELKsJVNnjFAhyT9hdF-DO87E1LOz9zjujSvKqrT3_CwtTldDCfQpFayJLGouUTjbzthGacWziPfwaawxYe81DOzXueJqllMvX23e7e9If8s14sWyeRg-xtydoOhUt_tXiP5lCKokuAds-4Rdkp3Ghpn1dtfrrFuX4RnzpSDUfa0XFfdgo8tbFkYJ-Z_iiiUDCxmYgympHRQp-jpW7-GI12tLTvlIqxvIQDRwK3MODJ-wF8laiLh97Pu2jiWnIDggEW7BaQpvNMPGt621J4Ut21ZIZO5IVeM4Zgw7E6g-29HlB5qfitmdarYSrw4OhiQvF757P-5_I_1NFT2WtvWR5sGnMupc2cs-CwT0PfHtadP_zaZF4k8NatlRy7gZh4RRiW9DtAybk0ES6oFOxWbPUFzJR2Q8LWE2PKmwxL66iwTifU2ahe9PD-a_XqIcgJ_ujp5vJohE7W6QNP5kOUc39-IirBoo5p7yxdtj8HtkgWXIu45p3FJmGqaaKmfJW88gHaImVAbOB5Haa0wF6pxF69dHBVkx_Ij4NwEyyeWJ9k-DxRziD8=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24cf20000dae1bbb8_0%7C1cb20b774cf8000097c110aa_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=GFDyOBp2DkQFXwlBPCg-voDd3qSi7apMJLMj2vqoCqF3O9K3mpT6sY_8Guf9GE9q9eceEDyk3dO-ZOsgCHdShHTdwBOjV775ZcP_vdoVOdVwXq7AC-LCLXQZ3NzICqniWg4vKsrIPV547YWVKZvhyTih5CiGLI1PdGkUiPA-gX8AWX5ySrJJAtfoKDuErOv3NWCxAD5ya5_Bh_j99N36ThBvJQi8tL9TCp647r6rkCX8PtU-yKoC--TC_27givI9MScglZGZKYzGNQwsVwHOTyZQCctntGnUi03Qrv8RrSLsXhLa2_iabZd1504VFnYh0bm5Hagtcm0kPaxwmjbJKNUKKlvZt9o5KAGCoTQ9sPxdYGnmQ8LIqTvGPWldeV1r4oexTLdcrv8QunL2QwiCTEw5L6xdaMzwmp66QKhk3bNC7S0hCbX2QaUP7qEvjugMojS6OxG3ZC1w9na8eZqHx53ZHgSUBD7bNgHJ-rmjdItLHAAASE9CT5xjjwzzdOmjUsktQ73Aty6oKLmA4WFQ0cccZlVdlSfuuUAlzvhptfdZwM53YmB0fcR_zcuFEQh9N</t>
         </is>
       </c>
     </row>
@@ -1279,30 +1279,30 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 62</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2024-01-14T05:50:00</t>
+          <t>2024-02-07T14:50:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2024-01-16T08:45:00</t>
+          <t>2024-02-14T17:35:00</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d18000087fcf175_0%7C091e0b774d1a00000015d301_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GbCIUr1dJ2RwMsWrK29HuwSow803hHmyC2KzFl_Am5Ufk7zLXxj03OZdpr_6ahXNRN3NOA3LDBy72N0ZuBUDH7yut3PYTjPouFIKvkUwqh8to5-GN5GrUx5lbUkmm0I_sOHaWFy4iZnv8EeTo8unTPTQ5_fDzJuTBqthvU8shJ59268EXdb2T8Z1o-n5t0Hu7Sv0OvdjPc8MdLT2p2HtTfwQvnbZAlltPJHRolicFtP5hqQF1Q3PypjGApx7dHeQAW1MROV--_WOYyefB65tfjHLjHsG1FFPCrSVIwqBTnxUUNgz6ojPvl_tMkl1j_9VwKLsdgs6IEI1JO1Tbpo56_zXQ6appTCYV9j2zlKftjQVGKjuubHY_NMVx05331RsmJVBewPz3bmHGyW464vI3vrjCYjsOxxwvhdz5uKRhdfDs3MRj6JvPzNqib9YeoYql4YDXpq3zIWGZWbQAdQyTX2nx7DSUtQQfllvLwPmpUumYG5I-r6pvcp9QHOODiOeUIrKQc93U3ONntcQqnJJisyEWURiL4zoOlWyO2zhfRlo=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d300000604bd2e3_0%7C1cb20b774d370000e856a062_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=G9Vw-dRFNRXdT_flu3mrjMTFyi5wE7xQB362-QEKQmy5mHPAEyuKKADNSLr4fkvL1zrySgvjwFfWud8UpJOaLne-Xid2VyJNWgtzyWp3eTE0OODq880p20wxmPu491G9t0QriOS2sGS0ZVFH3X4XnbHBP29As31cnrt91ZXYW0KY_fuKLHHBUtXoeIhsml8uJ36zIIy5Hw8ItgNgXtXX87EOeUXsB3YCXIdEk2MUo7z120y_x2RUrYTyoJjZ_QgKUatTwrYOAuR4rzbdi_Fl3E61rcAiAEydYXvruVSbgnwHJF5DTb1MXCqJPYXnfDou5oaQUKj_cTrVn3LRgSufBsM4PNQG0OUah3JaxseVreQRSqjhWuWd3JDyXzpe2_ehNqLqsd41lbOuaqG_JX0v9rXdMeVOnIy7oMaroElXBqcYSNGe-2wiIba-s94hB1qFJIRFYtTQV4WNoCnDYYdTWWVsx_Ys0wVOS_JsrwKkYFsZTBLdSGv_G74-q2Tn9GtKlSffNqKGxq-0aEN1GTUHltisxNSszFNCQKWPdNkpqIzO5tGC6f448rrByhZjyFxhK9Zq0YpVW-HfL3BP5R7g78A==</t>
         </is>
       </c>
     </row>
@@ -1317,30 +1317,30 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 62</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2024-01-13T06:00:00</t>
+          <t>2024-01-27T07:15:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2024-01-18T08:45:00</t>
+          <t>2024-01-31T17:35:00</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d170000a24f8549_0%7C091e0b774d1c0000063b9034_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GnZSRpQj2fysCYNNnDgB9lP-wapwslRJ4joR7X-22cQJoUEB8iQJplwExtq8PM1eg6aMq-tF5LbKUSc2Y36fzrP7R-2VvJua2UL4DPP3-72W-V5arDoiNTSc4B84p5atTTdayoCCvRgmpj-dA4pvShZZRm-wa9qH14Hc_tOjAH8Jrj_xBG72APd_FhyI027EZF-ckQbHM4R1TdCCoMCJE7oe5rZdQvprJdWXIVeMIMtGvt8IHYLv_fBIBazdbvJLpsKLl9CcnWTvoqhpdYojIHqGyXkjMvI7917wCr388g_r_NHYkBrcqe6ONxBmCE-nRbAL3me1bfDpAE7HpHhD_9xw9okMHEA2ENscynpIu2HpMg_9g63ztEosqqmJvxU7oiv2Y6hmy9OoCbznmbNKGlrOxUGEEvN_2L2Uk4bsC_60V7NJuxkOQXXe7562EEncnLJqZIgoodxslgPpkBPU2UvBukbyI7_TWFSEXBUnRozjw-Exkxj9A-f7YNYeK7VLIutsj-KqEdhZbLkttNm8whEqnurfDNTmrlLi4bWImhEzxvLMJ1vAPOed9kTYRAGwl</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d2500007ab23e7b_0%7C1cb20b774d2900004c097483_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=GYl18pXfl4NupAu1DqhyxsXfvYadf7eiHY5BrEAK1pTsnAlyqEkpGozMcKBQ2W4jUk2OCpiiqRUwGYKAfCJmwTS9WYd983HNZPuWfDGZ6YhKlDddjN9PrucVT8Z98vnz8RbAJv0INJlZvXIUPjv5vWEwQ-4mixTJYbAYMEcR5BehHU8-BqvdeNzXIFApx9urJUOsLpBpa3rTmG0IYC4-BkXJJJIbHqyDIQqs7yjX5mFU_Jos04IkIFgxUzDpCJZufI9JCSX9y69qDfE--eHVWZjgwtkfaLKZEMaaRQvB8s2ldwQ0fPn5OmA8UWdZd6neQrorlHMxFtNFlO40vqYliZbvaUx2DLCbsjz3l41CDVi6k1lJwszI2D0KKT40GQ2JPQtUXo5E6r3Iy23lERC7f8xebxkJeNnuddeU3ud93dnVpdWJPTrk_CZVqQXPclC_Pvd_fSxL0nLdMIuaD0xe_X-lLcFX0j9_d1qYjwC63nBaHGEgVb1i498LfOXJdY6KyhpjM24so9rTRKUDvWw6EFg==</t>
         </is>
       </c>
     </row>
@@ -1355,30 +1355,30 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 62</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2024-01-14T05:50:00</t>
+          <t>2024-01-24T14:50:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2024-01-20T08:45:00</t>
+          <t>2024-01-31T17:35:00</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d18000087fcf175_0%7C091e0b774d1e0000ae4752d1_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=Gzkv33I0Zrm9A2WTCKFBfQ_cU0q-oDJVw2zsQjkrKNBNzu0d68T4SZ-i1m99P0z8RMCqGghiuWzJTFJs25Wnw-V-DV9GPRVKham2f57BFebudxzgEjl9qShx88yvGiEdbL2WpPeTQEjcl0RVeOAuUJ1QZ_jwb2L7Szdd_awK916cNPnb2bjOSFpc8vxy57OwFlSY4FAm4AI_lc6TT5UqKO7zC_uCpTXJYtzxDMwlnNr8y6M9-rppe8udZtWafTOE4Eor7nmCfuCaVfb35tHZCFeCRgXNaq_gvR60nunKuhQjjeoJ0S-VO_h5rvXYAeqKokJ5yxSKGhaDJX60DP_rrEkFR-sSaXZPggoC366JwGrEncClx1Ys8CuwNRZGGtLXOkjnCGZ4n48-6dfhDR-RUq3rWdGGBR_L8S4uKD-OCpxClGe9gN-3hWjfIhf_ls4WGddQHwxgi-RtRGV_GLnS8NaEZxaDyA3kIu3y7S-FisrT8H_KL9-h18vNDSs8ekd-CHamRBWGNlbR690x_8V8XryygV8aisZkF8nCRhOSCBQxe3qRRSwQQ1pVKhdBHKEQK0fVk90Y0ns_WdriybJj9iQ==</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d220000ccff92b4_0%7C1cb20b774d2900004c097483_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=GyXpdBj2GhUL9PDTxUdB_fCCdQA2imfGlEHq7RKEe6Ir5iBm3Z2YMXTo2dKJhzcshDKPuqcqH6xYlD1VdCZkSnu5RpbPgvvWZ412sGnFten2OP0HfYhex47tYSYK2qJVOPERvJ7M-KTybUWlqAYgQRriHIjMTjg4-34Xq_03waWWSKxLltTwff6Ih7nVYxp8JwNEVxg1OGPwW5Ombsuy5PUfLSTMDxh7AHFaCM63x3jQwJruXUlZDESS0hBJJlc--C32dMQVp86X9J0b2zY3vR1vxnNEjQrVGU6ZC_k2svW8JbzaFMRPXi1KRXJlh3_4HDxfAtCWr3vtPYyFmZoiq1-cjXdZe4xZ-T8K2j4ww2NJ021an40_rjaoyA2kwf9bMlipLALnAYZYTvf_dMtYjVmrr2JKP016TJRVRv2Rg3B7YRlZDjNRtwPl5X1O05itCskx3vv29udptQWvGiAeCW26LxTLyX5GaIpxyum6FVdrDIFwYUwQWRYqpx7elVJB30psutkGBRsNQVAm9PVQF7u4udVaM-qndmsCEMN7Pc-E=</t>
         </is>
       </c>
     </row>
@@ -1393,30 +1393,30 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 62</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2024-01-13T06:00:00</t>
+          <t>2024-02-14T10:05:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2024-01-15T08:45:00</t>
+          <t>2024-02-21T17:35:00</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d170000a24f8549_0%7C091e0b774d190000f50e3e78_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=G_JFeiDEqqcG2ETH3Z6IZSsPzy2NBRSHJKMgSylNfp0lMzUfh7A8XecQjT651af6ZUXWptZzCtFQ8DSPazQKBlSEFOsISRJ0ojzcilQQktumtOg9hszv5PsTtDKZlb7rXOFHNkqIko76aGxdajKvcwIzKZEDjQmUpBwHuHnmzXBq0fT_GaxCx3-l1C02XMz8Vz9wE7w3v7F6oCu4o02jSYZ7ZNf0mrfwjVNgHANWFQvuT0_KXQl4ldCrN114EZulTEHSvNn7l-LDNFFDl3bGBcXZ07gwbsngvs0vXyHc1SPKiK3VzRvr2oeOqR9uEbtjHI5GKRzJMXoRylO2bWnWQP1j3EyNwXlTSjKOe2SCtpuwAsjetQOHsyU0eY6ZDhb3_OsMgLCDE-p3SHLLv1nrtzN0hprLpvKl9rVZuP2TsG1g8JILB0WHJSbPOphdO1qvPmr55XUyduIgir2Qs9mCBWXl3Ty8MJD0jGFnbw_RzjWSoxpdzAuaIcQ0mI5CsSAArV_9DdbnpF_Vvy0zvvecNg_1k1K6G-g1fCbv8u8A75LE=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b770a7c4d3700006eb1236c_0%7C1cb20b774d3e0000e8c54a05_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=ORY&amp;booking_token=GKQyuC7S1MXtEyPAue52RLssCse5uplTxv9Jy8EhS_ELztvqqsiUoGkVV2YRqoyxsjM2A6_0ns6UNqYeJr77K0zudi02YVkoTBKXefFjIXFM6bE44N3aCb85szGDvzbZMlAlGap7IFA3hhgR0zU4GHNyrMpK2vtN1jgeWEZcknLS6Yc7W7ELbIpgu5n4itRkO4tYuxIlVHWu2yh23WfnV_lSpSALeSUu1kD9mU57gnDW3GexW2IEQ3LT0nFtwJlTbyA-fYXh8Efms_RYarGlHDGAbo1wWbs812KpkUvfnfHBDwiA11TZs6NjkRFxpqT9yOqUEua-xzTbRzFDnhyWUNt5EUNf1adYtxG-HXDCzGOgnJlSjXDDiUKi_kbKpHLpwxb8WgJ3Gs9XUQgUC99QwNWj0XVv7VHQMBFAjRyT06fTE3H_S7DjBjEyLOWlyOL72EKhHx4rWtWfg8urMGb8iowt1VT42E2r-NntjrufXsOXd2V-3wkUYiMQdMUcaOV4cVwFVdxheP2Q0Nypkq2hzD-K8RjbNV-oLO8ev2DAZvlHnS7qO0ljMVedMM0T1FfLCGtI4sJj9_v7BADvwcmgokA==</t>
         </is>
       </c>
     </row>
@@ -1431,30 +1431,30 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 63</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2024-01-18T06:00:00</t>
+          <t>2024-01-27T07:15:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2024-01-21T08:35:00</t>
+          <t>2024-01-31T13:05:00</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d1c0000d757654e_0%7C091e0b774d1f000032dd8284_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=G-TS47HJV2ioAK87NFZxB1KKXXHOG5O3qnkgooG9GeR9fypkbnSJZdqz4PcOoJwySyf8G7qq-XrUbNtqv5xj8Rn-HRMRYqMUK3IWa-hTJ5lCKsE63fGUfLEFafRfp7nNqjICWEF2JF0XSPCLmq7U8bB_biO-BFr50Buoby40m1FREbQp1ZWx8CCf29LWrBFiYEpC5iUK9c9sf7VLCAUhvsRNpTfqil9ZTUSjE8gdTLiHFEqgwFlJKuyFwxGikrKSI-8tO40gByrc0aX0U5vzTXRZjpJBeBiP_bki7DrFgodsZuYzdJeDrJETLhaM7F0n4B-0c5E2jIFnlz5US8yYmjYSfAWVoyPHabUk_9LhrCY_BAzkgoN31XBun26EscFs-JMKtdI5K-g0L7ocdrZc4S8bmfMlF_2Q_xFSH6Nov3YOgKQWm8jCW7sV4vXs0q0vVpkRShDbwW62pMqJI7SR00f_DbHcfoEF4qBepbT7d69NJ_6W8MCBFVgV3e3rEtegcV3FHpZSxrFdEI0pvwRPwWvMkVqhdXIaOD8vZh8ZgW91SJD7zebenuWqvST2oZlVlaGQxWQU2_JXr4nfoXwUIudcBBrll5PXbtwxRlC8pekE=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d2500007ab23e7b_0%7C0a7c0b774d290000afe282c9_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=G5kAHTlQqtd_-D5MwkzVkB-6nFSDZqllC6VYXhlZYu6nByQ0AqHmNRM3fJYGk6m9oCi1ZAcmCNifsIzzl2Lx5AYXNS0E-6oAsb5HI7xm3z7KJRFu8kQD030r2RzDAFAtRRzLqw3XqjF9dQIrRX0oxvC3P2li_W4wFJSPfpUjlYYmuTdV3JJgrDhHYxSC7EZo4mq0TE_JO8CEG8PltT7bCvMZ1dh0Mlojz3nuoEXDrRIfN1q_OcQ35QOo-JLaMURqfUHtxJN9MSnlp9vGK---UwVypzzjQ70CR2lfJNHZuOvWZd247nPxnr9779zm9fCK6YKr28Uh8R_kCqTv3T95JHex7oHir17xN-MU86qtiP2l0UGU2DSjrFk1xzg_3JR2VF-95AAfGdZwUKy6zfzoSuzPjw6n0Na7NYoQxKsdYQRtWVmWFVkUTLsPkbaRXNyE5i_wL97TPHt3Rj0VTAlsZXIuDoe_aIxX2k9YfbB0BuWdLvtt4kHLvVXJO80QosumRFUWFwQiYKfgAheDSjajzAreCeN-GmpP2IYMHTktrzNWvwP0Iqs_Y5eWa9Y-1b6M8gQVijlcHGtIq5-m6T5wVyg==</t>
         </is>
       </c>
     </row>
@@ -1469,30 +1469,30 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 63</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2024-01-18T06:00:00</t>
+          <t>2024-01-25T05:55:00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2024-01-20T08:45:00</t>
+          <t>2024-02-01T08:45:00</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d1c0000d757654e_0%7C091e0b774d1e0000ae4752d1_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GaTA8ZH7mGDmPEs_HBd0Z8q4K1mVVLyge2vW7E0ajbn91Z3nxiAj1Nz2KIvxDaGgbrNCboB7PaavPekuGQSRHyfrQGo1vVMC3O9pWZ1dux4gDqjgKJDK3ZXvqIvOrL04j67iL_f9iQzDLkUI_uc5nuN7GqNrHmgK99r8Wg66ShC_tPx8o37ukI0KQgj3ClZXYJD45zyx34NmwTppx-HLGB2WTWLxKkdJe2AioUJ6zqYfMSiAUZ6rGya8vQOJT-DNBOyYgDusCLXgHK039hmMPbqBpdGAnbxpXwTAEMV6qtjm1gu3JES35WhmUfDJfm_zXWuz_Ak1N6DrMKZSHOw523kOixSITrQJYny_5AWVNQ5fNroaHpPMn7m-fhomB84uelL6d2a3CzwF-XXIBPe9yk9BjLQQPX7y90RteQIr5aij6JgCSzUvAJWww17-5U9Pw4BKFd5zt3aWC9cnQfwDO0nq1hEhD-cgkWnxvyxn3som7KxDDZAw5Hz5F0ryUkvpjCgw10DA5Yt2T6Dt3tlBGjUT6ZPjeNCyObGkayajSiTePqTXFB6IIQRaCUAgdO18Ub4-72qWgHUUwCkF6dxX-uA==</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d230000e8f06209_0%7C1cb20b774d2a0000003b3d93_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=GVkw1-q1anhjO4cc84xAGCCqOVAzCzns6t9Zq6iOFABDLFUaVtCKpJCW1y8qeIU70UmhB5NMI_jMIwTsxIjeADDl8ag8ipVJ35E_hI7axGg3PL5qnVENegVYo63vX4lpM9bC71Zu-AOAb-3wW7ivqz-lt00Wpp8V0KV_jLCwy5fjLQ7ONtsPVJJfhAy1ZKHVpfq12Npy84ioVC-TcUbvmwna90mCstrmmd-mP5aVbmnptUF5kb-j7q3V-c51YgjBU7lM5t79Y-8FyXRdkMmE6cyttBkqWvlFVUrMM7HseI-Efhz_06J2rhr2IiTKpdr9g9Tcc4-jF7TBAuqtjxMjQaIJS4mHdm4_zcpl59H234YVdcwKgCYngeV-e_Prvb5pGAtjyavw1__UmLvAb0T529_wu6SuACpYY1emoT8Q2sVlIKMdzQEKRF0OpFv3tZ-ym6eDgj2-q5xe1EMnX7DOcA0zc6PK0sxkjTFLT_V5SVFo2iySPRzG0UpH0gqYeGwSOOIDlyUD2RcTg1xcES_m2CiKtVZfBxHbFADRM4mWueH8=</t>
         </is>
       </c>
     </row>
@@ -1507,30 +1507,30 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 63</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2024-01-16T06:00:00</t>
+          <t>2024-01-24T14:50:00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2024-01-21T08:35:00</t>
+          <t>2024-01-31T13:05:00</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d1a0000d179267b_0%7C091e0b774d1f000032dd8284_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=G54eGRB2fUYkqpfqoQ4Ga2RT53zfGk6ChLVuSiOw4H_xfxJjeM5ldETC0lKrwVsYMEkCiArB-SGdZdY_0oZ5tOJ4ZOOXEGUA8koNtGFyPUKSmWkM9YTzJIMNQ08u4OcFzOm4lgcZ1U2wSIvvK99LT5mYDott8BIk0YWxj-8fD2yYL_bVBqJ0b_2qlK04_i3_NGev4rJUPeA4plGX3d8txjDvi3QEfdZtQG4XiPb2iT5Q7j_eWnwssFZa1iijeIp1eNDS3cIEWGu8JAJ3J56tthRncqHln2s5rU4E93-HfZUPa3yzsPaHS_vzURupzkFYQd0gI5S9fewGjWpLc_m6RDdcHGaRMa7yqU8QBRXrONX75l3eI2pZpVicZhB4TQ8WXk1eCZK_Yaz0_lZJSRX1FykI8S8m_YOR5gR4x51wnCtrdEOwdubdfg5XQ6aMrmSCFptBGY2CLlBPPctfrVjai_SjlqEy7OOCujzjTrFVGLolo0-th0Ur_as5Z97hlwYPBW8RwVicA2ZNO4gv_wmWqDRY1PYPRQgttiNb3SWAf2YiX3I_pORrDf9BKDxKPQX3n94Plv9u1hd1tQNs7L8TfGP87_6EqizmbVWi1dw-iagY=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d220000ccff92b4_0%7C0a7c0b774d290000afe282c9_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=GBdqY9OLpCyQLpvDiHddtpwQUTgnclVAj_-MBNXrQ3zq25GZghdgPaWjoBqP-TsSn8yhKVJgz3dSKlby9FZyB2XWEUFOMZ6FK-k1TgQ_3nTdvffmvf5AM6r2roMA4h3VbOc6EptDy1NiRzecXkWePAxbC3no95KmRpl7IGyTVvog71DsikbXrpuQBYeXFy0OldibBqm6QnFwa5v6HERgrtcFANSj8FLUmGjc3Ta7Io8hafBoYg1BN2TYnugEMTRGhmZPZpCD8urFKJkbYXe1DE2_sqn6jERtzFGahYHYP76pN-h_c1ZYhNb7smNF6knGUrmoRWP-917oPipuVRaFBqwhMqV3ozUZfixGzECnO5MoNa5mvGClIDzhsi39-gpjxL3eU4GpiBm1neko14WPC3oJGkoAz18GWlW-8kjPO7C_0Kab7XNTlk0L7RC1f1S317NpL-J782d6uyILD0wvECqEvic_FoqWeZ3vs-rcNyZ5AWLbPcu_l9ckQ0qhc0XZfR0tYg9EadIxwLWaRI5Ieu9Y3YhmuSadGZup4kJOioFFTl4TWwtXgeViEnJNHq6eguE3owRxMjCXpp2TZ9B9_Gw==</t>
         </is>
       </c>
     </row>
@@ -1545,30 +1545,30 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 63</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2024-01-27T06:00:00</t>
+          <t>2024-02-01T05:55:00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2024-01-30T08:45:00</t>
+          <t>2024-02-06T09:00:00</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d250000c071e108_0%7C091e0b774d280000f647a807_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GnTDOgEmYj0I3FA8TDyYXsoFkavRcu0rYSd8Ca41L1GaoUKmQWotqUd9SNG7Wbsbq1ggA_fsf4iuEG966FWo7YKWhXg4QFP5pY8lye2m6-nHY9bKQy1ENEN2yG7T8_wi4wfDFVb1lnMSHp3L1E1Vbaeq0B03pln09WAx-6DqdMtQ226QHTr6gb36yglAz9yzTyqISCGvp_epbEcMbKxikLsVI-xpP9K9sAcxQ1nOBPkVS0XMeYBuVt5xnL1r1Wsg3mle4d1zmZJeY4VFrt1_FBOubt3kEAUpXCw2Af3PSwqYEsOs7ZpG3l0nc5HjoeULAYPiXrcdOdbeP3lWhocXWmHhKaV-7X7Yvd5xk7Kc3iF08pRSRaV7mL8vDSWZzNKrt7tdcg6J7Wh2lIEr6UtaMchfC5UExstbEab_RnvTVxvijs1J8jWepEgd0peqNae37Nq8V4KbWb7X834YMuEku6yHFHR65OdfX2srmW8aadV91x8Bcnu_OrA4_kD9UmS6E5gb2zr9R3S4u-5-YQsOVtiEB6rhC_UKjtaeHXcfbLiLLwiKCJzm7GOwchp0ALr3wvos803Lt6Ko5d4onQCpYMA==</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d2a00005f58ff37_0%7C1cb20b774d2f0000b6ea283a_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=GCy61taS4Rg-ptlVVrPITaAyJwo3GItXTCam6y-JGTS945Kyw6IT1DiDAdnVRuiQOh4zLlCG4AVwu9w3eg-5UDioH0YliXhCA0fGoUQBe3uWlAUqy26S9DA8i8lMBcU2LtSwfcR1u4iYPGHnkk6gjllyvR7mKxID96-ftf91sBkDqxJy2CHsKIKThf5GV10ek_Rgi-3EDu5eqxF8W-_7AwB4n02uVB_PM5-xio0m61djqsPYMVp1-iJ9YfDBqdfblOf3VaRvirV6mbTETv4HTPsgCBu7IJVhZR2Rmr1tQJMPsB2c_6ugX51rK--xtZYL00zmobgIRr_z-qf4EA3PF7HbQw8YBw_EuUB2XvG6ywr8uV1Oik6lu3vVefVTk76bPKBJGVchmg421xyOBWjA0Yzovi4jlWkhbuGovqhlNRrrKCHZU6dlVzo3Hcj7LP0x2ItGe6VTdnd99tMap9ObsjYijcDWWuUVu4ujsypO7Ao5a_C63UWyL0-j_uYfe-vEW6luuHEa52mRkFLXbhHxPQL7x1VtZBHdU2k4fdiNI4uAzxlN_d7fFaAxX0xqe1Wy16RtphIqxoAUF50eTZmD29g==</t>
         </is>
       </c>
     </row>
@@ -1583,30 +1583,30 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 63</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2024-01-14T05:50:00</t>
+          <t>2024-02-08T10:05:00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2024-01-17T08:35:00</t>
+          <t>2024-02-14T17:35:00</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d18000087fcf175_0%7C091e0b774d1b00003cbf92db_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=G8HkMuVAxNhaYuVr_PTFlvhrg62RA5ZGSZ-FUvQoSK0g0-wFTDD8Yzrfra_IgM6kQjsKHBDiOPzohM9EgenX44ykKbqJim7tBaSfHxUXUDTXTvymw9uYNm6OCG_Sf4GlWNXNpxdiJISXknPAQTvdSYoOSjwOvlIas1gE3fnihQ0bWcOaDKsEZKl0Fo6bXQ9a38zbU3tEiDjDPz4z_u1wiehC2foMh4RqtmwZDdDfD4GiWuyUIeLCR7Jh6HsRs8UXUoIFIAkur4EIvEoqa6yO_z0RL2m5nBghqGEDLQm0OM0T5BZZ3na2S70UxIhuSjE1VsN4eNrMymy5uJOMepxZjqSIJbFXCfVo6sMesvY3LJKfuU9W_w__9Nv79JteyJJU67hx1sVKqz2wBH9EM2aJfYtawkS3LqGwpTDOkGywvR5NyYYGdWLki0MQy4kgSLTQ23OnC2gkJH1d3hpsz_25gfzfzt4fLFGndkSZ8TcZZ35FIjBlSqc0zYm9p51HUtqd31BSxuSQ8KJp8JN2b_ziNgYtvWh5dEqdLvSfcTIAIUcA=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b770a7c4d3100004ad0a87c_0%7C1cb20b774d370000e856a062_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=ORY&amp;booking_token=GN0nTvaxORoZlGv8EybX-Xv_lyeRmz8_CrSzHudKJbv5WzVQqHz4mhQDItVAunpDYfzkA0bIHUQVh-OsgjAryKqRtJbNdvp6ILlBGqEqd8EKV_NdRq64eGosPTBWprvRxSISD-gOS9mpcn0YVr0v4UtPsgHHxPk5Ay-xFmUOmDAIE9USBlUAXpq1R7MeuSDbCkISYoofrqaLRgsWdDFxX3OdihpYGDjpHKd6GOr0nlJ7P-hn3VsQRD2p9SkRDAaISTvLNiRFJbB5ktW7iY1SMlveKPeH2tYXCS5p46j_sMUe-pky3aN1iPX9oZGbA-XnFM7b8EB7tnLiWsU1zT_044UB-lY3ua_WsmZ31aCarqcwsqlHfnugxsoTqqEHuTU-P_SpyhIFwZAbipjccwvdpvJL9u82KqYCp3-oAUy1CnLqAk-9kuVRkAEzuSJYe8HoPm97ePSZNMBvER0Grf91X-R-tQAHCqA9slKMvJNqz8ugy1TUTct97yIAYQiauLjY-3O2uwrNcMEQngys2-K2jlDUZUMjznEUpR6vYr5RRI226VBYDgOjvgXVnwTDCne7Q73P2l8pDtUlF55LApnGqrro8Jh078ePm3krKdNj1A68=</t>
         </is>
       </c>
     </row>
@@ -1621,30 +1621,30 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 63</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2024-01-27T06:00:00</t>
+          <t>2024-02-07T10:05:00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2024-01-31T08:35:00</t>
+          <t>2024-02-14T17:35:00</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d250000c071e108_0%7C091e0b774d29000078c59c2e_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GAQ0V5joLMVtzJ93pSr2aj8twXSu7rtenSJq2DBoc1sfP465TtL-yId5IAKF_-0s7M2cWLfj9OHWWKzXZd8hqh9tWtCuAEA8ng53QJ0zenqODZk7h4dnI907vvj6I4uayzM_x1UMSiqV79Ni7jPrTfLu1_LzUUKvYfNI_9LZKMUaehRvZk6iX2BupMyhc0mstHM9mXHjkDgXV30Zaq9eiZc1wL1EQICNyZjmHJI3U8ze7WYO-eAPYwroSYmifVJjZp-PlHf4hDprjQKYB5FvA6vUfMlITSveXyMK4HesjyGhe2UHmxE9MK2nSTZaGigUq9VPc3YS5KNxJk02wWOmnz_d5LMlE4DpOUClCkpeABvbcPzkaXYE8PS89Ljimuxvb5F_TzF0zdThZjznNY3KDxRwBGDMD6ipXQOGjLFiAxzpvD5S9uXOWUukTxkc1_rfdjEzL-bqaryYrPnzIicd8erXGu1WI0eDMUwSjD3SlDIZHXhsE703UryDMLCCGfGjyNF8n9mvdBxUgj8OqhgJfLFuRpLiouUUsw3-FjQYIIiD_KyrkVpUoCjk8UF0R5-mECbh3SC78gzEW3RYIdKqBOjxNaMHQcbew0R-8uvDdKGEY73908vVdv5_nFhaF7Ido</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b770a7c4d300000b9cf9349_0%7C1cb20b774d370000e856a062_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=ORY&amp;booking_token=GQBooeV4YK0C_5-2gJbivFYPXdDmjAi9v38WjAqi1JD76fdWqDp0L4KcbmDZwoYM7v5Xk0mUCCDLKppbStYPbqZGbXYakHbaWAa-zXXZPt9eOV7lz-ZFfCgudlL8zgVGTMIcHu3k31iSFTdPFQCgQ7dulYJMY4QxupA5pTq6QzhoyIC2doA5-TRvCnMy3NlS5tpFm_8LxYuSjzNVZ-9gbouzwLbXzwT4AxdqAPpdZ2oZjM3BPTi18zOBzZTWwlKDB1KvPEjXDISF1xHyKbi_nPiA7Wb-OnOcYLFzGqpEmrRuyq_aq-xIkXl9WLAJQfzIN00TwhQ7m3GQS1FTDdiml-AMARx5rSionGwvbfZsFSxFpe8hOJWfK-AreLHdfwBqo2o4-oAsOwyJ0xdxf5dYOvh_gLmcieavJAdK8CkMhbHrsllwW0Ikt3BBDMbj39_oQ5cPP9rFGOopp8v2tj4lgRevliiYbBfwd9XQvJxAFmwpzlRFUuSLes3piwzfgixcJRBg0NpMjfxrdTLEvv5sKPa79DZxSuezL1y5xB94l2sQp5Wxr94cdapZWh4rVZVde</t>
         </is>
       </c>
     </row>
@@ -1659,30 +1659,30 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 64</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2024-01-20T06:00:00</t>
+          <t>2024-01-25T05:55:00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2024-01-24T08:35:00</t>
+          <t>2024-01-31T17:35:00</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d1e00007f2ba7ab_0%7C091e0b774d220000a750b8bd_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GlYBtjbvcjHSBVxTSkT_po27rcKXj2A5CVJcj8uNXZPOHQy7cfSBunW2s6NLMAw-M7k6CpN9HyGGwj3T5sYlDWPN34jfUz32Qu_mgvXxK44JBMuoBWsa8qwVU5bsNBv1f6uDeVrAnHJZJBMoorsOgEDXXe1t9l6kX8jCMJFPLtzMzmQCi2kC2jGCPs7iokDVM6rKv0x7G3Ip97QieSoF_PpzyGD1dBI7UtzEacvLR9kPNcMNN_PJfhOylbGZeMX2kkXaAffwbTGiaIFGcIF7q0nq6aGmjKzI3noOxhOSrWC3fcpKmGF2uZlXprkQGDliLP0KpUN-L4ZLRrjRGnrfP8yBKSxFuqbOt_D83NXHXXIGus-Ban4bDGuuH09X9AJPUCvu1vcC4gFCOFuUBXHO1z0y25nSnPhTUQ0cciVWWU3ujyUsJP1tdTSJ2fmftM3s_4kKZuHFT9sVlHZmIm7ZhaLIlU7Yz0-L9tFWTqibGZpkLgXYBJ-Yf7r3mgOmeheuCTl0e9R5Qt96xxIfQpWvqzoetmVqjIGQgdUvQOGs5MEUt3fiIO68IbqtjIcOYC67H_ZPrt_cqi2TiRH9UyjnHqFiaG5x1dY8vl1sioly-ZHE=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d230000e8f06209_0%7C1cb20b774d2900004c097483_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=GZwKz8-Hs2xOX8n8FwOdaUd1LraptQyYis3S8TXB8E24a9crV-wYEe4YZxbqulZqp9zWgfOknleOwYTn3DzWBWwAC8DvQce0a8LLu9qGVm9kTvQAgzC6W3kxYAV2T1__lo5GCFV_jtdtG2WrIY_bcBYFJWeP36SUm1eQQR_hloWObS1bNBF8FDCBhAvmE0PXezNShCJIMYsYnZSI_oFxrbNIzs08xDBmGhegMYbqvNE9tMZ5nzs24P78at7OBGTT2173gduY87i_NzCoxq9TYckOOVrjjkZRdhAZ7h27Zed2DPDoriVf_I64jX3M93WxZUF8nTyPMnqeYwyVZcjvpkGFUhM0Cv7Mt0KfF59F8ubz35cxhy_BqflsB-tHyMYuypQ_yNCBbYHWlIs1Fsvnwl6_OPdjlgTRn6YRC1DHJO9PvtK8ABqqc2D2EePY3RT0SQwBu1hsHbuE1sdDmkSfy8e1E_59dYAZjzULvI40mOF8gzr6UdQqWD9O6mUvErACCeaYgFXD0CGmaSn-_WFdYmVx5lppVxxaTN_h6j-f7RWs=</t>
         </is>
       </c>
     </row>
@@ -1697,30 +1697,30 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 64</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2024-01-16T06:00:00</t>
+          <t>2024-01-31T14:50:00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2024-01-18T08:45:00</t>
+          <t>2024-02-06T09:00:00</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d1a0000d179267b_0%7C091e0b774d1c0000063b9034_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=Gaj8zh8LjZseSxXOdmhrfaBlk0imC9iSpjoQ7zWCLeDxN80j5YLR4kh7v9v_eU1XWMrApgtVTrdfG2QscwAQQSqrfCOx_tG7lhk8BTOlPip_93YhLOpACk90aWQpiIVt7pNFYRb4CHHBPObcZudpPha1w4ASrQU07nBdEKXDmV3MD0srZYIDNRJCXFEBbou3OejPHljoiqRysHVifBAJ9rHTKQNo9C7UriBke8d-6zqsVM7izPs-mcubFf5upZ5JbaZPYSRxn1B6u53jt9GXqCxLXRv8WzqxLhPvAucqH2C2DAFC21sD91eYBqrQW0LtzcBnuru6jxmKzMlw1bIjH-O9JvExTsBWUHSD9BEU4qOW4yrab2E5A6DbLDCd0C3gNUfWbob29xxAVmKySD7rSRd-AP6oiSPpOJH7z6UizL3Jy1PNav4Ct95kctDHHXEuiaucutSgmhLfe-JieEgk1AfBG52SiJBrv-GDxDrKwTTlODlxUVmTQzlyk9X5bap7YkfYXMWaYVHySzTLe7a2eK8xWtBK4hSG6po4WMr2CXjTMLDyhTcONhQWVJjGHBfRq</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d290000136ab627_0%7C1cb20b774d2f0000b6ea283a_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=GGLRNKJdvNOBuwy1TxVbWyVztGCPtPm4DL5rEiBnC7Vo5Q-h620JzgmkNSGaiHIxwFJx3rI0cg695EeEfqcbAb8kKDbSju2jFmpL2-Bk8ESJChPBsDLc_qiVJyKBEg3O1KIuGIDMUBE2PIh8n3GXJvikar0aCYfctUqX0wj2o9dzoglQwPfiCZVIp4JEYq6i_xn7T9Emw0xWFtZsXjKztfcLx1EHjJ5F6PgZGSeqXnPLnUa0j7PYfVOFsIHgolezT1lpOjhcqjEg34_vpM98N3zMe5ipniGhDmWWNZ1OIajsk3RzEGQ0bo8pNQs41igjF96Ss49LYTC4i1y2gwPJGNH2hZl_IPJOp9UPYo8KJQF8LpeWLmoB2fd1-K5mro_RDqMnJWA0xz2offcm5xc1rKhgtMAAMX3e33kYHiAUm9UsZHFvoMyrxIJJPLQaapsriWJxCtriCbweQH1b7XWqNRNDTqZkneJSvlhX_vqP24E04fZsYD89BTmmHmjkWZxouEzbEqznnG8d2bIXRHU6u3shYBvSQjeyMMrZyeSadQT-LuNKMREsrJpYCQOsYW0Z0</t>
         </is>
       </c>
     </row>
@@ -1735,30 +1735,30 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 64</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2024-01-15T06:00:00</t>
+          <t>2024-01-30T06:15:00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2024-01-18T08:45:00</t>
+          <t>2024-02-06T09:00:00</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d1900002462cb02_0%7C091e0b774d1c0000063b9034_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=G0JW0qPtPzEF4AfQDvV8UXf0ma8sIgL6JeMdGLwEP7bnjMxO_AS8YXJiyfdigGxNVg0dw-0En5hPpiIjY1aG0jKqr3iODrJXnZBA6lDe724qPvxJBjqw6uZ1hNm1lQe7NkxvYXRnDu6CfTSfLT4zXN7OMUoW2OCUvUL4Gr8DEFgcLTSPcmhq0a602LwtsmOJB0IWDdtx2hHTFmh0rjoUfKZzgxo2OW2ysAh6CpRHpt_PETtb1xuXRyUf5FaC30L6m06X_hSlfaKR30znn0xg7eLYipM_UikruR-BzAj6GlY99oJOAqAJMTOAel0WW0Iveh5vZfajR-WiRq-7WlxQH1q_2wgSfCaUJoDK4nznkJs9ccQ6mfDgNdUP6tZWsB76zjQONadmNOAPeXrNjwxB2TU-cK6H0O_ifJSYeFJG4rh2xIe41oeIroWbpIAOhsmgW1iTCwvO0OnVx0CZ_gZEbJQlMWLZRVLtyFs7WYIvfmCDuGCE_u6-Foq5_hiCFIADCtT5F9gNaSYmOuLvDBdWKZTA3p4kY8_bTEN45Mu-GygnJozhLHkpj3KCevAuo1JM3</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d2800009de8820e_0%7C1cb20b774d2f0000b6ea283a_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=G_UehZWiEi-1M22qGXimbaor3cYfdS6ul_2I_wJE4wVsNgI7S_V_opxxxR4jx6MqT2O2xGhX011-ifp-CK8Pv-8TDq-eNmrsV87_6E5a6YiAUO0pg-5-F6IwbMm_O0wxRFcBv7kqwkyDWavSvD6xpA5fpVrZD_soODixXX9nQt8-NUZ1Ze-C13GVk2bg7gptt_OkQBeXYhBMKdwB-XGW8sEaEDd4HKOId62hCkhxCvzLHwD96FXuBiwwxa8a2PsXwhvREe0aNR7MK9b98_PAQRNjedaJBENiyClsw5fyO7mlIG3HpwhDo6F-H-Xb2sXX2UBhBwTXBz57i2aRmgGmeqgDxURg41ElzbC1arKnEUrpSB49y2fSeFpvIaL52ii7ofbPz3bLQHILIxtgf6cj4kYo0iJdqucTbFUrCtOtfU57DMuM_6y0Nu8Zd6QyGEMV0v82FYa3pkHIJoNm5199oyV_qu--jjgxycsVzU-Bqio4gwv4kfYH4L_5yI7FODPgDW-Va0DIN5Lr5RxM-aXPN61TH4Bvi5N74xIyVqOU4W4I=</t>
         </is>
       </c>
     </row>
@@ -1773,30 +1773,30 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 64</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2024-02-08T06:00:00</t>
+          <t>2024-01-31T10:05:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2024-02-13T08:45:00</t>
+          <t>2024-02-07T13:05:00</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d310000299736a5_0%7C091e0b774d360000932a136b_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=G5FEBr16K8IBnx41g4qMSYhu-LcvQqDA_WORv1TVHEalxvH5NRmwrY1ji4TLdROoz9dZfJb8VXCZRWrLN8ZPRGwa8AkI_m6trZzWfTaCQLGkJ96lDmQc87WZznQ8UXFwXcg7080jNzr9ErQd9frJk4e8ZHBxoNmBToxLnyX3H_HGH6duziO2LlOMjRayPZGq220vfOJPa530MKEBtsYbcC9pYLQBBeo4LVNJfE18BqVs_qyDx-29XQTjqvBYlkHxvkfITNweKzr7D3aE53uyubFTUf6sLTLj-IwqUOtA7hRMdeelLat459MqtYlyEuEi4yTxhYqemnGhAL4MVcExS2UEBV9PAdf6bUnUObIuvHbyDZ707elXHp16pO8y0NuUWKT7Zpu_IyklYJ6Sb_O4z5YECcF0dqzr9fpj0fLs3ZrLimdulsO-giI0EKC3IigMNUWEV5m7w3v3T4oWjECFnhsHjmwrg0LdqM8rHrp-tisDqQOxCc7iF733Te5hfEas_gJX3wpbXPBmpmYA06Tl-SNbTKmXeZpvsirnTPMo86x2v9VNO4nYKzX7r-Bkhwb14okhmoNVBLkV3Rc3Z_HcuB4XCyO5XW1Hu-AozsPEg5NE=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b770a7c4d290000caeef78d_0%7C0a7c0b774d300000dcc3e60d_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=ORY&amp;booking_token=GSsyPqx2hjDQDSutr3zSG6adlqKH926PJM3alV44jxm5T2Jc_R_TJNjqCU2f1xfgB6HGyHippio0XohI66dLz_nbQg7ZwfulfoolLhjNmhdkbxHnB67niDNQmvmVSWjiX0dyBtjKVuhCTgJwqNdY16fpwMEiJfIgK8rrBvxigxowdslQ0W0810WOhsBxwGnWcA-6hUkl1V5ZZJrCONozLDQ8ybSzsYYHGHxSF4OI4kiXJJjQD4mRcJrVG-kSKqUbCbsdET_PMOH7JkXhnAbox5tFGJAKHR-JOZn8_rZJytkwINq7jsNzk4Pz9EOzwmmQO4lykG1yzeedfujFZyeuRBS1kfkqwkYosWAU12fj-J4Urv3ikyyy9OyG85VQ0jyPZ-qsRfYWmABVDpUSgzVA69gwhM1tII1xyjHuJTanSO5882Bl5L1R6WBiHgdwxKBGC-aVXyhSkOZbtrtAmJHXTQYbvAnYnzs9w-BtrWA5Cf1hVwvZhJVRhLaeUjxAHsZVa5LCt4RySXN4FHhGoqiKbFIp0yRZ7Cc9C9qTjzQYud1FFCRP-711_EH6GLiDFsaRPriQVl5I0YymzaA9Ts_V7_f08KnmdZgxQd40jCSZETNQ=</t>
         </is>
       </c>
     </row>
@@ -1811,30 +1811,30 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 64</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2024-01-29T06:00:00</t>
+          <t>2024-01-17T10:05:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2024-01-31T08:35:00</t>
+          <t>2024-01-24T13:05:00</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d2700001ded9d73_0%7C091e0b774d29000078c59c2e_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GQw-QQD_JzUuNRhvL3Bpa9zGectkhpOLF_oxUGtk144caaiMtdSAyzaPqnzV_OJO-RB0waa5nE9rT_FpKLG0c1Q-9hhFUNqk37pDjGcqHJ04BUkdkA-pQR7ar9vDoad_wLTPwnWlImnFKMFEa3ve0Fufu2Z2CF_veXcUONtefrRPZ7nTS_zeZ0l0MNGEGxpK-AdPqxWkC8HGiJLKk38Sy_s5d51Yycl7cni4_prMIvCmLuYbru6Ws4A_GJWs4bQUD6Re_0X5tRoC9GxDQpsIkkXl5fIMQCoEHNuzbKa9EOTziEQCDy2ZNB5TerIBuBhDfQLTkjSr_7A15H-WhrTpQQ_Gl2a8ZePr9YNzDZPDgYw4eCJB5eO4bW-55peabKPJPo04h0Qydn_RXQbcDK0uSr6w3gSX9bZr6A-pgYdeXb-RPvPW10EjOoVxhZOVc6I3BYEbFgblrkHlYomY3akI8qiJ3P3Gbn5OU54THPeV5jC0xW402spfnugW1pABrSTJjrr2d1oIhaGCfJ7kMbNErprXvxwRDNC55AS6PVdST0G9tp3PIA6TOfE1FA86PUScd-KUddAIm1xsfjjJfEjoPqYYymQ3I_1-IuhZ9d-ohQMs=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b770a7c4d1b00008e94f978_0%7C0a7c0b774d2200007077a65a_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=ORY&amp;booking_token=GdQ9vYbYJTneMnpRofZQnEvJDfUPgXG6BfzYUJsYtsacX_Y5dldFTE3IBdy0R8J0CTn7wrX18bnA-2aAPj5eqJgsUuNNc72rtly2uFwyNf8r4IAn_z8HrOu8n9tvCMKGn3zoMrH8ld14mpZkp5pt1Zw-ypVQg6QWQc7bFZfwgcKPKmjhsVNN1FZEJtXkqvepKJX1BOaRqGPJ12KuByY5O18ERiaIHZdDLYUML3phGIpH9N6seLxEDvjjuujdPStwb2SpKoaFQs36lIQkY6231gsRbwLRQIXEG6w7N5M9cbS7tkQ18OXd3EKIpu2UNsazbdIeE8CFiEx9rhfyS66iFHvo_6NcmHvsFUZZ5NctN7y4HhVuLjy4GsuXa1vUvE0V4fcxNm9Q2jQNfMV_uVO-lP2HI953OsqRqat-xUYUFRPlmGFIXA1iWYDi3wJyUNno6eUhDyP2kUkpRDY_MCR7ZGPwgYyZIhkVg4IDKGMiNjaUxTWu-Hit3SPXgROOvRy32RZmUxlyjJkKX75cyEYfCCoPCSu_unIZE5xNHqVsLC9e5eyDKC3YOfchk-4L30dTqQlfSKXuvdk4wIf7G57naGsGSFIxvAVa1L081rE9XmoY=</t>
         </is>
       </c>
     </row>
@@ -1849,22 +1849,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 64</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2024-01-23T06:00:00</t>
+          <t>2024-02-14T10:05:00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2024-01-30T08:45:00</t>
+          <t>2024-02-21T13:05:00</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d210000f3a6e75f_0%7C091e0b774d280000f647a807_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GB0S9TeUoVKTvxIEOBYzJhqh8kimOBCrSYDLuZz04G3ZvBESbl4Ah-EHTFGhHOETDbDyA3E1SD7R8spm4pI4VK8NRMdmklEGD1sYVMBtUc8M0vCSTdlnoXsovv9z0APpwWRVk4nEnocY18pVKv0EHvxfs9Y2hNV4d3V2EACQWvKJvw07x_QoEWJ23owmmO0Pqm4Q5x3QhQ6NTSsZZsHRHTJEi_FsktwxfMBBmg1jKJFh7y4hFf-y7k37Yf7NV_-d1QgGNX0D3l4iC2dqWUdvP2621mcbHCzE7EyC0SVuNWBTsNnSKGRI4ne0FzvCiYbUkDOEn15m72EbspBijQlxGzxCRvKuzcrY60gCHLMR_bIpIqlpGXqaIdkS_9fbG5XtjwtIdGIYlsOgaWYT4Yvm3nAuguO7LiBA_aGk7URaUnKKgSujYjtGNFAGCB9Tem23IaGV9k6lYULeH_YjzoJZt9hnHdt7BnKw5692ggObwytFgSVgfahZNI8S1sqp_D-MRAzzm3d9c84TnluImOy29xYyZFMmmIt8mYJ6gC1cTn2u5dAgpD4SJ54LJ91SwJ_jFUTc54yqVUo-8yVvICDgjvw==</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b770a7c4d3700006eb1236c_0%7C0a7c0b774d3e00000b2ebc4f_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=ORY&amp;booking_token=GpIwJYsdrC7P0qPfPQe4QomDgOq20V2Yy-wNmkEp4cNpbrG6P8tWqLOziWL8ssoIj0XJyQx-3legPLUvU53efRGW8XBVr9gt3vp-V-8CxeRRvyQZ1END1pMJz39Le3GiyzJn8BdaLZWVsswO7yO69HnLR_QTF7T7rHu8IPTm2F07aXoilwHrud5LxgSxhhCCq8WjEwp-We-LXeF2fUlND4llv95dsM7O5OHxBwy0X1bgy1SLWMe4ATvPRiVvhDwetvHSYWxBbR-J18UE5zNOHxv74I24n57PujUDattSt0gFyy3cMF7fR3EVYT7EPdJAXPAQ2eQDtC9byG-3aKip7ZHoi_PgsB09ZUcLud_cExX4WNxdQb6Hp2FZX-sg2IniXCia_lyXY6IyRpSPwoARmlvd31-efiFkz5J-PdGBjUHn8_IKL_V_phYc2-SWrNY0PC9ZGPPc8wWqaSdHM4PZRfflO0Sr08vyPpyV3hgMg-czf2N4jSmduxgLTAP4cHBuMMl0_JO5ZLyHJFQo2pLNbHEF2Vn4TNr8HYOE9QLmTRwfsqZeJGH2YW_Irfi7vbfoNvgurthlAbXIZ_7y-JzfkGw==</t>
         </is>
       </c>
     </row>
@@ -1887,30 +1887,30 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 64</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2024-02-12T06:00:00</t>
+          <t>2024-01-18T10:05:00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2024-02-17T08:45:00</t>
+          <t>2024-01-24T13:05:00</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d350000b5ac0d19_0%7C091e0b774d3a00000f4d52f4_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GAvJ1dLuRTRzCDynkmzTAMHdabA_IZPCanKgU4eg8qd2MREsrhPuJRoqmUDZgOWKJ0_mrqeXjHTlAVY9fA7icakUx0hS-UMmZluvV1tGxHjlQEX-QexJG5m02OMQoFJpQXlJO9-0-gccpxMo1d6OQIHcP4WOJ6N00m2Q0RTgB92qdKn4dyf7jUxbAP_GkggJ-IyH1qC3cBsIYNYzL88ez2jVvNZ0kTuUuSbWsoA5TxKS0l9RYp6kC9TGxzBUid8jWsN87kbGAAHjW_DLO4bFkmkEUzQhPgEjdsNYA4vpLGw55_AaoE8gqj8Kju_UITv7KAD8vdKlDirDGxMg5kCRlCncw-hZhM69ZpjEDEsCAh9ZeWaNU7yYTxC2IkA_fIi9T5IejzWHZHpud6akQgBQny4_25AiJMxnR-l2tSbl1La0wVrB6QP7aaBFG0ZFEolivdpL2wyBG2Hzcj8hruOBMSw0iYLgpbZPyghw3KGVOiFXTk16SIwyABy24A6eezMdnthmqK-66rNyx7sAdJ_pVFWi2MyWy60W6qCJj9huY7Uvz-mnLfKyNepLLw-iPjTWy</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b770a7c4d1c0000b410fb97_0%7C0a7c0b774d2200007077a65a_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=ORY&amp;booking_token=GOiCbCjIH4R1jP3VA8xx6FmF7JzOnHKRti9TvzTegpr_zd2DrWO1kGH-M5PKlnuozg5cqCW0b3DCb_c2s9tTFvPaHiiPK3RqGUgFjqQyfxOJaUDoRZda0aOMlwec_iQyjMGNeJT-PolpDNVTwRVW07gr1UAB5ZH4s8Ax5mEMlwYYiF3ydhDQN4eeWMPZV5DCsYFbvyAsuMiJ-VNQOl61TkdMAKE_GpNBul0C2U5cXq4UA-7InO-Z9pkVQlXgLZndQIUGhfZxKX9OWpAHI1vRQTUkEvOYyVVRnCefbw_3DAwvym_c4Rojgk1Bm-gXDB4STq5s-0OMZCbGcVDuE-QO72cJZpQVwyJRUNq8c90lnK98KOtlZi9-HIhXQi8FiQMRcmAtWih3HuX5GnuapBPqWnngVUrHfWeWY4L2MOPXCXeKSlsceJMYb4-OR8-UCY7XqjBnZxQc5cLB0ZL16LYEpO16sq0XVKgdXRRdMMRteseGAIgWJoujNyP4iXpVc6l-yjHGBOeDIC1E7O_UqkOz36o3e--PttoxuwzId0yhzFenCiIicfYJdR-8bGiBqpTiyWEuU0wx2bqKcDJdp5EYCABJoh-EYcQ36DJH8afi1BAE=</t>
         </is>
       </c>
     </row>
@@ -1925,30 +1925,30 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 65</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2024-01-17T05:50:00</t>
+          <t>2024-01-25T05:55:00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2024-01-24T08:35:00</t>
+          <t>2024-01-31T13:05:00</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d1b0000edd367a1_0%7C091e0b774d220000a750b8bd_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GLT7IxKcj3ToqABhKDU6YAETM2kHd15BvkPVL5Kf01ieQ2Qow_picrbhz21hSNks5VOUJtohj0N63Z1vZeq7v-19kTUFEC9YhfB9NW3GgYDPCVsWxXnbPWQjaqQGNb1ft9bUgU0CPFUR8bEyL_gNn8tpk1RuOu3lhLhoSNT-pFAIgBd5fZRgKzTgIGrmF3c5pBtW4sVUW7StEdxqWXG2j-4j9i4Q-8Yu1i-X2GURMQBFm2w20Wj8oJ2Vi48R4uIHq_kIM7VVGuaSi-vRuwj2u4vxv8yrJGxZqzTq05cNtJSN-xn5xdn88vESaQWzmg0_vpVZD2wNCN0h52bQ16AtS_1txPXwZvoVvsrcaplyESAlRUas8eDgUN16qmEf8DFXUfejxySLTBcBRfOPvDcFCAlS6MVGRZcXPpZhgjx2Ggvkxdy7UvI_LFuYxdJu46I2fZpKSHZYL2ItUvT44FRIY2oI9VMqVnBJFl34RCocAR_6ddH-XBzQItSUkZV-jwbpyvMRlySlCxMyQPhPHhax7JB7HJTAXTCD-fjgb1Zt_ZHNFCKe4A8U3j8ZzsSBrNTXP</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d230000e8f06209_0%7C0a7c0b774d290000afe282c9_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=GrgVdngyL238qdAQbdjkn35Kmo0oY5tuJsVayaANYxAUYbDIgvHcDe5yTQWb5nzFT0wSaLNyq2f7T565aqezfoJkJufQkkapOWQrU4abmH4UbZYSHe0Y7OMBG6d9VRG_UAPIX0RIN_PbU6sDoUWDXhJSY0lO59dB6sEFuCgJOwS5BjHRCB_o5xiy0JlcYvnzwM0_jOEo3DJJEi2c0R3sd1SDHx9d9Ui2ZKKh13khIRW3RGvShhzXjaK3C6WsHDcbcIls2kT13s-czdzyelx9BH-1CzQsoJm-54_i13NPpV5zY_91Qmxsvwpk1EUfZnDvu45ai1oSCQZYrxYOuXSIOUqa_CWYHmJwgmmde26MsofeFaFNRCJDloRmxGr9fmhuq7XkYJ5SUhzM5W2mA9QRTn2cTlAtjH6qAUM-Z8c2lX_O3rP6Wxo0E9cT6_xwSLyTSTGPviYqAziGti5baDgIIFll7DLp7CIl0CA77-KrvVru4WZLel5_yOUz2xr3Wa31RQZhg5hDK-XFGisuPpwlKfgacLaNYj3jArTmHJQe6B11H0fXDQIdfAruDG0PNNeT4zdF0n1hoKbWQexlO3lfc3g==</t>
         </is>
       </c>
     </row>
@@ -1963,30 +1963,30 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 65</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2024-02-06T06:00:00</t>
+          <t>2024-01-27T07:15:00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2024-02-08T08:45:00</t>
+          <t>2024-01-30T09:00:00</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d2f0000534a35ed_0%7C091e0b774d310000f8fbc3df_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=G5fJ-AEy4XYQOMiBMfay6WMSI95-9Xu0EhFNn85_-iYMtNIK7l-Ty3nKeSK51HdIVpivLIE6Uet0p3Agrs7tGU0Zv84dKF72bh2WR4xB4aMKhElXwzQFi0486p0aEBwjb272GuUQDSLjRYmfqxx9ZdkpyXub5NwNNzd7OtljCXQUP0R7G_jyCdtMtokrEHbJWv7UvsBseRFG22Q1sFLJooLVK0Cf0-hBKAh256dzCnjkk1XRDQeLOpNvc0ZfSPLhQp6IOYBdafmB9Zpt9TdLa_S7LCvAsA6lERXNbkzfPc3ryajIEpkHi5t0IyJp_HIjbGEQ1oEm42DfP0VeOAvHDV_AfE1vhoR9GOGAHNhCTj2eRqqDihob1mZoHroesJ8TYw1k8G0FH4wxxT4gwoE6foTxr9Phyz1d-AB_HXlfCjn_hu4LJzPN3d0uBc2oxXSG2SKRhbY1hQu-uxbpG7eO55H4k1RAp_lLkGiCL6j_wlP8pyC9aD3V0oZM9RuL74HqxGwdA28SNpe4PEpUw7vT6Lq8vb3_RTLbv_9bksan-Vz9k8MqcRh8X37xYXAms50kCxYc1HDKKIMk75JU8VPfbNHi0yP2ZL76oCSI4xEV_05Q=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d2500007ab23e7b_0%7C1cb20b774d280000c28b40aa_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=Gr_eZ9NH84TB88sCKiUqMVkpBeQQ_c5FhcfpVP3ZsIJj8XbNFUlCTpK2yhHl6Zz8isRnVAuqud2CM9OahaKJR5LuP-O-1HyA_487bO17PPyvzHg3gthH1jvyH9dtaLTTgKe7Ah5qgyASkbg4ov74BvarVjvf6NsBU2DTy3iKk2R_XEQqMSWe94HE3ql2WohhGcNY3u_evoE6Wyw2V75trWsZ1G-CyoUCRTR5ZSibwpz1rIaO1iHp13KZZk3yKUo3dK_IP3CeNRwKoAPnZqtm2vk9SQSKqaPoahmc71poSqcCAwSk-6vf5RRfOsdOO8SE3HN9eoiCh4m8QoiIKw10L_4i6CZnaHQXVyN_Z7zfYgX0n7z1euleJNECpL0kOZhKOJzS6d1NmMnXsMByy_o0kSK6aN_yW3QSsh9NSjFiFvlYf-MwUX6Pk1jT_9V5IDjSuxCOEbYFHuk2VukJE8LklZ2omyfKJ4wncudOnr84GDzkhg_bIrEt9rsS1aL2prIBwXHDbIughQCKQTXFxiNT-ng==</t>
         </is>
       </c>
     </row>
@@ -2001,30 +2001,30 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 65</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2024-01-22T06:00:00</t>
+          <t>2024-01-24T14:50:00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2024-01-24T08:35:00</t>
+          <t>2024-01-30T09:00:00</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d200000462db7f0_0%7C091e0b774d220000a750b8bd_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GPt3JOxjB1jw8OOJXCyY9IlEAWYp805In4rkaswb3IUrwS1g-1EzolkqTd2kIaPpP_vK6aiSU_faC8YCMVy-xsBSo_RBIE3Ees626GjiqP0Xq_jAo7M5_kqmU_BYqrARxgemfCdjYlKxq1GR86YMp5EzWpSqNozdc8ac2oB1b4wQaeciZgRlKd9HLlHoQ-f2uQiBdFjO5KB9Fi2pjIEdLvAJW7RSPYE7Q2N3QsywmXfyAv2kn1SLL9fKJq9wDA0NdJFpImag_wfrXRosn-foxFVghf9VEPnicD0xkStipHXDs08ZbI_EF0vqh2u7NqWfefc8mN0VK3eyQL_0G3SMkKTMrIN7i8cDKsSltCw3Hv6vWS7mMOUJnNO--2-YnYFJPB_BwAONAFTpz5AgedwNdxEPJKw-Xh74X_mrJuffs8R18InPd9-3tDIEc3bKPm4uFiSocIGWTqFfbf7v049DVJB7T7c27D8Or6AJaNfpwlvw7cglumXSjPMC3Yprr-6W74SYVns6FxPdOkFDmDonXkWIZLyzxnnoA5x4qi6UhqEkO5j24w3qqDDgETLu1GZ1BvQWwKEcdWrKZG6-fkAiM-Q==</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d220000ccff92b4_0%7C1cb20b774d280000c28b40aa_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=GVrZdTIAaEJpiy_U2rKiLSbmH347q8k8No4JHvXw0NpQMJLf4uYs0xk3SnNnueKgqvrH7RgiZiK7n5zHs_Tnj72fw_BqE4OHDFkz_E3r387bGkdh3DA9xEmXesoJcFlhlFmV4TlcKZ27zhNHs11rf52uUlA2fAkiGOPi45aI6FN6qQH2wmzTlCKrB8jid-feD4vhqzCad7i9BhRM5_JtEnwCxM0P1cmPtSRanaM12zQPKMO83UapdxeJjmpmQbTzAZDVw4sPCtsgZwBH0BYBEHFpyfWEslxm0m0X4XUSO323iSYuWz3XIXfMIKIRIKTMZeXKUWA0fs-9aL66WYog89--OUmo4rUZjKORZx8Xi1YEcQVMyRUanptD2GAyOYEnpeHY-HCGtFnh3IAI42OdvKQyhVF95R8nuq7CwlWzg3Hpdxmy9awbQRS1QRBTGUlrF3iinCT1ahO5EVEtpuCh-PII6ElBsigaqB5NDbZtCpCAP8d6426GTrpTjw6RZiwFB1XHQvI_SureXXReTTvPypQ==</t>
         </is>
       </c>
     </row>
@@ -2039,30 +2039,30 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 65</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2024-01-18T06:00:00</t>
+          <t>2024-02-06T06:15:00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2024-01-23T08:45:00</t>
+          <t>2024-02-08T08:45:00</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d1c0000d757654e_0%7C091e0b774d21000022ca1225_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GQNwpnSI-Pf8dnpXvJKYrhlvCpKQkHnGXiqQ6tybRn_J_BCCvZrQ6kfMvYnz3qIttRjUSFZksuiUvTg7oLjWo8tAVsx8vA-UJQ8ig6rDacXLPP86S7bBhdDGorgp5TN28ycErdmwUApp7mQpyHodmRR7_D_2IgedHQErg4RC1yeEuQOWz7-fvyWr1UudAY5Sj_UXr0pd3SFgjOBkfM-LJOxs6Lw2rMTnVMySFwi4ZGs-vRz3eQkHX-XgrHAgm-s4uEhW1s2pvpuZ7GpVkQtX_-EtoXSIg2pJg0YbssKWQh8Y3Fk0yLxafAUgYxR83RTY03pgOGYjqqaFkrWWJ-y9-MIzifaxDljcB8biViwuAmL4s7t6J0b7SRm4v-yr1UPxXYtQGKN4MTrkSYKfJYcX0Rdz7tOPJXWWxPmUwCBPTOHu-4yzbUC9ujnGmQRA2B5Ithnjawl6JfSJMLTxeqDnHy_A9ApLU_D9Vh94Ee50VhygivoZ9rbpI_KzlYO4R194HrEItJpLkq7DmQ7aAozfoC6K8FXMHPWDDKWEUomPUzkyWOTCKl4z-DgCs07JzXctn0vVJA53l_3HLVXsJHZyyQw==</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d2f0000e989ea9e_0%7C1cb20b774d310000cc372b72_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=GqW9RIwZHo2X1Innfw2td8JTmyEW4uryzXCIrMgFMn9W8vVoNiL9HVJuy7HwR8E1mIaEsjSGwFv6f4Dwy5IYPUgkdPQpEqnn5me54LpynZEBkd0HPQzDFsl836uiIsHxD3N4xXmSJO5trTE7KIhbbkoxsTUp5KJ_ef2cEQnzbkPAzuQ3eFsUx0PVF43xYBgScavZIOSFcUGX6CZe9CwkN-mq5PewaS4sdLnZtWVjY1mRtvSi-DWbLrQncoHafG7dbBKOmbL6Dq1vUatIH_rNtODDLAPl2LD-lsbsyYH-Wqxv8uwf0jLtX-N40tjwMAV4xuFxLW-645XHN2vvoexmIH43O5ica80vpPjnZAXvqfXwzoaiNgwqqB3vxHhFupFklTGCbBJ98UWPlfuSIGLX_9IsS5H7SQxm1l9bWUxUCnxATDjhfvxXgqJwJjUIS13xbSSzmmLCr8pC8R4JsX0ve7lRGJ0R0d1eWzRcQmZkPJ-zOiqjpO47dQnUQ664YO7jMKD3AKp0fL37xyvYEo5WPSK4FD3tmlHmin-L2RB3EOHQfKc_qj2DAVfBtzSJ05mHF</t>
         </is>
       </c>
     </row>
@@ -2077,30 +2077,30 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 66</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2024-01-14T05:50:00</t>
+          <t>2024-01-25T05:55:00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2024-01-18T08:45:00</t>
+          <t>2024-01-30T09:00:00</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d18000087fcf175_0%7C091e0b774d1c0000063b9034_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GDzyZMpoiNSM5gGp8kS0aKmiyw59Pqef5wS6GPLW98aaCyVGD14puuINyCjetlGXpGfFqiRIxBxNokZ1ppVEhA76aopZ5vsupOfo_Jb1IWytj_MMIOhbm65c4CL7ES3WzNerBRE-TrMB5xmAkvmFejeQNz9R63SOYJ1kSWjh_iZtPUDzmahyMyY0HcJjHQbKAKJ963CyAa868-c5y4qz_yzSz4doQE38aNgy0JVqhBka-f4dd-Z9jVeH1z_6lpR4_sStFpj1yA5k1FUfOueMkSp8pEUJlUzvLHQLvFYpLTmfKrIv-MyKcFoYB1VJ4CJ9mg33etYF28LYRK7DFTf5BlzD9J5yqKH2jvpKzfYlXiCvDy7NmdiAm1bOmMnfiScbsOtZe9nJ1K-_bO3Nt3mw_PYsGg76XgxUWIUKMaoeiHpGEHJSBvCz6XKdCGmYY8FOpLNSTZHn9AKR0RQisSFQbGd0Io3fkIBaMI-iKr3w0fu7WJS-zhqqYCSqDFGwKuM5MF683d6_DJHGTnIroCZuLLt4CVO_Wg1nvTTjNipDPokY8gbv1PvsUvhLY_49QyrHJ</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d230000e8f06209_0%7C1cb20b774d280000c28b40aa_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=Gz97_w6pnGmzAcL18NK8KY3ro07yaqUMdhbG7JrnKz3HVdvIJdQxIAr3qqjb9-abslR-nlA9muyCRf_-xkFSMdEKwA59nEmtQvXEx8o-VnE2oVY2oz06SBqMx1gsLhifdj8vZVWBQeZcKRDs32smvhHAzUZa8pQVWCrnmO2TBCrvWW10oqOQ3n_DajwU_9ToFlPHubPgdFk1XN3MS2aqcCY1Kj_ZH0ofcDEIFNEE9Lad8WUKFAqZYLcbxbyg_db4DGFtH3rHzCt-342cMNpjo5_sFfW_q1c-JW0FBY6tx0fN25lQ6bQFYOHrlf2XGbVAAwCLVvQRGXLSadhEqHgu38njAdgORu6Cvd1agRlryZEbdVYEGjoQBzYsJdDf9IvYS0nSxKT9f5ECbJtwmYUGsm_YSOf08oNtebQNEEMgIvpfqii3HKa5cCY9dPKUXpwWPCWf7yXyqUt8Ns0rWAANZ3kzOxorJRnRMczIPHHMtueKO1s7SPhv9lPR_9BaFyxiKqcivpEPqdzTVcMvFCt4bKYcaZ_cEwnFV-axp1UcpOFk=</t>
         </is>
       </c>
     </row>
@@ -2115,30 +2115,30 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 66</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2024-01-13T06:00:00</t>
+          <t>2024-02-15T05:55:00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2024-01-20T08:45:00</t>
+          <t>2024-02-21T17:35:00</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d170000a24f8549_0%7C091e0b774d1e0000ae4752d1_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GGoJf7N2WMZpsaDpPFodr0QBNzRICUws2S6CehxtOV7W8xQ9QfOYhb1OuWDI4RFjSx_WbpO142vjMxnDJ3Rtnsw4VtW7yhnMkcf7pNrkgY22KIQNDb5eRMFtCrGk3hI2QybPi0NRXjTH1nNF0PWnuOYV0YOBXMhedqxB_2aSZpNY1XAuYXGmV89PVoMMbhj-2nNG_QfemvXhNO6E_rYplNRnUW-431nTi4AqX0BZjmIcirtTEaHP-6_GKMppcRSi_ZIwiH0UKPgVe4cFqBPDP6NbG0xQpcN6nR1nIt30f4FuCsnCWrrdJjspGSTKnzKPthAJ8xdY0E9UDaT6mO8VpKi1njr6zxB_DS2BmHFxxkJ7MGVN9vvmCixmhh3yux9IYECjUsNWtdgHNYFgKmSKxXL-Hj63Liihi_uOhNutYyA0JCE5lZpN_IsU8_xHiuYXTVs9yNbMXP3LNgoe58-L1PAPD02-WId2UNN1YRrjWlaPEK3HLlWnmXtG2oj-6pJns4irnk4MIvQac1BMGLehduxdDHYuF02wruSFDWHGqedjmpXlIxmZ5H_AsZTnk4eyPo7xQDwsftgkmvGVHowsI7hLaxSTBKQY0hgx9F24V_II=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d380000fd03fd9a_0%7C1cb20b774d3e0000e8c54a05_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=GMZWuxWhl-ijIZe9AbgeRB8TUF-ooVb3qQSh_snvTrNVN8bxo0WZA66QNomwLclATYjWdkPXyuIlVy1O450x4FI69bg4GK0p4QMNq-43ZzhGTsA7gpyV-tPZ1c1EBbmSMhSu8yDVXlsgG2qe-4XGeFPvtjl5gctl6jNfpptsXqdJLh1uWeWHU4DXQUqjfo4FPzpWRTqsmH5h-RWjX3ONR9xXuQidlmQdnVqcVd2PcFURthkujH6Anmv1htik4wjyeOweWRy1mW-jCFNyMzQdzxj_qk8uzVThnFdrvMygbZwMKJhdyT50sc2pYPh76U6oTQxQeS2tihMRvz4FeHEHJBhBNIAhGkqdnhydCM0X2WaTjAY9h7jKdzsXqMQgjQz4qB-UG06jIbASWm5inPl-eLkfl8yT2vdGNW5uV_EidhAuqiL-weSnHLlcNWk-IGbuA2_uETkG2A6rGDbCFakPpoSuItBF-sIMJA353lsxd2C-TWdvEkqL5cCsKhN5yXD5k3nXnBI9MbbiMDp712Z3hnbUvJTVvnNe8CIYeIIBIMF4=</t>
         </is>
       </c>
     </row>
@@ -2153,22 +2153,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 66</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2024-02-14T05:50:00</t>
+          <t>2023-12-07T05:55:00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2024-02-21T08:35:00</t>
+          <t>2023-12-14T08:45:00</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d3700000df6bdb5_0%7C091e0b774d3e0000dc09a2a8_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GZq0uH0FZf9sOUVgUecIAdrG3veV3ukxsqPJhCjv0lInEsd95s7B_7XqgDnYSnSmtvy_JFUAfFGRt-xlHWIQS0FTWpJEoKSuin5WUHcjkDg7ZkwxGqJOk_VtSRtkQVHhmAf6ct3Sddkk9MyW6MPktSyMa3EA-gzXX_xWCHKOGGqh-3GJjt_qAZ2iQIVyWzRlkM_vDiCCeMqpLYR4eI8VqRbpJXj-wFcWOjInVr3y1kLiX7K35z-3eamg87siMw12LlcCThggv1FBx3RgEv1q6k3l6SCgDDa8jjQQuqFVOzaNVeub6pcA8xT4b0AQ9tOL8p7qaATMb1fbCNpnpWNn2SIhNMsiGsU5XjxEuPJbmF_61KOZGJw6tst-lxZFZ8gALUeXHz89WltcDA3NLEHPEpNpaFynYQDAvz9LalIsdb6FfdxS2XkcjSXUXBZj1wXkVbQQiIqQ9MMd040Zv_1obgwekJq2L_aahjNBjMOyNsv-B2B4xVUVSkwvxC6ZYS7XKA9J5qNgrT5iFMiWuBdZp5egMFuvBqCJOvW3pQ7Qo-Rb1mkk9FLU7KrxDlTvJGpCJgaVMXs8dEfHWlZlth4sRlaqXayaZBULTBPYmtqi4UWQ=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24cf20000dae1bbb8_0%7C1cb20b774cf900001f761027_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=GymG7lAaBzAToX2PfvjUvlh17u4R7iwuQxm4eNCJFpj-4Z-jtsTETbDGFUru5l_AxOVcyLRHF8X8ESBLiN5Ndtin1OYKeldKL4TbEZQUGVY2kFuOaiV0siak1yTdsjJk7FHZXd0vfWBHsVf5ZclUdA3vaY21AxjPWgbo4Ko0HENuhBpiLR2JMuoUKLhRDePGhJp3173YEPFqChnM4QSPi-hsQRIe6z16A_y8tT_rgXnnGO4Wg2q03GAaOAhq1igPd-F4U1EI5OPJmijUADjmL4epuT_1eE9Nn8y9oZxTTtRJKhK_jLK9sni_n2zB_qVSeMwNOuhTTgSCF6SDKySHHrnf3C0Su0yVBHHxgoaMWyVlakR--ml9ag4ztRCG92d53Bwnviv29IWoeOBTxLMLpKl8tYJgdmrexKzsQCowVbWYwmYTM5GC6PNdJayh34FTH-2uUUaBq3x49TKxpeFS4mEoYeY__5sykiPhCISUrWLZr8lVTl2ypHFb4p967ZrgvjIRQtTSAfLJODi7R2q-uekjzDvz1ngi9Ar6TD1k6R95T0iE0TGii-KgJzGN5j7DgteYi0QU5TOS35ScmhBRYBA==</t>
         </is>
       </c>
     </row>
@@ -2191,30 +2191,30 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 67</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2024-01-15T06:00:00</t>
+          <t>2024-02-01T05:55:00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2024-01-17T08:35:00</t>
+          <t>2024-02-08T13:05:00</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d1900002462cb02_0%7C091e0b774d1b00003cbf92db_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GOfURU2Tn38mAMJZmnkQsrTPU9AeIrLS7BypxNMnzmtgLDOyj0j5DPE9yWF6BARd3kDCxO3Fz9IZebZ0zykkMauTm1iNOTk2INV8LsX25BqzYzhuja9VdT5lIFfn2SlfP1uMAIfQnTTqPu08jFBf_7zu0j5AB2WHTE5IZWGwv671H1bLaK5JDOS3giysICYKKv2Z9nwPm6lLXOY34resXetcNuCJ4blP8ZIL2d9eZGqD99XPEBf4LUxV3OKmivJhf544nBmKNpMP22GHKkmufkf5d_FFYyT3tauc7ax6hrsnvS1cCLmlpc_EiQs0O8-j7oJ2qKhWQwF5GN-XclmPppzZ7zC7rBWWjndF3zoMHgBw3rJSK7WYYiNYevFUI9QFjDfB8ZPYBmCCJMCPW_PqIGTtPRpP3nCmv3V6gvZetpjStQvIySthZbjS69Swr33iaXKc9TclWfLjwTNmMCEBv3tWdh9vk7vAv0pcQ57pHmeY_tQJAAIL-trlZJgxbR8IVf2s5rhR2KPXDQQQecieBJrMt1HJPXDo2j3pDNd1PZW0=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d2a00005f58ff37_0%7C0a7c0b774d3100002fdcdd38_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=GuLEXHNw56fCbClv0cIj9u6iXaVEIVs4f9LlhxQw68YoG4FP5mWXbbccE1VZCUMeot6rHkuoPXPPhId2lYwzj000EnBPgfx3-bd8L3nqHXo7m2-5UQILVwNtqD9kqtKBLvXLsmqeTvbQu-5tYY0-K3sWq0e7r3B77vVVqJNe3XmzPaWDBYidAKewQCId5iXfFQ5Uij-umTqu6FtYtF0utuB42RUqpR_SPdPuoISHioF-4_GkJ4l1TKijre61z5iG_07mlIg1uTrZcOuH6qtc8B0rAOlFEgx2_6D2D7fvVygpa71C8vI2t9dC5LsO-fec7EVIFmflRbWFY_Q2n2HbMHJNN8yRBNo9cMZs_mhT42b1fSVDkLTMAGLVZfG3psg29yCgf01Cymt0AmebDq1lWR_BReMJgqjzxxicr2vNQliZZ1Ubd32en5stWypS6BsgLsb_XbCDUFEydJblTg-Xn0gnrVZq0eJag5vE_4EuCSAfbSgvK3duFwA5nkuV6jGCnNPGSIUjvO50cNZYOZDI3LUTJFnff2-KdNtfQ26RNjERbxPft1ut-OhSYWsPCFkILNPZMff3pVY_gLE2aw2lPHw==</t>
         </is>
       </c>
     </row>
@@ -2229,30 +2229,30 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 67</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2024-02-06T06:00:00</t>
+          <t>2024-02-10T07:15:00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2024-02-13T08:45:00</t>
+          <t>2024-02-14T17:35:00</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d2f0000534a35ed_0%7C091e0b774d360000932a136b_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GADEUBZonzUSNcbBtgnqNnUA7drl2EUiJoIApk1tBTGmflHin1JSWB_aboOwfhWkBAR9XPRz5GojU2N4h5xzdfg-if7ngDQQtLB4IvxeKn3KojHxjxVyfy0R4K-4mztQc2xj1rM6-KZEWjGPwJz7dKGfCk7e7mSg13Ofkc-r0owSB-Mp7hOeYm4mmto6yvCrOk3t2MNeQPlthvny95qZVuht7guNX1ZE-nfX7N3KC8KBU1kweZTqC3eQ18e91nf4TNn5K0M7oXg_C_q1nga8qli_y5ZpDTna0IKK_wK3CeMUW6A8dVvVtZTteqBx32uUty2nwhtcGZgORcVO1MDlpJ8VfbyNIII3Cec-zcc9ujNcyUXdSL8T2s4Eky4_zhB9wTJOQhC0chYDY6II5HXlHpFnAtPMRxzHN23F57qNfBodeoU7uKNl6AV3D2LMZSki6m0vb9sB8msJ87ZtwX3lj2LR8a3VdN3TJyQ9gboPtBv85ivGlIUQ85r6wIx2V9UtQ2UhmGkKex09PUSaK_5AhHiTinjsEM1TrKuYIxzkeLS4FgGcwpwHpHk68gktQh7LluTzDXz89SeWFHcIPHcsjcty1VcBtYDI3Jb0m0lrlOuc=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d33000066df0dae_0%7C1cb20b774d370000e856a062_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=G_onwLAaM4ys3HbzSYS1w2YWX7ufKFNVf478Dz1xZKkUdXQoP171z32CWnI3-D45wUfZTO2sVVJ7mpB4TqBTu9ftpogYlVYu9l03x_smzdwZKZBhmKVljiniipu20zqhU5IP-ZcW0MSAEubjQm8YgDKWhBjFjYc22n8sdQt-iRRlaufGdxjVBXk7heWFZfKvJRLQ2x4Ku1PSixol0yJJ7Kzi0raiQaQlbZqDr5UzKSvR6PtSC-BIJwebEe-Jcgr7CkbOCaJeGm63KowZ2CmrESnQejgXx4-RX2yKEDY7LjKqSIyLncjvtEO-Mwj-4mdPg5STfQrzCgeeVULB0V_05Kzbbf_lRuLXkMElR6bZRxX7QIQXyI43rn7xqTTUpRdyd4dGL3NNvzxFZ6zACPOxCKDbUyHEr2tqNXtJqf44j_A4ltTg-n-aovVJ0S8iqPTe2REYMeF2gFj490slcmoyig1l3DPGpA9zqqcKgMqBBQk3fojkwNQeEgFiSkCH5sWxwa59z9-MjdirpqJ_Vqf3Uf-p9_85wz1t6wKKQ8t7NkZ4=</t>
         </is>
       </c>
     </row>
@@ -2267,30 +2267,30 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 67</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2024-01-17T05:50:00</t>
+          <t>2024-02-14T14:50:00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2024-01-20T08:45:00</t>
+          <t>2024-02-21T17:35:00</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d1b0000edd367a1_0%7C091e0b774d1e0000ae4752d1_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GnFxsDVisuTJ3fY3gh0DtR1jYaQ814XODePjjstS3c9V4WG8Rc-ktiGrC6LetU9w-8pgFARXcqlSp1TaGeFzJN3elVB0CHYE4i1cRDMiBQ9afp6uQuW1B6bZRWcB4GLTmY8EHzYqKYh1nbNUmD0X3yQGsWcseKdyJa_imNBhNwXT_lLsNNF1HtlTjE1Eppq3LfpCogFRCxHYZ088rLSOJSQyzf7Ag35eQi-IJdpPLJVOJ7UJgA6aqGh_RduGE-peCX0vWhrjqfoqAUXc4BBhrKzHeCA0uJXxBkzqiptOP7v5EteXwDFWKgTNqebVkTfiz3rrDafqGPbprcNT16U0x0EvCIbLR6O-pYbgk1kU-q4GoUTOcSxLYgQX2iJYeXz9TpfPY1TzqvgbrbY_v64fqPW1GE1rjNH2-5PXCUF5022c8zPX-pIqM9B6Z3n0EZiwZ75--ZbR1sYbxUqA9AbIAwIP2XV5AkCcdXlxLCeC1MgWLc1lB_sD2lGNwRBAm7lYykWbg0uwUeKy_4MWtRg0vtVET96gl1YKg7XxJLhPNPgUFlUMedKHgX_j1Z_QDZ4fkOniqnXqIYUqrMz1Z6c8PcA==</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d370000b73562c6_0%7C1cb20b774d3e0000e8c54a05_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=GoLU7mM-FVSMP785neYnb9z1ML5OyjnS2ThBU4jb9wGXS551mAG_W0-g8OnzzDPNzWDVU0pjefJaKuuDsoEXfTyBr17FFr4beazjJDJGENE1t1YWR8nVfQrL-R4poZAuuI-8xACillf6CJswSgnn6IIGWtN51uAG4whp3gJSNL7WvAB3r5d0kzjzJ5A_hvztEbJ7HL6PlpTea8F5J7na86-EPyIwuX_UDh35cp5rx8FPSNl7KCxE0V3ZdANgcMT1YLjIdOwI4dtHnyWQdTY3n3JcjTx9E1fzW6W_ZMXWwUgnFOiydk5KvoHkpOQLLI5j04onH2pQw8lxNqqecW_HsiddC95_o55GC-gPcH20XVrbD3dlGhg8PfNEuasFkShGC9KGcp64-S8a0EZ118LwMdW801X8XKvs7YD-GqZQwIFuHbeEbnPYOXqf-c5huo61caocda7Yb4l42skDFctXLKqRsSQhrjItGh2uGQwF5YMbjR-ds0bLSzw36zNsjZUxT7P_5dTyqQn4MBlKmiBARnswOEeNy__oNyTcSYRix5Hw=</t>
         </is>
       </c>
     </row>
@@ -2305,30 +2305,30 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 67</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2024-01-20T06:00:00</t>
+          <t>2024-02-20T06:15:00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2024-01-23T08:45:00</t>
+          <t>2024-02-27T09:00:00</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d1e00007f2ba7ab_0%7C091e0b774d21000022ca1225_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GlX4yVYlRlt4lcFtc0T7xQ2MgxMpC42p9Fv4V3YjSDqcMsat2Yv3zQBhwN_hbSdubE8RAR2ejWiyTTs7rE3fJWkJXqjn2TKGz2b5l__fhD13aB2qkdEWwiaMOi3LTXfcNQFUpduhPA1_kFzK5PD0LJwbGgHpJkwo7TYVs27eTGoCHNrNQ-dCT_yDVZRJ65vtnX3DALSptlohvMQ1kawSoIt34KAfqkrqUqxs8EaEF4N0LVzYGO9h3IEBUd_7xEOHvjss-nqBQX-XYXW1IFoDG_CnIjd2X0Epr60_h8Ful5PaQmyG85lO9xXoQLej8JGyj4LyPGcpInzVHEqzXbnbG0MgueJJNGUt1HbYvIxf-u-rlIntlrTS3Ko8hByzuk4NEEr_vaK96RUn4O2W60uOikRKIXjL7thEEBw8iCjg-izT6MapeLnj7a0enS_XKB3yEca9A0ODiEnfrnKC2M7T71Ava844SMoAv7kLc2rMj7G0vtqFrt-yiWSaf1Vp4siihJuriWPTRpmC1uQghdDJ8zgW6L0L2I-BvLlmN7AzrlhHadvdMRdv9U8i5LWyhu0q_HqAC5Fguwk4pCTJXOvTnV2Olboy1OgNWYZuqfLyBhY0=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d3d0000b6309959_0%7C1cb20b774d440000ec8c2a75_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=GT-Q8zQeVvQkgWjkuHMcPnGK_UKTH72Wh59OGjieLxDd5xQvrd9gMSbcgD2uyG3XwqDdPSB6WBwmnT9kfCPOzQBRTv8VrgoYUhIilM15hTUHSo7pnAdSo69gunEJOF8rqqZ7Bczgr2wze7fs895Tvobci62Yy5ARQHE4zm0D2wom5MNW9g_0P99VZIfb8arwnILiTQv98LJx8JOyBoaVU-HZq_H8xBRUmEKG1o1J_HHHn52EGNXEMIKkjoz6CTHTk4JJ0Kw4JdaQSL7qkE0irs-AGiZiw_oLnSFJXw85HxJVjj2jFXg8hWkctMa8hef7oL7w32KpjgOciQ1MZ2pE7OAlLC-n8tP8jXEzVPRmVafpGluoZVhASi-gR7O9fEJQNctqpryyiIiE58yk__NQNvvwCac2it6ikAtEQjGr29FPjbH9QqgOler2B9Jc6QUjBjWjXVbc1ShTZu5TOh0H8ugQmQ0_Z3FQ6TI1zItz3wTR86sLgKz8ZcxIRK8RPSFFOwzjmsRXp_33Xos7u9tJ7RfGQXKlHXLzq9AxQ2yXzR_o=</t>
         </is>
       </c>
     </row>
@@ -2343,30 +2343,30 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 67</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2024-02-07T05:50:00</t>
+          <t>2024-01-25T10:05:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2024-02-13T08:45:00</t>
+          <t>2024-02-01T08:45:00</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d300000da880d90_0%7C091e0b774d360000932a136b_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=G4L7UmzCO_CGBZ6wvjZmCyt8ek7SfNttokmNhx8f6-kBjNqctlgJrI4aOLqHWLwPs2jLKNpKlcEkuU3YU6WQSGL1YlrmZv2aR0D-E61XmQZB6HWjAUDL-uEaStGa_niH78FPyl7If52HWItJ7bF_HtOMMSCFF8CI95PyBdENJvAW3jCNFQYQc3Yk8GXqh4XMpc3Dx0HuNtQGij5xzkAloPQJXETCIhRPdW-uorcnBdhdnraLWeR5YjKFGXEVrQkIU8Jib5UWj5AGVg6DAtUY74mjxTQmZ2Ajz__zUaSnQQOabBOrzT-PN1NlLqIZFUuYtV0ZBiJ3BhYPI6l5MlxZoXZkogC0atDWTwev8Q9mONvNvgh-jG5sx2UIQSxw_X83UWBPH7q2KtAYnGppzWR_tTcBNln7BWhLH_2T4y7q1ZN3eP8lIwtPg-tzKakwkazUiN_8n_CYMPczf9xpsj5PB-8TY2ATpZXDZ3GIorxG5dZYch_ntM7p2-62FPMYR-hiwHv7iTtF4ASl-rU9Fd79bKiJ91P35_s5m9Nr105JKKVrfRwvhvi2-ntC-3-rqXDMRF2yEf1BlKqHhQA1PDeAvdsY4I_INKMWN8gt37qKwdto=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b770a7c4d230000317423a3_0%7C1cb20b774d2a0000003b3d93_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=ORY&amp;booking_token=G3OcN7IOJ-TPr94YhhSH9gedelSrcCWlcITeLPcZRfWlcnQRBxcpMN8IbUndjS8BO0brERSUFeuNrJijOOeLXcPpBDZoRY3NafESpHlevI9xaY4uyBxEpe90AOdvYAKx-PmRoaKsHYaCfm8ByQ-PARPdg-XlqMqY_Z03cg36lpWggio3fwYg-_-kWQu4oFuJbftD1BYjxfpTKD3b4gWDyQpQHHZ_1CC7kAPGzL8Fl9MslIWwMzlhxsJk4I-R5qE5vkYFncwJU0hD8l7pbcv7xHh6rKI96cdneWIgbLqIGgbvBayblVyoC6g7cuRNodbkmcYTpXZGbDr_Ef8fKg0ro0tbhn3MpWkbwvGUc_6NZGPeToRVIm98h_8TP_FnLKxAh7ED31LuPGG48VgKiA5vH1dKXn8tnG1cFG8EzUss5B0mscC7oT8KGifb4oYaqmE_T4qPh5QLfuI_2IZYk0BPKcNTuuzV23kS8dt6GFwpX5AIyUudPi5gE_eNUlBLZi_r03nMJzZASRzZ65wSFAvqmOb896fuPPzt4EeordYzJtTnVmED6Sv3voZOh0ft0YXFngTB-l44MiI99hcQVw2X29c7gDdFIMr0Xm7nnD2YMBt4=</t>
         </is>
       </c>
     </row>
@@ -2381,30 +2381,30 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 67</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2024-01-16T06:00:00</t>
+          <t>2024-01-25T10:05:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2024-01-23T08:45:00</t>
+          <t>2024-01-31T17:35:00</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d1a0000d179267b_0%7C091e0b774d21000022ca1225_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=G7XgzGHEmGzH-RAf6C7B60MAeXMDTPzOplMmdzOJ_hdFs9B5ctekBH1c0xfd1oypzxSd5ZIEyufsH-BrcF2GwCaD8h7kUB6KNY5J3UW4Gai077iyLm22pTzU1OxEPc9m9aREl5ySYp9yA3I4x4co9tzDcqB-xTpC4QXyx-suR0RESi4hzRjGTBVoIp5IZSibuZQauu_nOwEUXJISUGbPCSansVrKOgXbQ19Qxn7wxh3xFpSHVjdN9wQAmTlp9zai0HXQj0LpbfRFZnA8cMW-0Asfzsh9wDcyturdpF0elRHu3jKjdi6-UENtvay5zvN6SOzCbArCLYq6x2xj4OeGm_mrw4BrUrOCICAfanNs_g3wW7WgXbY2plU_na9ch1KWF19dVLRDh6zzv1FQx9y_upyNHdtzDOsPoOsQGfOTdWVOmVla5o44FsZwrbLiRAFmd2WBeAJ9kPlflHiVQl5nf9vUmTKQx3I3lNxjILbOiXGZmQh_oD-5irEDs_sJba3jVa87S3atNc_Rw6Fupk4vsFpZ47Pdxo4mDVU-_BIEcGixWrdXoxWeql2WKfLYXapmCZu1vw1Sukkt_p7TwTJrW_w==</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b770a7c4d230000317423a3_0%7C1cb20b774d2900004c097483_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=ORY&amp;booking_token=G2eu5mvyBE4noebd7Oc0ZmcOxg2snZ2o3JuqFehmH6k7BxGrdygVFkQ3r7rKvTOBujeMdE6pPKPzbhV4PYwTHEpkwatygkX0ih1NyaoIx32jS8xrj8_zCp7lDEkLGMKxPHHLgHiWkpJ84Cvj1Tbm7cj20d2j2OChjLvkBQA_H_GrbGO2RlGh-Of4QcFaZBcvWbZN553GFSaHPRB3_F2liv4s86TuCFsZSqseOh8YIaywssDRCxFJ6VcFo4OI5gL0Ud_7DywSEGtFaQ-l-_2OHYvFfuDt4DNRo6t1XKw-CkQT_-TVp8AlG3k5x-u2LoaznWeAUlTSZTeyh6WyqVlrhsqV5FKxd0Pr6xZKcqxUcxiiR1eZplc7UQPn_9CLgAXoaVIHN2l5RHuOfTHTCWvKeo56ku4uQSvyKpKot35UNXzZhbUcmidbGnxlme522iz9bzWV4FFuBMZaT4N1W500aevXrjeD3gopwWEcXdAiy5RTEvordhiQAX5iyrj4wW6yW3hdosV9C53dP0OwnQSUxQgUeLyRXJUp9_hmkEi2KV5avfKplTm1jCHCOunQadtclm5LkF7po52jrEs4jrlwxCpO09yYoX1jShxvCSJpB16Y=</t>
         </is>
       </c>
     </row>
@@ -2419,30 +2419,30 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 67</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2024-01-13T06:00:00</t>
+          <t>2024-02-02T10:05:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2024-01-17T08:35:00</t>
+          <t>2024-02-07T17:35:00</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d170000a24f8549_0%7C091e0b774d1b00003cbf92db_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=Gxcy-cMD3a2yeEuNEqtNu7wTUbGgEY8Wj_shpXgb2CNwWUgL976jkKZAAS8wMpCkr4VAtKp3ktwKO41AyXilPBTc_8h6T7WXexH-XKppVfI_YH9FU0ycjyXIwlSs_kb7GcmLGsDdykWiUIzSnNu2pMLaxEKZEvJlZ5pEAftbnhsRACi_NNmnQp5RSbF5cW_KRONNYIAoqRNkoEtmd9aEm34Kml1iWM11fdA7Bs7CPfk-tTsiiLF4ZcfuJ2jzoT8aifaZORXaMQQJsMPw3ITkDBNSmmwBBwmmZFWLfnB66RmLwHviY6tV855GnBAu8nVnZ1mRAKYU0PkpMTJsOy54vN9tMv82lGOdU1CkT-sXMXqveQmJYyAXEISINlMvg4MQY4TWqkODtIriGwsskxct5h5IhJYEyiBR2iWPJhXmexicIZ8vyUXhQ2JqOeuFWXZ2VG_GN0SkjV0Ht9aiWLx9t4ZVZgJLgaMP0jR6yTUb1irTNXxT16ATVe4_6agI40o8xP5SLDShVDQD2Cng2qQEi6KIQmi_ggwg1Ug0o_wpys7QNPiVoBeKXSRMRJRUVxdnv</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b770a7c4d2b000055f6356c_0%7C1cb20b774d3000003f281047_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=ORY&amp;booking_token=GM1YRQrSwMPt5hmOWIH525wyHbXmMwLhEQJo6UFeKbrXiBvq_5a4wcjC8D0-JT1fsq8mC-APMH2zOadoJ4aAznk80v9VTfqDnJCtP-3UiovPKRW5IbrhwaV1wkxC0Y2lL_1dxes5KFeKg_P1ty1V_A3dJP3i4bmyLw1U1SkbqySdKim8ku2lf_KqRAPoDBukHe7QPiutRggX1NQRrxz0WlVUiDhZiR-cynT3J8bd3rW6I9V0Kw_qe88ZN9yR872eE2mqYc-Zrxea1U_d_N45QwWRzci3GQ_JFdb0y7AZNFz8zz5o_G6xchd6kN_HER2O54vM9iqXLILxOP82IJQsFF-TOcYZ5B1NTDWE3K82JuhCxvqWOCXTLxN4i3cA-58tHFwoZ5obOj1hIZm_lGMocZffS1SGmTsK-d60VohOIPuya67XZZdevQeoOUXyoTz3YgAK_rRbHMi3r8UeYBzTgTBsHvyE0HuHjWff0LgPCv3kbWOoHE0I_ve4IQ0Vc8ocJxNwvMAjRE7xVqwOSy3HUx8yVnA4S-0VKIZr6uGqKUWbF3l-D5mMQMGcYB-PfesTT</t>
         </is>
       </c>
     </row>
@@ -2457,22 +2457,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 67</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2024-01-31T05:50:00</t>
+          <t>2024-01-24T10:05:00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2024-02-07T08:35:00</t>
+          <t>2024-01-31T17:35:00</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d290000a9a96954_0%7C091e0b774d3000000be4f8ea_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GI4bSr-Ov08PArDRg5TR9G2yL_f4wobq4kP-gJImck3Kab841-v2vRVC23QPtbryiPUK5UEzQhH5deFzsXqbvq8RRnLS_IT5i8cdKhYKbzsV9KmTHH4QG9BGYzBW1K8S8vCqxLceQr22Xns23x6l3g_mnjxm-U7cQlRJk6gOIowIGyiuPZRoclNIi0cRkaz9f693fvbZ5PHCZvOHLDFOiamisEmMQiAN7an9RHwxxReP8LpTXjgWHa5fXY6u0L7zRoVvxL3g4SOI1muu6WQJpl1sZMOfSMdxRx7USdXP_PZsmCEYj8bqelpYWLlQFlK7KxPzbOp9rGqeuoHNxi8LwS7PuIx971IYzQQLpCvcyq1p8NAPhj_uOVHpXBMI46QhubOn5L-9LMexYwyBkTLc95syaNnNMCDDTWxtCGYsLfl7vGwi-K6xOMIvAa3Pjq-JJdKa3Z7wJwX6AGdndoNHyassVFHo1p9LZ0M9716bqWTA5cgCnAVmaEL93asUSHFkruVD-Ko6y9rQdnbUOqppLRZpUMxRJGkFllgBy9vw-ir7mcmGAMTekgwKqM2AJsPd_ghjLcILmHSgGT5FecXER8J8UgDkVejzDs3Zkke7pvhw=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b770a7c4d220000157bd31e_0%7C1cb20b774d2900004c097483_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=ORY&amp;booking_token=Gt4ZhNoejXnVKlaSjwR5jUEwWDZA08YxGnPxpP_vQvEWO4JoNndu1ggqysPou8b6AOOCGFxksKnOld-jQnv7xHjOYVXmD59arnNiNGobg8jCxyz1asK_O7CfBTxvPC5cA6o2TEVhykg-5OXdMIHiKtQx-pl35O5Kb7cMl5tG_gT8WB8HhKRppkeij3J5GVS8aRuHDjV2_ov7Cr0_r70tSIf4ws85eQM4MhsoUGzxWPXGvV5Bc0BY8IyKaSFhN8X5m3U_6FYOdeq5d2qOReNynDhDfOF_AeZrcfDloNfnwLMpp3dwH-eiKTFcrBqUUO_erDhGvXVcwnYZYwsNYZ3da-KsFAV-0kiU6_Yyl_JGPqylTeohnums_azPQ24uPTnvhAbUFd0PxKv5QKbVqBUARhLlRseIGN6BCHE3lKpbc6eG7nljqmyfrBHB3OmniVD1-cN7_Yn9D1PZ-h_cZxvj1dE7QdhvJDJs4bVq2fCwUftcfIQgiaEF1qcFOdbdbZfZIX3Vp28xBZ66vMIRQs97e2zL6wK65JorBC9MN-M-1coA=</t>
         </is>
       </c>
     </row>
@@ -2495,30 +2495,30 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 68</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2024-02-13T06:00:00</t>
+          <t>2024-01-25T10:05:00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2024-02-19T08:45:00</t>
+          <t>2024-02-01T13:05:00</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d3600004246e611_0%7C091e0b774d3c00003be982a5_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GleiUPzajy-vji9YcHQrlOEbmN9uoBcPQIVoqUtmLCAq5hrx9mRn0bJZsmU2ytzKmgPwrcEgXrK_S9NZOdf3yl4OBF11zScI69_t18_NEEudlUZ-7zsx_Jb5xnfg0rijXCcbv9wVW23-pg6J35MMU7cy2sQcBRJQlA9ZvofAt_40jayxgSx-RSTWPUOpp3ezopPXjkHGz4VLCWPzTmEQxiw5j3ar8hcLRf_c7zeh0zadH0apEEgFosjx4OiSImnfZ2Cd9m8zIqtTw04XWKJMDlosFNUmPad_UDz5xK3PbHIJWYS0Q-qZs-W4b213PCTSBFr3XnLqUlwCz5kgTfBDfvkazxv5gtt3RasP1vGoFMJwcnI_w0-m_a8jykfysGxF1yK-11cOaJ0isGsIAcGtw-jnpnOJtZTpbenKDLh0x2s0SHiVJGLw_quGPAhyN_t-UeaHfwPTZaDz7azSAtbxFfOxCwxjkhTJynq3UA5I901x-_tvqXWELEo2Vintuc56XriAeVKwNLSV9MMvKUai_YLqWsMeNRZ3_OqljTeIYZbw=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b770a7c4d230000317423a3_0%7C0a7c0b774d2a0000e3d0cbd9_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=ORY&amp;booking_token=GiHUr8w6YEJxvoBjomP3l51VTrk6Q8-Tk5T0rfD_5Te6E74xMpqrd2Jy9HK4V4Q1GQ6ApvDFJgWaHOK-iovLB_2ySlx6peyefHGmChOTTMod3wz4ADXYLc07FQSbiAMztBSVx7xF8whH5AyB_lgJthFs2nFDY0eyjlzL560ISiIBQf6s7xx7eibLYf8ajO-1bJTWBLPC67Qa2epQ1mmBC29rD0IhthBKFGPfajj7cl1sXjbCVARNH1nSKldIuxNodXgxC9r7d6WBVwTuFX5k2U1qWtPvQDJviyPimF_W0Amqk8F0C5-25s6v1nEfvxPoRbpXjUKQIFsS6-HiCHcSwdR_Ol6dJnf4ZS0GsnbJGoqWPKyzJr-29X46MtOorw9OwAxe5ZyjKToqYHDAqFh58W6schh-75siGtSpvvUoLPE9m-EHZX3SoT8pqaYzpMKfeSMZWEKE5chSfKKB2aWRFAzvi63TnnF6P7SKHD9B7RVeK2aL4Ev5S0tk24k9ARDqk2JufyyjireskKH5ID8FWTLA8jznE1fCJq2JhqVP_-gE-SsU7m7NVlJ0kmexwyoFwa8og9sQyc3GjPB-1thtpEg==</t>
         </is>
       </c>
     </row>
@@ -2533,22 +2533,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>EUR: 28</t>
+          <t>EUR: 68</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2024-01-15T06:00:00</t>
+          <t>2024-01-26T10:05:00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2024-01-20T08:45:00</t>
+          <t>2024-01-31T13:05:00</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d1900002462cb02_0%7C091e0b774d1e0000ae4752d1_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GHpIvr02PVevZMPeTFLvcE-TIJt739fENvpmbmpNRFp-vx634u0_ZaGNT8EwuozAulV5iVhO1JZi2hwexLt2Jr_nLkFCvHh4q3KkNV-0J2PlgjPnuSGsEqpd6BjiXJOtLTdSeAI0MPuHELtpGyR8YAWwpdv5nMC4ZJxlXEzrQLel439vBQTge9EIb_NuDYIgY-FFU-vyeDzSlB0U5qkwa5LR3V1z7hsLwkdN9lSyWBPwfmoMXoBumt3fFRNdURh5-3xFae-8pVEdzM2mFWJPRtjgCS8ALm7EbLDlWKhzgkeIVbijqgguvcS02Efo_6rlXEQiNJIBhuker9_FfSnFwQ36XhpedsUX9WyQ87KzXVpJDvCi6tu60IjyBTfUW60DJxwv1uHD6xLYKb8cvqJ0BOBcG2x6pgmJK6B7mU_c0mz4sz2-X_iEmWwiDiGr3Cvlg21hmVGv_VC2Q6zq315YSwU8ZB9u8Njbv4XnrZB8R6v1NsWmM58s3pc9NqAYZ_byi1YQPHfHfmIj2CGeY3_EXKhsFIdgsXpDXvd3soPnzFNhPuJdU_0mCwbdKk_Vls93Fl5RzRz0de423p9s9HGh_jA==</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b770a7c4d240000502944e4_0%7C0a7c0b774d290000afe282c9_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=ORY&amp;booking_token=Gp2kgGhgOSQvotDXL74v3NcqRQbdtxAYm21jICHXM6_CRr_4xMRY0tPsl7QAXNXAtsWdiMFPwmLIKTkh1O540OJGwq23Wcwz9JHI1bdSj9OeXfaUK73BJ_Vm50Azyxt_eK16eMPJUZbMQkLKho90eQ0E0SqrxFNcOwhNpGRdwZMB_PsmvpYBA5AOwXDdA32eF7rH3ete0WO7943JyvbnLiWY2HZxdnt5A9yjbQ9lmmYiC8CaYOkXAAwRIuQCAOcTp6VXAXVKH4nO6TC8nmEIcdI11bxOl4FGZtNBfR7n4VFRF6MLH_2PWEILwY2-H1qVs-U2PGgVqYp985plOICWqdZPLFgwrcRlVEzcjxl56aoFTqH7l2SnD8NmxKv35euhHH9XKLwXCpa8-3ZeXkPZvnS6x2o_SrzhU34D-BYRhND2g68ryw3EwCig6s16fVzEsHIxH_LTBqulA3GLgHnJEmABWC9pzr-h65YJbhFXbVCEVeUfFsYs8q2-hX_qaoSvjS4aBDasJti8lx0ukdvDa8nnj_0E_Zw-06c1jyh_OZ0ZuKiX7Ub0Ck5C813rYYWhhokfkK1ef9bIS5oHol0U-ZQ==</t>
         </is>
       </c>
     </row>
@@ -2571,30 +2571,30 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>EUR: 30</t>
+          <t>EUR: 68</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2024-02-07T05:50:00</t>
+          <t>2024-02-02T10:05:00</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2024-02-14T08:35:00</t>
+          <t>2024-02-08T13:05:00</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d300000da880d90_0%7C091e0b774d370000dc9a48cf_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GMQ57WgbpBz-QT8CmuNkih5ttWp2i3koAXlxkXguyX7LBa2tCz57kVm4jXc12y6guFEMl1RxKfSkhTJaUACgmp6lzghI0JF0XRF2FSbxIX8Y8ucVN4UIZaIGeiTVdbvO93p5vCj4e6gOe7RIh40BeT5R3cdjVy6Zkqs-WTq9Wsu9CizfRdn4cCr8hoNKhsQY-oEhIC9h6C7vNYhHIWLoAwBwaD8qI42Ka8qjfS6p9zowOaQovA46WrTF0rwL7jUrk4LXvjfDckf5Rb6RNulvD1Kr8NhAImYTmWRlzNd_GHhXGYQHTeA0R7Vx-jkwbXx_HASRGtvNtJt9KT1klqnNQVy6nklzgb5F-h1sQri4iHnEmevft6GH5rAq6kstL8inXRPV3mUhtJoBBxRyunlgqvpYPKiRrO2mx0VKlWkk8vX7jbLY5FyTZPFs-uIRA4seEYnGCULMd4ThUPxa5AdAeR7-DYqpRyLfGpr45fk2yt2dpr7_9L9saHb1WlEBT55zVnkKZ0MeIfPB99A6Ar2HhtV37mrnRLMAFn0ZpL94NM3XNhfMq_e3qobeDbHjl-7D1vOyf7jyzd4E0A6OA6g5KV91UQQvqgje0MUFa4R00_FYZPybJpWhJmtyVx-xkuC7AkrHUFDysRoyfLmfuFrjpYQ==</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b770a7c4d2b000055f6356c_0%7C0a7c0b774d3100002fdcdd38_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=ORY&amp;booking_token=GxfLdivAlL026eeom2zu_bqFYvPFSQA2LgBMNom72sFJN6_hSpu8ViUCy5Yb09gaMyLczwiRHihlxXn6Wf6NvG4NbwpEucVVfY_XVP8-H51eM1DqfpgJzetP3S_dKJAjeIW9PFfc9O1abkubIBPw4K3pPpFS5IiNz7s8wlgs_QF1KviMCcrzqocNWtSYU-rgOt3CkAj6RBhST2O_92kMm7vo9WPUpAGDrT2NjM1d2WzmDO2olPi71HYIPXqrhYOFi0N_IdEmvQCHV3iMYvLtFHCa50ULPqRTlpiC7kvSDB4SaTUWANKxmHVTjX9m3vjIobg-tY_6C4z8oHPrVQM0R7tlcYAyX3_gNu3b-CDhgrS63xyi6yfWU2-vs8jZZyQ5d8ZtSHNWJc0dvaPxKzIF0XyAkUuuHphqisDS7NjTZ2WIYhBvQVH1FzqMXiWXqVp37Clip9EjceFcPPZsrdYoiyqnNPdpP3EFdOYF8rY2bgawxZ7YNq-im_SB1mFm6G9qVXaz2iwRQQjy_87UYOIvzafhkDMQfkczDmPX0xHRUALh_i8cnyaQAX8h8RqjmAxny</t>
         </is>
       </c>
     </row>
@@ -2609,22 +2609,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>EUR: 30</t>
+          <t>EUR: 68</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2024-02-08T06:00:00</t>
+          <t>2024-02-01T10:05:00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2024-02-14T08:35:00</t>
+          <t>2024-02-07T13:05:00</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d310000299736a5_0%7C091e0b774d370000dc9a48cf_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GhwqvWqRKjh0xUkwqgtK2ctWXVA8hbVlBs0kL7dAi6rGiRkLgDbh0mn7p3pjqwPK3UPg_VOYtEHsgIgQvKeJH-73SMk2X1SflKVgWMW14c-MMpyic6aZOq3nNAkloNWhlVONeDC6iq6gvtb9ixNHASvwJh9L-J0UnpjuP84ijft0WydcjO97bIgPmKv3Kspn2lDgcMSPGo3Pdg2zBkP4EkfocsPWs6ZxkYBWdyYg0h0dMGc_HBjl0N6_86W6kdoiXpzwJz218z_2hFvdLzcIOvYkS_nRLsMDzy6-WO-4moWsFEtkuxzPvHp4Ho92BWokaBoNRKJOOE0dxtpqe9FlJiWTWrPbWDxFz23xGJZ189ZRhScP3JmWdjozegSyqjbwW9eSPgnVWUmp8xZf89xerdxafpQF5XlhFVNENQzIeXd8NG8N92pwIe6q51QynzOb7dJ8FjX6UI4CijvB50T7Esv4ScNQU1H5R79KIimhYscNlTuVasp1LBQDjQO6EsXHCRB8gbae-HJ35mPBHR42hb-OxJaWXch3GHMcPfGvSKhaOUS_ZsATcM7AYwk9rNNyFMguPp-B722Ku0q1qdzJSbdx0IouGymyKLu4_s5v06pQ=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b770a7c4d2a000086dcbe9d_0%7C0a7c0b774d300000dcc3e60d_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=ORY&amp;booking_token=Gxfr0HhuwVk7hPRuJFoUIbMogQwRKXOzhSPTsEgrsd6o_o2wUThYyI2j-9cl_6t7362GwNvQdR304RQ15ZwQWyP8pEUBfZ4ZXfNPdnnUoi3kRd3YPKRZAqccSACtTz-zWx0qpBV7KAE_KmFbs922JZwkUirVvg9597fTZGdCeNXa5Fwz4QrQCed5MJSCxcACrFYFEfkS1QMtf-a0HerN4lv6iNK8Z2u8ufEdQDnAszWsfTwpB3z6OLzG_XohNlEEoSw4bAdlp1GAKYl9IKSuv7o2JJM465ove7V3vz8cLCrbEL0Svje9m40hMRxcxVaOgQtf7hYO-Lrbs87lCJ3pGyjF-hUMEoSpJc72pjUgpeB1uPfNPxu5azbslrlXxTscjrurz8JuQyXHOUB5lChlr9zS-G1WtQqoip6-hSfgGnTZK0uhe7C2Ha83Hp_EmYa6CUMRQzjUD-EsPyncX5AKaQzNvexc9rNRVUkz6RSz6nG4ku-1w_D3FYdYCjvLv0MhI0Kr5HwTLqxUfuERoK2NsjzpZ0MIJc444BFxRH61TU418u4BQ1Qanyxyi3WRyXjV55fl3onYlBKHYvZLUceY3HA==</t>
         </is>
       </c>
     </row>
@@ -2647,30 +2647,30 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>EUR: 30</t>
+          <t>EUR: 68</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2024-02-12T06:00:00</t>
+          <t>2024-02-15T10:05:00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2024-02-14T08:35:00</t>
+          <t>2024-02-22T13:05:00</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d350000b5ac0d19_0%7C091e0b774d370000dc9a48cf_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GwXqD8cCgS-UkQkGYQHzzjzcHg2GAhj5N7MtpcibR0XMFc0-nmUHK0Cuil8RGVyq2ouxZKElYEPEXxuB5U1bTV5z5R2CM4DiEW8HZGg90XrzcPDScp6xKNIWAZqAaweKg4MdOiyMrIA7CWB0Xi8nCc3jD_0vn4986ZmtBR42t-kzyWu8LNWAX1sDkzziJB0sf8fTK5kmsAPBSAlFE6vyo4LqzolvTLcVKv2V-ORdaNCN4L0C9961HrRmAEDkwF0V-n36jaJWILLsHwDkmf7G6L9GR40yPzn_2IouRJ4KXq3ipdoHHe_UtQQnIaXllz0EQ0K7we8JTiitsh0whEa9iM9HNcWFeorjyzzaGQfFr5KIYPoGsB6gzoYPC3qY0QfxA0Y_T6dwi28GyY_gUBWkg21HV_QQ4h6hK7VStCddhYmXJw7REe2aeaha9d_Qy69xNAnW641so0lmhPwe0A_eZjIa0sZLkTDtTLxQE51SPS8_inm_1D2Mjx7MzV-LCsrBmeERFKMtxKd3bXyWn5c07O2kA_g6ErLNfDjN3CNszhqlFXq8OIo-ySUEokvENXm13gL1uIoeNjTagaPH_gEjQxw==</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b770a7c4d3800002487bc30_0%7C0a7c0b774d3f0000da803df3_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=ORY&amp;booking_token=Gw2j7nrcA160KFqfYZtRRTQ9Ihh93lRkqwpEM7X77OUvvDWOoi_5rt2ZJ7TFlbbGgDoaMeMVlI7_D25Y8hnyMr1nazltKTjLra5uvj61mfgqunFQe9-_7flD6p7CZSsP6EwvkrlRouruz_2y9nUIbwDukSWe7QUNky2CgR1SlV_CPVR8HT8Yn3eOapS1uiDZvboJytNk3P8dtDAzOy3hxR2Ke4ywB-uvzUUKPEwpcyvdWzCl2F1MJV8AMF8heA2sU698CpiqacWbQPiaf_eQ8o2suDNKHAed8cTS5BjLbrb0KSQXcI8NElWsnOoUHJhm1LY1oHn1e3x45VaMPn7-elL601RX2MM5_rLVIlf5MMRoxwa0y-1PY09iuw3AsFRlk4iKTNwReQml9Llf5IVGLqzgdB-eQ8kI9SbTmcQ7zbSp4uiq_Bnq5WZetNljgxy8Mmt7ZKtHErTiwQXoMo05YoAbY9_rhPp95o6ipHBw9Xs_wIyTlT1Sa_UWh1O3gI8ps9AyMyqUYDY8v3WdHVOu1BGB-23OLCIy2WrbepulcUIXre3aU10CPW3mrmET_GmBh</t>
         </is>
       </c>
     </row>
@@ -2685,22 +2685,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>EUR: 31</t>
+          <t>EUR: 69</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2024-01-15T06:00:00</t>
+          <t>2024-01-30T06:15:00</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2024-01-17T20:40:00</t>
+          <t>2024-02-01T13:05:00</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d1900002462cb02_0%7C091e0b774d1b0000b53207fb_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=G1Bcg3kEcAqlohBseTwslsCZXvdGPBBR0bX-cPtH4fhlp2AKejaHK3ACWbX60DIHvP5ksZ2mCSuhcgsXVnBVps55JmmuQ4jffDfuCzoXNkMjQMh6qVE6lWLbG9RpHW-mEhbA1Qy6eonK-6pdQ2-efl8lmR9Ptn6GBdvct1JGA4GZEWtqmyEM_XrBPpSA8Jai54bTatYq9ouCK0pvuzgd9b3mf0bpCgW2CvIXjTbbNCDSHODhBKtjQtfRgBqdx8PjCC2AFMitK5rk4G_aLyaw6ltJokQXf2cCiNzpCHo8SFbXxz7jgh1MJ06PzbyssSQrIcJH1w3XUKImjewPA70mqMpOfEPia90ydRTFPLQ8wFeHGfesyxcIECbZ1-mptHzvu1CI4Z8ym82rt-HoCXYhK1HUu2A8JWnnJ6Z9pPiyVR6CaC4hwvCL9gjMR45FrGxaE3aG3RoHDQEDZmW0FFcuNs1qpXTTzAE7r0ZK6iOFgkvrNedA41imoRXW3GbCxdd35ZzuFPUQPTli64_W0cqAVQA5d1VW7D7SglGvst7frOdU=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d2800009de8820e_0%7C0a7c0b774d2a0000e3d0cbd9_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=Gy_tuftKxutFc9vg78YJnoX9eezPFqYVNnB3vLVqNT3sjTF-P_Kgjo8saBkUP5I8ELbwUJJDzbTp0wMS0Py_e4zHnsk34nXS5kCEJsQeJhn7vhOde_e4ilfVvnpryJf_IEgc4RhPm6yuNQ6tXnJZ4AdfPLa8-iTLbh55tieTU_Ts1GqGvi5Liyspq_q7YyN9g0xlKPdJ8DAuur10lwsAB7MWhA1wMa1ASglUFte1oPS2IeKSqtsq-52ywLlBV56t2FytBLxUZ-ATpU7W6gV7N6YHnfdRC8aHg8i1H0CA2HBz_yuFKI-nYklyQx0zMfm_60FCzJLFpbJyjQeRCWB21GenS2wYU9ORrKgPcEQLqid7zrdPVFr6DTAc_6p8J0EUSBhtYmRqoQbdRI-gyMneAPOfNXwNMRcmG3xu4O4vFkDPZ0E_AD7_zvtTQy-kEhcUtCVpD4WJaXSawKVsKwlgfJ113sDRA-CQ8Ny9-tCeMa4BWtnuDe_GCXEogbkSAVMqlnKN5tTahlMnBJftaaRTgk2AFA_42UY6hCZQvK3ki9rg=</t>
         </is>
       </c>
     </row>
@@ -2723,30 +2723,30 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>EUR: 31</t>
+          <t>EUR: 69</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2024-01-14T05:50:00</t>
+          <t>2024-01-18T05:55:00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2024-01-17T20:40:00</t>
+          <t>2024-01-23T09:00:00</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d18000087fcf175_0%7C091e0b774d1b0000b53207fb_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GYDPvhsQAUSqbs4lKpqYpfzmhzknRsFDQTDJ8NnjE1m5gVG0Y598ngpdbmoV5aUeU0Hv7qqzrd4EdL0S-lBXFh1YoivBrdUtpItgw1Iyk75yAsY9XM14Xv3KaQYC5NNLrElVxSY1MnVjtrfHgDdlv4OMp_-7Xlk2IUMwJIXK9xs09efNHjM-Jo_VUr9pKdKMg-Lq1KeGhThOA3o7MwbUlTkp8UAz0NHIG2iecBseeIbVuSeQGi4hPFdX-Vu18cPYofHJhPkQHzswxsjGXXrPrhuFK4EjCiqfuEAUVGoiY70aptpDSlHsL35yUws4eYxqIEz5Jpl28bm0yC2l1KXTLuQvL_IKHEaWEXNIEhdFWieYeDdDwOvFO-HJ0pjC5Pc3rPPwb2ZgpzICx0o6wIaTP2pEOwLk8PEhRx1nqfNxDlpbYool0OZPEarzsIBMeILHUG0NIxbOzGMLjoUL3krQ62M9YOvyQac-QAQMeGcs7ea0bbCKLBabeCqC6Ya64TcEjDORVO4Rt3DJChZGEmrWw8pCZrCpTQVwjQkdbaqc8EoBNWsRtHq3sm2cc8LSynuEL</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d1c00006d94ba3d_0%7C1cb20b774d2100001606fa88_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=GBWvpxrs1K8Z9v8gIc3Ta-0y4RjHk-nknRashETQNB6I7NkCYEsYFChgogO8G5d5UWVhHY8eskL9WlaBOo8tWa8UaTFX48aPpXiZNl1ExYizVfkbpugFR9whMvA8orTsuKp9YSXZEsuAtwRMax97E3imj5Bkrp3n-IeQ4rYTN5q0VB0eqHj28ecZLjs-em6Djq878IBtvAOA6bWGsczKiI9C5MBdTVgfDTLfsxBuX-UPeRFCIHPeoRMIMbRwYtWvTzpVtGPZkWozBwR5kyWm876qtHfUA0SOttExFSw303kMuCKNZMoPFZ997r3jsWgPT0t_ZhGfDJKRvnEilGIjzZgnHMzXB3ct-Xq0UTMGaHeLp4QdLUbc5i1ez7nTUEXZX2DDZ5J5CCuXXTqHXOLVMvJlnhLXrEUJy4tkDzBQekW4KGKt51chue6Ld__niX-WALaKzvc7jrS8mcl-KUfsH-YtRYL6rFq2s43LMA7gff2RsbimRegfrfttw6467vsx3dCXZitKw6A9z6XBKYWpRYUz9V6k3dNfs-ne_D_OZo_U=</t>
         </is>
       </c>
     </row>
@@ -2761,22 +2761,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>EUR: 31</t>
+          <t>EUR: 69</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2024-01-28T05:50:00</t>
+          <t>2024-02-18T06:25:00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2024-01-31T20:40:00</t>
+          <t>2024-02-21T17:35:00</t>
         </is>
       </c>
       <c r="G62" t="n">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d260000f96aaaf7_0%7C091e0b774d29000027c8d6f6_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=G3LKniQi7xtUPcA5e6DvgwsaGPj3sgn0dZUoDP-IZ_nnFGQ5huKYdH0MFHaOcqWdZPKk_DKHPsz6pCWXvbxmfR1uhb3oqRHuTBjhHKyW0r8NvCYt81MFvOQpohC7yPuAVjfRDTJEstqMAxFZABZfpPrGiZZW4Z8p8co-ZxYP-rL1aLiajSy9oloYllSmA9XTt4PvopARMFfwEYWqFh8aQJxY-3XVBkKa5vF5lenDL2OfAleGHu8J8lp-O5uJU0g2azZablCpCdRohDVt5EeWLNF0vOiOLuYoXbFT-8unYrOrCcXERXuEoaTHSTYf1pRbuaHKB1uRWAhVpqj0lTWw1A7dT2Z8NKdSpMVD2D3Wz6_s1bsUYembwkXfP268qq6h1G59DcCMo1yxXMB-z3crrd6APGfc9BeQ9sqoAiezhLyTc6Pp4wXKcA6pNduPEmHWDvu-y-4De9YsY4KSegXahKXwtLPekeTgQ6L5LOfPdtc6rPbajpqqCK0Z65Pxzyqr9xAXdd4UOI7E7WeYThJ9Kq-xbPMayWI6lwRMz5apOCd-mtsdBOrvlm5eHWCp8TEqGiWG2n72wk2quy_PpJeQXKzXSg7Kq8J0RnAiQDx69wcY=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d3b000074495811_0%7C1cb20b774d3e0000e8c54a05_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=GmxCfQsXqme0m8oYvqkWCVQKICuvkL1WhgoAdx4fO5b7E7L-9_glYwYWwbgwbzGWeBy0azn5Uc_RkvfSkDMBhX8yEmUFKQndrpuw9kCAfacR2NpVj0Od60BJ1h90KtIW-rZXTRNj3ONSZxgk1fJsIIsG3iKNisId5mtyKKoGaFOpIzC-K7Fh7u6FcZ6tDiOk1wDE0JSiwhQDdgj9d-r3zXgvqUv90ta8RM2iaCxB0C2Bm5NVnBeJTUkI1iY5XX9uRhixrAeIsBbKKA5AEW2o4xv__juCLIRoSlUB_L580sXPZlck_5ohAiRAphbdrd2KE27NESL4IG8TaL_ZuzI7ZrT2zjy7A5kBJ2f2HzujSkjEvKbgPjYSVnR4EHjCIUlNkpkxcwbQhbVCq82dY3Ppcb-UrvQrXG2Lp38S9uOJw25tqwzyypNwpU8DS7pu4gqYtU8D_-Ycpd_3v1Y4kkHdecAiDsaI0rxtqUBGNeqGwN4-uSE6R_rS1PCiWGxYO-7sRBJYwn2PEv-KbTNpmgGt_VTAMni3TAbNzFhM24-_GE7Lny57bhWOo68m93pT3lixr</t>
         </is>
       </c>
     </row>
@@ -2799,30 +2799,30 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>EUR: 31</t>
+          <t>EUR: 69</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2024-01-23T06:00:00</t>
+          <t>2024-02-02T10:05:00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2024-01-25T17:50:00</t>
+          <t>2024-02-08T08:45:00</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d210000f3a6e75f_0%7C091e0b774d230000bb00dd14_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GLh8HbTfHy82E_wq9chIqPhyy4mXswHgQgjrKUZim4V0Lmnlxq2YRXQRn0Wm1CqFMRFV8Sepps6SnOB7d6h1gO16U8Y5ZWFV8Khn6cHqv0wO9s9mwvzEaGgKeK44NBQUO4HCN4v8ZVi98sl50yY8LnBQ_gMw1B7ZbIbw-sEdiQghvVHZ6q_GS_s6zAIbGa5Ir-0J9VKxgkODrCMbOJp9gCKAuMf2CXVUtS0k_EJCLQe6Me9XwkjEop5l9eF_rUc1O0Sbr193UCNnmJNvRwZqNaA1-0lJTeftgOU_Cj268P5FQjSAXKTbWf8K_wXrMo1h_XL5k0KnEDYy3HqVc7qyauv-hA4HpAFCsbsElesccAkYAB1wmvJNqdkuArLH13IGM2H7mHhLden7qzWWrZBsDRbHagJIUrUDLEzTlFG1lxp54xlkR7d46TpA36AWRlUXl7kwJJN6SbPTqSrYfeLxLq0i1yDj-2Fc7aqVd-1dX_rv_aFb90Jby4n-_RoAhu9FEMRJaBscKUoR_tEiefwgyrvZEwNSn8w68v7nxqtroqqv_vmqDa5ZPP-cN-qFNl_k_</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b770a7c4d2b000055f6356c_0%7C1cb20b774d310000cc372b72_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=ORY&amp;booking_token=GFEGPAawJjoO7FtJ84Af0QWKFq0MBDANL99ojb_QOWw7dGDeaZGZY1_VC-Sl-WdTCfn5_qXNx_1HlpW0h28HFM8TaAa6gh5ZTDmtMDLfyVceAny44Spj9-Pr06frN0ouCrKGzc9V47EqjB0n1KYbhKLKoxU9c3hG2L024HpZVkazNcEF_2gYNpiH_RUCHIW9xgFTsQe2ZTZW9v65218bHgjaL6H-hbObewjaWndmgZeOkL1Ak3E2VbH2H7SLzadMa2aFzq3wnCPJWrddPRlfu4HdWegPkudjeHrmJItPJ0TUrC7sZMjFAf4hQtTqz8DIxDI30bDvsB7vyVjhdN_sMjZEQyi9j3CsM-h7DUd5HR6KTDLBMVU8DgVkkNhBJpci0kOEL13vs8cCjOP-2bFvNWunTDgWvLou55crw303Mbke-fgfgPDpExQrzr8asRZ-HpnYkFzVKWp2aTXZSPTFuY4ZdsEYIlWOZgbC39C2JgK-3HOOd9m7nzPGVyOD4ogEdCaJagZ8FYPWB9-K8D-oDRufEEvQHCubpvHqw5JdBwxHtvxkvQvfFPx80tHrYjoyu</t>
         </is>
       </c>
     </row>
@@ -2837,22 +2837,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>EUR: 31</t>
+          <t>EUR: 70</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2024-01-17T05:50:00</t>
+          <t>2024-02-22T05:55:00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2024-01-22T06:45:00</t>
+          <t>2024-02-27T09:00:00</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -2860,7 +2860,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d1b0000edd367a1_0%7C091e0b774d2000003746afc7_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GWc_FKPPcM9M2UJLQPT9BLNiCwivlOVoNwAmyogpiab1YNkVpabRccf5HxfEeyKcCVbjzSfGVqjRYNeLnGCdBvQRZelBTRqovrM2ASYcCWhrT9KPa07j-W9p8HpcMsh-r0Ek0kaF_sPD8pL0I3ZTePnL4zhEGw9nmhLlkwezFNMMjZ1hgANE2dsOa4JVmt8zlptmUg2VWj8ug6QMXIzQeoIYCLL4Cl_ubFQvnC2SQD-cv6h_TuzvoQ5CIHdYqijHJsfrAyIx86djIc5NEkSclxSQFfKclrvUP9NIj7qsV5T1xfxKdYAaL7wMr4wCsL2Y1rEobSauiO4Vyxj7P1CxC_80mvH3nqtf_5JQ747giNUeQ1z_kT_z-HJCMUAqXkorUtO7kv0FToFGuwCuO_i6VW2JG_nGIReKDQvWMkBlBppoEeLzt7M3w73irqHkEkUrMGasPPHZG7yQn9-lV_xJzONDazJk41S752dKPXSWa5fxlvmNhpUEWV5A5iyt3c26joZIguCv86SFzWAumT5VwJ9aWzT0URc9GtNc91WyO-cgDegLnyebD0qIK95onN8TH</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d3f00006608091d_0%7C1cb20b774d440000ec8c2a75_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=GKZIsH_3InFXe22S3SHM4GXjI-XXR7iwO06f--A3uVlp3eN1BbuqwZHMr1dztZ59XEqUbAqf6W3Y7TEdhBHS_0xBreq5RYOmcCmq-QFiQFjyhOtDw3bXf_95AuDWTZO38yetbz24oEvvrAM46oGK8SFtbtPq0WUlAkTYF2SaUCSKcx6sGUp_wVlbllTLy_Go9unmD40c12skg3kdIUkME1Y1Q2cDTYECwEZ0K7LNmaF-duVC_5fr7Vkaxb1uvgZBxFf27AuW3Ojv1N2fp-SDhUYfJnhfOy696yasbMXJ1sS3yKS_SwVnmwYHWR00Ldw6UlfqFN7lT1Krn5-zJEFoP4lbTssOLtkODuyKI7CotL8VQoIiVQBmfGqVhayDF2O73jVKjNFaBnRnscYQKfFK1xYlvHc8TeBAPWYzwVOZdeUsM_u47_l_6yrxO7Z-uoypDfE6MzX23Eu4L_JAYlEjANKRsL2cBQLXyM9niTofg_HNzWXvbQFXui1OjzdE-GDkNT09_7LTly0gMAKVBQLhzOu-gx_Dr_qUeKYx4a4BZB4U=</t>
         </is>
       </c>
     </row>
@@ -2875,30 +2875,30 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>EUR: 31</t>
+          <t>EUR: 70</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2024-01-20T06:00:00</t>
+          <t>2024-02-22T05:55:00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2024-01-22T06:45:00</t>
+          <t>2024-02-28T17:35:00</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d1e00007f2ba7ab_0%7C091e0b774d2000003746afc7_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GOB8U8KXtcWp929XD8l9VAdVzbQpyrORX8cGZp4ALidaAQeyUS8x5xLRndRDWxzrzPIOyZk49kncz3SqjKd82r1TmVsdjxEgEQLBO3Rf0A1AOhOYMdEBHpapwnAzEDUceOvZ1FgGABHpQAic2leYzyFTJ6MB-irJCFgIoIeQUpDuEF_amN8AQ4Q5IiC9ohPWttu8Hacexr_Azo0j3Peunpm1o9nkWy-5cDgUBFiKZp91yab3FOCAD5g0wzwExWKmvp80VNL19GG9646y9JIZyEWgA0nvc5b_GZ9bZGN3V3Imd1enxU7Bzc1-Fuof_WB5B0eTzObMA6LWeFH2kO98MVskz6B5EX2p8TMulCQcnBfKX2GlCKEoDFkgj7zUv1cDnIPR4FmszQRNEBYNeGQgLL8G7aQoHelsGTlS2BXA-_o95HHkh2h9ODZtFkUnClD443_PUmNEA2KYgYxFuNZ2XWbqf-nc107uyVqp9Al85kaQ_RjeKUR01mki0MLq08SBFWHu9UkJmMjsvsgdb8-AxAWrd8inY01tH_syiqTi-xtvzibm117maNP27ZqFkNXaLodGZ9LW0w_LNZdcbTxLSeQ==</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d3f00006608091d_0%7C1cb20b774d45000003c9ec48_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=GTgFAt06AxKvhGQcgO6GLv6K7i1nWrDchk2dVUHu4irKUZkjY4GCdQIoUqHps4qhKF9WLkBEMwRXaHmm5g8of2ndUqFRQB9CU0dSgy1zaOxAqIeyMvVrXv9VZnf2S15yh80RTofmdbIjFeIb11-7LwkYH0ESogHJy58ic0SZuM3XzHy4EO-ZWl2_M0zHE6i6mA6_ox7l8vUb0Yctfr5umqDQ8xoeM0PQ1inkmq9GBr-hy2QqFDju3B_89QWgvlYMh0-MFuvAG38nKtZIHlZVP_-Cbc8a9y7lsK_kvSOpuFQMrqp14IjCMORy7Y_kV2qq17nehtmyHU1PPDsswVKuQNzaoda-Y6EqdPDuS3g5g7dZ-PDV0zUKomA4tJMPoPt4k38DJifKJqJEXbsmipfzHF4wlKYcT8v9kqfSUZ9CP1r36JQYYhBbCCZeqMCo7EARXmsMbjh94Z1zfE8oMokQNe2xZw2gHbY82aKLrwm0SyAI8k5ah0Dr8wnb4parNg0CU2Qe1AbhcQHAcCOR2hifikTWZctGzANoKzFF-GlAD_xU=</t>
         </is>
       </c>
     </row>
@@ -2913,22 +2913,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>EUR: 31</t>
+          <t>EUR: 70</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2024-02-14T05:50:00</t>
+          <t>2024-01-17T14:50:00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2024-02-20T17:45:00</t>
+          <t>2024-01-23T09:00:00</t>
         </is>
       </c>
       <c r="G66" t="n">
@@ -2936,7 +2936,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d3700000df6bdb5_0%7C091e0b774d3d0000b8accd86_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GrIyAxa2E6LeJJ7nuFy57MuIH_L2SmmiwSmlCKCRE-utZjPr0VCJ34g0bv2ynaXav4qjA30FlOM-5OLtHU4HVNM-cWR76DkybsaZvpkuRmiotchQJ_TX1W2uboCvOp93VWYPVIYwHCVsgM-q14KwrkG8cjkkjFFGHB4rWgASb6gq5WH4RBctJY2AKTXl0lnPcVLleyHWicW3ydxKltpesu6JQpeeoiimtvkbORPhWvpQTYUFXz_RGZQrHosAM5F9DfyBiwR_ANbgTkPZRpb97ro7jdiNyq0J1smAT-37sk_2qR6gbBv3b39G144AktL950-l4H6bABevan9v23FNU-zDV9TzmfB-CM6fbGbM-R5rkmFjjXoLplkq2IBJuOBU0FDu6Vx4w2uiwRCM7zRLebuCoIbW9JF4CAncB3aG3WdS1K-KzcBlNuH-1nhgI8gafojTGwSWyY5gjEUmqqgSYbJ0hRkL29w4q5Y7vU7hDbm3VoScS03nAbQbMlW6U3l67gFHcg4dB5LLiz8c9VnlPeXxE-F2YejwkjwXSGWy1JhVwSrqlWeN41ageGSSosgoZ</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d1b00005710b8d2_0%7C1cb20b774d2100001606fa88_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=GVbQahwYuYt2JWt6IeCcOKCpNH_InvH_fgN8jV-lvyFeuhezYuwNDvJoci3T6nsNUU_ZtHa1ZqTr7WH2AZkczADJ3T1pqclTF4tnX2gZz5Gr2pHVe-iH9TLmpmm3pg4v13jDagvma5WsafuKdt2393-9sVlGV8xzYg9D5Mk_xbx1rQznEaJVvWdDJy3vZ73IEj68qBKX24NgdoyCBOhfqhP5tYkQZ1idqfCIwYZ3APHT5QBhNa9Y5BlCLtvrdBMvZSyu0AOpl-AGOh0XrSfvSvLAmHsZ2ZLfYoAX-hSvv2w1dB13PjM2dlV54miigws89Ip8AwTIsoB9LO93Dw_i5FE3-ffxriIgKoUaULt_3Ysgbhlplcr1xilODmc5RmoglYc2oodbBGPAVVfniV3lM2vs2TT0mBePXjo1v1bitUBQnAcOT9_FwLjSAhhvPMNNaXz_IVLNZ5XetdEAYG8WtTFtdcVbvN5Y3RKV9qkfZO7fD2u-QBnyemxAzVbanAPjFVtfNGvlTdeXErKNTMPop4IIyaA9PKHspUoEdReQcXw0hDpYb5OnC0yU3Fb2xZVQc</t>
         </is>
       </c>
     </row>
@@ -2951,22 +2951,22 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>EUR: 31</t>
+          <t>EUR: 70</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2024-01-18T06:00:00</t>
+          <t>2023-12-09T07:15:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2024-01-22T06:45:00</t>
+          <t>2023-12-13T17:35:00</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d1c0000d757654e_0%7C091e0b774d2000003746afc7_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GQRLhWmT8TDldJaaejsTmEWx9nzVwLTd4pTYy9EnWmYBLTXYcuQUNZ4SrMGZnA1d0lai9AuwZIBHaRiffzBQyWfLWGoIFvVD4_XN81bPXo33v8Epl2Pw1DcDEvBvM_vnUGcGK3AaGC4kEUY15VaJSQfxPUSeOsvCycmQ_n44KPl_BUGeaid-1-sJPq6Avw3HjZ4x7g6r6p8EOanTcSV-Jv4j4sPTybT9TJeLc2Kt3RjdRzzdI_eZb_hphS428cteekw06lH3343T3nyUTObuvzCqvg3vDuTyYkSZUjXfgy9GKiDpzZMlsl7D4LQGzVQFWdxwfyxxjP_wgacHOJhN6tlsAFryXhXtYh-fYKzHkKz_26C3dr_VHK8A8bmP-ebXIXNwyAT6ysgT2CykorrVM7edRbcZKY5g6su7IWfP39np5f8G07dWSBqulgAkJSG6GeCgqp6iMUutgjw2b8_dQ6Sqi2PO327lg14FCKAUp9L0kel4x5PkX__c3rubMqOioT0Gim_X1Qnkz9hVPFj0SSfpeWPcHUOS-UmXK_RB1W3Tqk68HC7tThPqJpbaR6FxT</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24cf40000e3a17d8d_0%7C1cb20b774cf8000097c110aa_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=GffyRIIKuUtWSpV2EyDx7Z3ihvUF8Fz65RZYIxykTwov-BwAt90oEkqQGBhqjXT0UilYXLUlMeMD-uPDzf0akR4XypihkJ4MYhUtZEnwZt0fNK558LGvKbxak3PxW10oAxpX2Cx20hMDbXLuXQkD2p2X0yXtoa6num6RuuhE0XwFcOdld9KI8oJRZ_hagzTGvDq4s-lX84J4EUsaWXrlXF_HnUl9M7jCeDxqPwYtV6lD6SUNmMayijt5FCgPBTtsFiEoIAimp2mDV1Jb9blUfmUmOBGlyLYwBlR9MzyKI-pNvCLKl2ihopPY1FPr-dZc3UvPWDQ-VFEPz0pnndD7n5QnmsXkJ1E66t58DypSIgXsSDrIwp3zCrZuJ3gLNiG4jssotdX1RopqwUJXPHj6MEYIleaYVodeVNprqiPC9PCUqA9N7izrRnNhhU-UPQTk2wmevcP-npHofChDbo1PXAE-KBR6heNBN04ZviLB9Oq0zYS12vFikKUyUzN_WRQSYBcE1k3unmjVq29juzJbzDgcMYvnx3sHARxrCCzsa_Dw=</t>
         </is>
       </c>
     </row>
@@ -2989,30 +2989,30 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>EUR: 31</t>
+          <t>EUR: 70</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2024-01-29T06:00:00</t>
+          <t>2024-01-11T05:55:00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2024-01-31T20:40:00</t>
+          <t>2024-01-17T17:35:00</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d2700001ded9d73_0%7C091e0b774d29000027c8d6f6_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=G7gEfvxSntAsC9wKU3uAuYpVNUxr041TTD5jPsK1AXPJuYtf0WH7xw9TxQ8y9h5yN4YP1x8rPrm1k0D2Zcnm4IzqsupJR7y9xH007gIZ132RZJzjBkEg5YnR34Y34CkzcLJAz-k7IlVNRp8--CBlK_RY-CWliY7BGvwDI006TpyMLknLZmnDZisUNZPuBnKyNn24-tov_149G-5-sXwGO99KsjEazssNbsESNslwRuVyIHAbdbd6-pjv7zDNtC71q5O4-pMKq3zkZ_6Hw0EPRvsgE2IGgOCzQc7KOR4XSqMRZo436LSIlK8xw_L4Tq-QxT9PAl19P6hAbQa1733_r5K1HTlBYBFya6Wr3KDY0-VbyNnN9uwMWPmUwHrZgwbycW1uTNXas94p-3r0J47PtNvup-o1cb0VzJIW2bloRqETM8G866orgs8OspX9RTes3WEmOqh8CYFzs02Qn_vfs3Ks263SHJVrkD8YovKfqLM79pHOP1Heh-kpXY4yIkL6yzMLdHH8IjS9vnKxfUYwIMRnUNMqYBbMaKnG8D-vKN-4p9Ny8ARkqHqmqa1y_HWQP</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d150000da6f0e21_0%7C1cb20b774d1b000008737a76_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=GVrEuj5L6pAiH7eXAvBC49n6AlqaJC9SmyolxojbrV63e84DgGcilHKwn3IeH9e0JkFGfujp6gEceUvXlDe9Hpju0cszx3fkuYqLN_hF-QUvMnsao80zj82-hAGBKZYyjYud9t3kAXTrUudLJZBUzKsgOJ9BYpnLm84svkRVCg96agDggmhsOkl_m6DBfoKZkAAiO0R36LicpkoP8vMycUHyhYA6Ce8smUgtCn5pXs4JltmE9EDv6VtONi0rHQc5Kq0FXD7BWcD5yJTptEeP1ljlhH9H62hw0nmgQBu7ZR8id6VLZaNcGsbx0szYJhUkoLA7_D8haf0txi8HqeJOfSGc4OX2HBK_wLYtqNUxoLxu-u34JTs6S-34mZHl-weWjG_uHlmsfor5i8LVKOgxIF73z-G5mvG5Hhj0--DEaB0Ogh58TR9LCLbhRRPjG1PPKmxypNcCCLYbUYr39ovqJEotYBVBCXe3A41pR-LjXmIr5FWGvnqiGeaopaaA3YhfiCG1O5SUtpsFYjLu2ClHTv3TJEbzu_KJYR4RAbUMDDLA=</t>
         </is>
       </c>
     </row>
@@ -3027,30 +3027,30 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>EUR: 31</t>
+          <t>EUR: 70</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2024-01-22T06:00:00</t>
+          <t>2024-01-25T10:05:00</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2024-01-25T17:50:00</t>
+          <t>2024-01-30T09:00:00</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d200000462db7f0_0%7C091e0b774d230000bb00dd14_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GZw02UkUSaBr1lycylSaX2tIgpCQNwCLjI1c5sVQjlQhwJP6yrNJueK6JD9MT5XAqxviZVSnaYj2SQACD1NaCyhmYYdsK4MqItxcWEl20HwFyBEGFspJYPhfsLy3RSmdLWAe9UrWtj4ZwHbE--31b1g2fvTSaVxRG-aW43BmImx43dxLYQik6TyjVSHGlkPIby2mbJPCd5KE7m7SeN54NOviyLizmuoI2gZ8q3WWH3VvItH4YANFVNyMBAr9d_7Yc1CcLQJAvW8xzQpOLCXUQjpPnYUDXYD0YNhYcbBiW-EBRa6pzbUUKWHoX3MVvbkxBRl_3_OnZ-O0cLtNyTSPNtX4ExgnGRyw_72LwbeoJa1SrSx6UboxmvCG-GosfGAymSGFiuvtrfXLzq8LJpODUdMIcaUPkqdz10I-81dAIDeVOs6gpyB5JyCwuRx8LwiO5PNay0yVDNFFwz0yWZcOXNS7M3oGnK_qaH_gih9JO2e5VpM2qSAwTF4q60QFjXaQt7kqNQ7cJtyAFLJzSNGd36l00cto9kwFahGRuuYDv0KsnjC1fES6kYo3CSw8NZegu67YDyAO-6tL6PX029ioDbg==</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b770a7c4d230000317423a3_0%7C1cb20b774d280000c28b40aa_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=ORY&amp;booking_token=Giie_FDx7EDqoBcfGc7Zt9DGnLBI0TOoWXDihSkJPMCGHSe9EBHF09CWKrK9XNm4TeavdFkeOSTeTJnTKHUgoeMI7aNdLsdKgR7cqmWctRcs0lSQDUrZGeRhZlpU3iv3cOPwqoMjhJxUVnYJJYQbLsb1-9Pg2m9UimjdCg52rip4kdaxKgtZ7BzaeStGg_vU4MWeYNoCva0HVRfki2QfbDQ2iDRSiZJMIQo1V0jTr8oTPA5Z03rJSzw7LOhRg5kotuPWupdzaUv_5__Or9jo7nqlS4vFnPDnHomGCZWWm2fuIXAsdZleIx1HQqKmU3b2UoCURG1qj680KDvziysvW5Cc3uXJA52kG-pX5SJU0zRjapKr_2Zegf_Jsci-I1fk9mLjWIOrNcQZKu677IfpiA1D4RMTmYq3LVGukX46t-_u_D6uIR319ygYUPno-m2f0Q57H6L8UjlgpKduxVEQIzwyc_sbln1N3tlzUptr-Xf-x9B517kRxxDEyNfFWLPsciKJdNc-vtyfLzCcOghVsFvgtIZGVXraO7teMy9tPEl9kirqRodT1xog8kvbvADcAwtQ4rC-BYHuE8FwpS7TDjbRCJF4g-uPvpqkb0eoF1XA=</t>
         </is>
       </c>
     </row>
@@ -3065,30 +3065,30 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>EUR: 31</t>
+          <t>EUR: 70</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2024-01-21T05:50:00</t>
+          <t>2024-01-24T10:05:00</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2024-01-25T17:50:00</t>
+          <t>2024-01-30T09:00:00</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d1f0000e3b177fe_0%7C091e0b774d230000bb00dd14_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GR_mAwcWTotH6uAOXcWOtqgm1636bXf_eokU1FXVEQIHiHSaRBygL8_3PG7Hxpc1z70Q37lkeKKagvW7Eab3ihVOwrn5A5CpwHjGwe8wNxlfFVTmZGMYptTj1RC880Y6KhKfjS0rivr2tO9L48HjcBtW7C-z_baJuznGf6jV1eqipkQCLVqcg5rcUEphlwtWqls1RLOkGF5J7Z3lCMw8epmHy1uzEETm62StAGfWHBo19UE2Ypx0JhGIsqklcV_ggwHpplzD0itbEpnU-h_mzsnUtHRiQLdeCCKOWlEsy9hGDcMdB1TmMHLeCeg8NHupZSIi78WH71pIQJxsVeMejNYBAMcvEhOvkzNhaMmd9X0IcVR-BPCg3z5bKoF9RMFKXBcDraZOLedn27w6Pe4q_T_UKUFFP5EWz7t-MBlzdxzi9v8xmfKYrselqQ88q9lr4drnxNI6dvkEItx9VmKSaCA5pl4FOFuU7koK0W-twSLlLjCdktvh7wyordYOtq0EtzZZWm4pCCQRPkQegYEYEFr30VnameJhV6Qs2j-0wXKzGqMDj9lEhN88U1S3FSDqG</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b770a7c4d220000157bd31e_0%7C1cb20b774d280000c28b40aa_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=ORY&amp;booking_token=Gt4zt3YzB44-JkCA99zNBr-znTXO-EC9RMnrKYobMGVAiZJ2tRczJkqYndseXyPgQlTjgVt9aMVoqQhjjz0XmQ40ieBLEPmy3fHDqSIsvV_xinIxOoZZCClt_27kxjPD1qTOD4roVOhvuda8BG5Kubxfph1_Ox2pb0mhjSjSGnqlNcTB6x8sBn5RNutBWweqaQXK74nbJgmSjFGg6dUPe_rOTUVTKTx9wL3zNMpWkB9eNSgDM8HzOX9jTqj6fNLR7pPZFd1q2jE85tdiFqlTT29QOxtjYbAesU6NzCdFPCbpXPusARKsXNRSwV4adU6Aku-8n_2N30NdI9sVDgHcNfmZ7_Ey6IRSREhvx2gNBKfB64Gp4jXciX73fvKO3tgkQO7Y5hATdKvUXcu3VZC80q07KfV_qtdRdDKUSUEnIgBmPKLoJv6RQWLoAHO9D7dPcHIpe_B-6K3w9272BLurhK9Na5j-j_-pPJtJ5NaD1Ir5F9dHSrSYnKESo9pHgpMagMxMb14WPC7CKt2tZlKfiWOgHcwZJ0qU_4XHkiaB1saVpLeYXtlnymG_7PVa3SB_HgoP9Y2QkS-LIWMXmHTuhDA==</t>
         </is>
       </c>
     </row>
@@ -3103,30 +3103,30 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>EUR: 31</t>
+          <t>EUR: 70</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2024-01-13T06:00:00</t>
+          <t>2024-01-18T10:05:00</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2024-01-17T20:40:00</t>
+          <t>2024-01-25T08:45:00</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d170000a24f8549_0%7C091e0b774d1b0000b53207fb_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GSe7PU_phfEbb_CwQxs_glyt6tD7YBovGtqCCFy15cUO8VtBRzDn0rWRA54artKS9l1dX6HCvTPST-hNDSB2iyHapSrMHbH2DLhpCNC6IYsTfQSs8ipJAYoxqTZ6otSCreGZp59X3DG5E27XY0Z2XE-KJpj6Oz_ynp5fiFS8lSuorlqbs3g5khEWhVoA3URqAgPWu0MLEiVbzey-slrjdlriKOULy4E0-Er4JhcWvrXu1ibFJ2jwktbiT_9o5vOnjPMf0v6lEedA4Ujub2SZp2R33o-YjW8eh5X_uRjQSWK0bXGTJ4_N1lmVv6z6hb913Q6kBvRmzTxxRdZC8SqIspd7wtDgCYMjMidOzKXt_sG7vneA0CkbdlWttFh_vaM7nyWWpCL2aMXISyPWZaLq9Js6By2vR_DN7wRXB2ZZUwbfwPetxSzOVQrY6M4vnmPYt7HZWF_ZE55OMqVdhty3ZoLnPOPGi-C8zdqKmi81iqiYiIUiIFxNFWVq5E30ztjY5YxX-OrelV8SnqVNWafuCU2cPAhvAMq28DrxNsX02grk=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b770a7c4d1c0000b410fb97_0%7C1cb20b774d230000b793a0ad_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=ORY&amp;booking_token=GhX7nG-IA4tQAZbREAtIA0gNWLaw6twIr1uFEGy2ht5FC5d0kCcbe2o9eYYsnLiiMMDTbUcDsJ4aXXwccs-7oGnMj_ahM28iDEwCkljRtfRcXrFPXM54hT2Pqtqv7ZSoPhhbHfidhpt9QFSTGtqGsNbUHAJcwbn1MEN4Q9Z0JpQFmt38nQAd-_BWDikuy9STtlf03KyZ_dQaCiolZrB6eNEtnz9SzR8qjWPvCsLuM6Ry2W8PyCL-_F5enYOQDjh5n_MsUBRQMltcdQ-YapGgyZ5toc8Cc6lr00BlmdEWV5AGuJ_S3OrHDFkDMmtYvysZucEILfNsKGF4wMl-1hqB2UvFRWTiep1_6xBu5TwIciIEapkXKBLum9-4DlXbBW_TgfXn8wmWtn0izBU-P9bUH4GsI8HAqD-kr2Qb3iAT2q_gxBNRWt2DBIhOJvwLA0_Md_OEVFQmfJrVxxnMQztRg7CnItzHQ_MoSt3Owy1vm79PAXvfZinWFKCAaPDhQ5pBxql61IZ9N3J_CBVOOjEh5yzpR85l5BtUFXU-WDvW3Hwd3SgORL4ljPDLi2Zsj_mBn</t>
         </is>
       </c>
     </row>
@@ -3141,30 +3141,30 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>EUR: 31</t>
+          <t>EUR: 71</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2024-02-05T06:00:00</t>
+          <t>2024-01-27T07:15:00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2024-02-07T20:40:00</t>
+          <t>2024-02-01T13:05:00</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d2e00007b5dadee_0%7C091e0b774d30000037762bec_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=Gp-lVeE6oMA_Zqch5cMDbJaryA9Qs9k4rXRJlbccNhLttHwMqS1iX85YiXKHzYUWbir146-9gPbTcXP0cty1hTwsvV-CzXiV7rwXEhVVdt8pQxIBu6xMIwz_qYqmbqzAdb960ATI8-lAm2tFaAARZFYQJe45xsSFw_sb4YCaZl_9dcF0OY8Yz_NeAnSN-l8rDpUT9La0q6JCJKPpaMMvyo1ny7RvyD3zkP3wI6nFiabGJUQCcxJbFXSgOHea16-BD-bwIkHteBldqViBriVYNbOSD6d314nTZYh9yLiUZ1Wjhp0dT_K-9WYLBdOcP6qmVoAGsLRvbKs-v6Sr5PTSkmMyc34hm-tZYKGpCTfvXvapIHcnUjUddYuNTdCu-YqOZHrutfpM1zmXlHryjnTOjjn_pRzsqq61bdlMZ_5BvW9_RwBSjutOFee7UJ70sXijyw_UsFQ3GWNr0wC9SHAyT42nawHVpCyOgBNyGo27jK72mBz4E5Z2YPXRFtP7x1eppOVk-KApMr094uKiR-268tUmylz7KCTS8mwAavQOMrd3sw_-o-S-CMwnKbDirKios_nSOZX7hEKOaGGYsxkf4k0pydY6GBJtD1ejBioNJCIE=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d2500007ab23e7b_0%7C0a7c0b774d2a0000e3d0cbd9_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=Gk59tnNU4aYB0XA3bl1lHjPwDMDUyu6jCSzf8BxtIO1bUIDoBfBsT0JNj7BskTzJYzP_LlFELVvFodMd0aWlXLu0igZtLST8iDdvv3uV9gQs2lmMcGByv2am_dHzEB__hqjsEAcDIMpvbbfp57uolGfPRiMH2gGa7jt8QCT55yd3Czbjiu06feV-bEl2grfkTQA0ShBfyhoAJ-BmRHJL8OAcSSDZnu4IdTiD4qVPKO_tuYf5s5I89T4AKmlcfsfwKZFH3dLw8_5vALejpDhU1Wai3Ph_WlSe_W3aM4jbfzuV2dsQGpPYdCVc3XDq36-L9l_9jG_O2dVD3-0Tq7rCnx-b3uguhgHO5qeh7SbpbJJ6tzaZiHZqof0hu9Et0izdm0QkmErJTAh0h36ZpDJtBz8X4osLZlCQgWHOnQ7W_OkH7Oam9fSkvqamU9XatxYrKipSBH_DyUidr2IrZXhygfylU-Kwmqi6Nd3Ymxbd5aJQ-j6a_Y6Nj8hERBhFYqny-bZkTzf2H6vhoZE-SVnENLaWiAnxvLFml3iWV6ou596VN6EF2ocsQo6QokNx3SJoA</t>
         </is>
       </c>
     </row>
@@ -3179,22 +3179,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>EUR: 31</t>
+          <t>EUR: 71</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2024-01-24T05:50:00</t>
+          <t>2024-02-15T05:55:00</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2024-01-31T20:40:00</t>
+          <t>2024-02-22T13:05:00</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d220000763c4dc7_0%7C091e0b774d29000027c8d6f6_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GCuB1_xCctqh2-7v0qnVfVtkzSlKb--MkmByTaY1pSUZKgP8ZUNaNLtrNURwy_k5G7Q7JVpIn8i70Aswu8YJgHQxi05QFR9bb8xul5oFV6saOehLQwVubN91-4NOwDO3UpZcmjuIx9sYzT1t1E3s0FG99__NY0dFsmbplBnI13zJrqUmh7UnSVQrJt2TPOGKLAxv0PyEYBTrSzZLHZp4ba1mJ8tJgvN3mXqGllAon-7GDF21mQtu57PWsPMKUnjYHGB9S0r_xRrppiFpOXT6lQC7FftaZ5SPzzlevNnc3pWvUGOp_mDVwDhDm8nDIAZAHdEh6bN3Dyq4UL8fzshlWabVsmHKfuGF8ZvASG9oaNyrXhLu542KElt5FL_Hec_Yo4UYsIyirA3OOM_HyCxuCdlF111K-q4mpru9ghc3s_wBKvI3W4LL1VYt1fAkUzmYgfGQeUQt92op7xVdobIa02R7k-9osyWczEZAth3v47cekmvgiSmOfeDrBC1iZPCgtQcuE6diB4axy8OVVm9dG-qouVN-eMeA05-6qCZRY-dZEbbOOtMwVGGUDzQgguoaTUhx3oVlczk71Zrtr4mS0kA==</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d380000fd03fd9a_0%7C0a7c0b774d3f0000da803df3_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=GoDHTOETQEowd2alV5lzhlwu3hz6OyKQzbh5x661aYgXIPpNEIoXsPfcPs2uuOLQf75MJhsT0VUHXfByhnWjoiGDKyqxZv8JbYpWXiMWMQvtC8qgVPhoz6sBLvU_1tGKxdRiE47kOE_X5A2nVP9xYu_MFLervu0bjPUcdjB2NDo1GOY7noLNWNEa3rig0CW1rODBR20bIeHkRmWjLKm8slMeyv9bB-BLwbmCnLtUdfI0ZNI7XFXV6XhXbNZP5FKbx7cIcCt5u51Hh4ONNtPrIJou0MS3TderEAYRaH86qVkcyi-J0JvLBocVpWQK34nobKlynyK610NK5qi-BS7D6fDVARAh8slm5TJnkVwuc_f9LWUDDFIAawJjsx8nj5raV11if5Vo0pgoNk7BGhQVUsrdIjNLrPpBRQ_DCmCl50IN88vuxnmYfEWkXiQ81qxvGGsXam-qasj_A37pXmWvDlgNGrKvMrsYQ-FPuURO1T3LKAIFChfYWm8QoHvPR33gU-z4MhrEGJsI5R-O_uw3NYsi9gH4hmBcH0qpUdtBxWnY=</t>
         </is>
       </c>
     </row>
@@ -3217,30 +3217,30 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>EUR: 31</t>
+          <t>EUR: 71</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2024-01-14T05:50:00</t>
+          <t>2023-12-13T14:50:00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2024-01-16T17:45:00</t>
+          <t>2023-12-16T18:25:00</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d18000087fcf175_0%7C091e0b774d1a0000ac977017_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=G9PpkwrTEoKs3i0yiOBN7WhdknlFV1Jm3WnzmcoCB4zOUoPGTSWIfQ3jAXbKXl6XiKq1rG42cve5wpkQFTsiBDKftV08UHmXPmjCM6hENIPvBv2l6Djn2DdZPstqTGoudUjvZfETVRboInozePskL2ZS_jpkpUTQqcI67W3t8aj6VQjHa2mLz3clY-eq3hN7xpiL2_esqe9RnyOOv-bAzzSBAsTv4UA16BceTL-R-aa3e8W5_hZNrSZ7-DYjX8d6uRRPVXxSE3887p12mg_jiCntp7ZJlbt0i6SSPi2CtoVinDXXQNYTF9yjj09QSoPr-brKYuzdlc1yeDsC-x36klvP4GWF-IU0MUAPQfK9yb5E-6u0ICcvUu0T8pEEdKUtSb9ZRg0T6TUm9t4pK4XdA7QbMa_wYcoiSn1-PrL9Ew5THHpS-2WuZ9XRHSzzjr6VZ1GoxsSYNSDJ5Sc7EO4LnRh6VFoVtb5g87sU5n5FvkmvqFme9gy2iAI7Ghe2SDpflxWIm_g_PDCf3QtaP_1_UMO2M35Dege_jibpvk5iQo8E=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24cf80000c8a2d20e_0%7C1cb20b774cfb0000d016e3d3_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=GpymZRpo116xSgjTfacyqT_BVToCM-MJzeK_94fIiDCBM_acNRtMm4NzpVnKNKX-GZuEbZKOLFh6WOeij0F-zOVPPDNKsN1VffZQKDrZafZ1RoNE36bQozUeOtoOwZGJUqztHUTLd6YenHUrfyeu3mDYsMk7_q_RvxSyRU3zeBU2vI_Q50xQePWLYEnVt5RGcOmEXcXJMNyciMkijOyFn98chmZm7wBHPEwA0-bz1gaxp_aJ6a3qUurAms43o7q2FEYgIZVHXOjCzB-bmU4xtjm3g3R40yXeLOvc9olsotlrDhnGb6RYa6hn8Y1-R2jQd4H3pKA_jnZ9ugR50aN65kn6roJ_jrWTT8ziwZ6v49vmmFWGfxQay-VG8R6OMsgfwXO9etGzQTuSc7-KOQDcuvlZuR8a3hzRVjt6XCTZ9FDf1OEySjTDkb-foRTRj7t_UJpbrRf9cWDxf8Rvnj_xN72ti3GpdPtIY77cZJf37N-QH3U9zDm3Yj4zhY0Cseh8MyTPqq7HPiDhXX0hBDr5AAuPa4DAdKLcgDtO39OXMB6N65495ov54R1bGJK_bghTF</t>
         </is>
       </c>
     </row>
@@ -3255,22 +3255,22 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>EUR: 31</t>
+          <t>EUR: 71</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2024-01-31T05:50:00</t>
+          <t>2024-01-11T05:55:00</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2024-02-07T20:40:00</t>
+          <t>2024-01-18T08:45:00</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d290000a9a96954_0%7C091e0b774d30000037762bec_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=G6aZjySK-OsUiG6B1nZ0N16tXPJdz2rfPPW5_L6tZ-msZN6ZCqe8AcqnX8a4OD0uGp1MpJtqHYDuzJHGHIoFeHbn0ZbUwonAH_9rCP_vvc0YzP4AxAtNCJzU-5BryUzV0z5YHcMBckQqfp7Kj_Ue0BQFIQZdl0S08NGCrpsPY3eO3578WizUNVSKD1-7MUZjOAk3nywaNABfmdFB6D-yfN080rNNwD_8O4h2eNEqsJ-wmDiimIRqCZj1ERrYa7ImT0pEQZEzl2ZImNU2qvosfES0Cil27ZIg6MzrxsB-pQwMKRj9IVHh1nQYfCtYv7BgmO8bHa782SdJJTdMGM4DIokQioCvhuS75QZW4Z65fZPgnP-EPYxqq75h-3um5UbDSRCSmhw62g6xHYYQeFClrz9pAQKYdP34Cj-hoDQaeefcmtUW5Zc7vRPkAnHeRXVCShaugD_c8wRv1I5cpqroMbQf8hSE6COMyh5KZ_CNR9oqpX1JvdzuySSwdx2YFlPTmiOlS-6eUIeG6VYBRnJSX3gGdKYcJPg0jto-w1iIytPlvHLJTlgNDQ8O1bcPkhq0F1K4lrbm9CtiL5CD177lfyKHdH1cXSQGCUQ_fgRV2na0=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d150000da6f0e21_0%7C1cb20b774d1c000032f77899_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=GLLNf74CnrDLNK4K_fEI76yJ_SGSFwEGZwW2ykrReH9T38u080abxnrv3a5qFuRxy3DPce7hBoQYAMAaSoeMLZLfapN3BTXJ6mXK00rj6US9XMS-6kcpCs2OARB5SvzDvVzDEmSgYu-1bjQS_rp6TnA9J96LU--KZBTGwxnyPNRGkYVWRm69QR9e7mXkeM4fsQ1-oinWB6-6BdJ8GEpFPtReEPhGhPLQg5DCrHjUHM7ZGpDkb20eHRGzvHhWmn5Bl34b1eOIfADpZe4GkwUGiFdp_mpaRDhj8-0QOn1zHWrirybzVSz6GIW0P9kOho0z-d7YxX8j3pPJexSl5FQJ_IkrJWmWIlyoF9p9QTnXC25Q2uN6lkeYYyGV443R_1BUSy_T54AmMNZP-aaUXwllpBatREgUjD-XmJxmlJxW8dFRhlODqQLmFRVGCap74IgXJfw8xTpUkGV6fF9PFq-OXjX3kRky_G1PSACYeuKTlur4o_-ihiTm1z9V4pGmnEOUpkpEkl5VMMun0nt3GQXSU4QCNiCOmEO7Ss64ZupidWQg=</t>
         </is>
       </c>
     </row>
@@ -3293,30 +3293,30 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>EUR: 31</t>
+          <t>EUR: 71</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2024-01-16T06:00:00</t>
+          <t>2024-01-11T05:55:00</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2024-01-22T06:45:00</t>
+          <t>2024-01-16T09:00:00</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d1a0000d179267b_0%7C091e0b774d2000003746afc7_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GAZEF8Q9Exdmme-qT8tTsxdxZGfshZ42R7lo8IqeM_m4PH3hnaXazuwtOAFOGgZGXBqlwAAUn7-KEqGSpoidSDXysf5zOZ2rO4MfIWvZEBoASsS6c_ehob0ZVND1cFDRvzqXOegeBQF4iNu6vNPpg8SUP0JeaP71Yn3qGxKV8YFLBrwTbHd42QpdtXS65__ROorKlp7Sg15KcUEzFtXpfoU3X-ZJcv2kLzlb2inJ0TeD5fiGOuYZGv1OLWpHKnr7Xg6-XGmDi5Fr6_h57sTgHSi9h-OP3XBSTUl2kWAY_sIr1kMqZUaluLZMaMtZ5fkQO1pL0pPPOw1tLRw8rae47VJZNgQT0_do0mh-PtnOP0roCV2WfqjOiTZlLT23G1BStqY-A8C_qvLPPip0xuOETcbBWl8dlXsX4Ylq8Ielvizk4SUzd6AJbS-tod96dgg-HeR-iNoMHikBrMpSQcq9iUblNohClEU5gmjlBOYq17NAmIq9L_fkmTo_6EcHv6kTTb4_0jkCvPqfBN8fZfLEmNPo-brPB99ajJEXYk857ZQXHlJUyAtHHJgRqA-a6SQPY</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d150000da6f0e21_0%7C1cb20b774d1a000034d93bac_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=GS4Og5mmczPmKL_JtdW3pXJWEOqsByYuoWmXdhpwB4-1QVDM8rE9VE1BAiEEVrqw3rw7n6qTVTy0bQmrhOqYyi7r1G3a_rutueOSg0McFqhP6g9ekBzOr2GoM_LSPBp_63g3N0rA9pNiXu574tdNh0xiqZpcHoPN06LPn-ygWgE70gnt6mS4MJiGjWHNHvp0ptx4M4yxndPr6p2lglqan7CFINcnBApTUDi5bODCyOu4UD-WxSB-1BKUKdjCF2tOzxSQ1hsaOQDObVV2p249jGbG1LrGoXUhKr0q1sLBzdCpRWM1OviqBUSSm76j-evLU-E4NHbdQP_9JpJ29RlB9L1pxX-oFBdxc3XSrSiJD2vKuXtv7MD1or_yKzWwnoUbALYpDLx2jkkRT484xmPi2P2rCvLlpUMLeydAVrgNol6HknOGfv6-bIsh0f-Iv6ai9dNWNpNLWTFN_eDo0JlO8OMvB3xTJlmUHIYUPDL3naPtRmwzRWvNJ5JdcQf1tyRq-abFABSKSAtQf0lBS1p5kSHxU8VOyw-TzfiLkY5l7ZoM9SJarGx3_EkLeWpws5UCF</t>
         </is>
       </c>
     </row>
@@ -3331,30 +3331,30 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>EUR: 31</t>
+          <t>EUR: 71</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2024-01-20T06:00:00</t>
+          <t>2023-12-09T07:15:00</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2024-01-25T17:50:00</t>
+          <t>2023-12-16T18:25:00</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d1e00007f2ba7ab_0%7C091e0b774d230000bb00dd14_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GXQfj4RcqYP0ZsYHuNZ10-gV3zWcLu3g2vnjRtjYifwNSyfCPzS9CB5q-iKleMZgRrHRyt0X3uViUBXYykfMV_8n2qmm0_D_kspwkgVwXKeOOTcHpUpx1MaZlznX2pSz9fq0rFbYAAmt1AV28UOMr7gQE6BlP-3743vfsRc7bk6MeGIvk7cEEz6bJXu-nP7qVMqlz37Hh_fC6WGyX4YIkaNruEd7EPMKahmY5RtY5a68E_WG5H0zmdkKvo1-5gpfFFWihGkj-dCGYvxKx1aCqL7cS6l3xlyizU7DZxEIqhSZWTq0lgWwoev3ctiuEATsbkDNgVmzVD6IVqdePvULJpwUdmNx25nClpUfUObYtYzvrxO17tCUs6FUWySfGEgakutJf_K0tDk5HydyJxKAYHvOfynhpNGCaUUkzCEICc_DSrrwB2dvGzht-OSAfoZZkrNvXAfXuUl4QWsMGJPNNVfRgXC4ixC24YttQ97N3i5V96vRcNS2KadqO44i8b0FdeKrqcORhwd6bRoklhVVLFqIiyr75tj_DN1HO64h2aNWxzXev69P0NItr0u4d0Z1iHvqRJ5lkI4JGetpNnAgJSg==</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24cf40000e3a17d8d_0%7C1cb20b774cfb0000d016e3d3_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=GnWzaEyPx14G9vP4dE-JGKdSSshtCV6OIo0B3SITnhjodu9TCdyP2daml6xaYCdiSOQlpoqY8BxV5E27X8NoelBW2IeZ1TVSRjzrAkbLrzwvLr5ZznvxXxKEJZmUkT4-CP5Vj4qQL6rjC39gNKDCdunfdWRa9BwwhfRy_ZKtOT_2FD20D44a-5giKEZHtLc42Ek_2dONku-31QVAH92zpL1bv-3ZpPh1wA-06Fd2Juv8qnBGy7dhoaMvJZHrNHWeqM2fH03618tR_Wr5HFrHeZYAvnk9unDLX6ceYx-wXvl-NtGvoFdxcZwRIeqvzM4YO7rzxs-SBGWusEfaWDdw1eLnmpNLigYGrv0ZZ_scSgDKuoyitWu2ygRwXtA8ksjkd0_9qFzrfEHndhsu22EdQQd0opdU7ObwETTr-IZop_Z7pwDtepQlhp3-rmCUt2I4gVTJU0yvLwMnf3PrkNzxf0mU4S9dB4htxnRbdmRsWKGrMC3pzprh9Cg-zSVJfCJwEhLSGyLP9CojzC8_w4SN9aOC4FTm66M4Ko_uJZ9PmTug=</t>
         </is>
       </c>
     </row>
@@ -3369,22 +3369,22 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>EUR: 31</t>
+          <t>EUR: 71</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2024-02-13T06:00:00</t>
+          <t>2024-01-31T10:05:00</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2024-02-20T17:45:00</t>
+          <t>2024-02-07T17:35:00</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d3600004246e611_0%7C091e0b774d3d0000b8accd86_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=Gb3ZnsnCRO6jYMHE2621y3SlknPqhuINo8vN7LJlzmYfiwtLeisUXEmnHIkP_Nw5za7HzR3fyirLBsQbADpurZqCTO0gmVw8UQ7YBjWkRnXjNk-aH7ZCrD5cOc9OYIDQW_GBTI9tugensBdh38ud8Wgx_2ABvi6LizA71xj1WEPj_YrP4RS4OzOLFZ0DXrdGZwZWiKG97fYpK2IMTbttHXaNbhg9Hljc8UEhvXYGYmGQ_AuVHhbPDwtfGXuv0T3SrQMqFdpILK7xyUqCXJHQmM0B-2SIm7qF0gmLETOZD5Ckolh09QH9iSG_AMUdzvySfoWAJYZnZOz0lgvfqyS7z5kcgqvsIkK6zH3U2PCzLgmIOFJAAyNOb5dcmAEadYs8AyPeFn8vA76CcnJgC9JeMz0Ocgqa9v1nUD0Ua50fRWH7-K-oYOKch9zweTzU8F7Q0DRZTOk_VKp2-cdgaMcH35PGkHRi2ndf_5jN3yLkE_wFar9xmCMxeBsxI9Wdgbb0dv1genYTt5HY-avr6kf9o3fJS2QIV5S0kjJ1qoul_pTmJQSbyaxidKUFf77GceiXS</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b770a7c4d290000caeef78d_0%7C1cb20b774d3000003f281047_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=ORY&amp;booking_token=GkUZQGdKa1M32xV-ImxMMSEs0NZWngNvlXpiPfIKZsRt-HKYu3V3nt79rRM7WJ8Mpx10I9D7YxYXapR0scM1Ktv3fQ7_Xxjc__eSrgZBtvUWG6PqtbTJs9Xfj7cI5mgOwxjlx49uV2yTCSEQk2y19x348GwMcVfvAA6nYNJ_wDcDuA1MuvJaAQTkUzcYu0kmdaB7iaGb7PBdhKnMOsoSAd-fZ040HirKewAy_F1pbQZAVUp6ajlx0s_nRUFze26CcQrggwvNA00RxwYmHYwgFcobDfL9pVOY2OIkioCl32PJZ44R0SXlY-ZceSzdY_GVDlTg0eSYnTyPi0HSd916yEWaP0CW-FU3-60sQnQBKN3DsLhRGVsW5Oy7q8LQF5mo_9d-5vRBe3bRY0thp5Elf6wKOhOxxiC8plTphO3-edA5-octbg_1tY-G4p1BatG_rnU6GUU3Tv-v2ibLthLwDxzkFSBLUCD2hAUWmb77n1COPPiaAAVxiPV8wwOtyceLHgWTxmmZeqYTUiJ7i-f_hXH4MzrMBKvXjM6tLugwWX1g=</t>
         </is>
       </c>
     </row>
@@ -3407,30 +3407,30 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>EUR: 31</t>
+          <t>EUR: 71</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2024-01-27T06:00:00</t>
+          <t>2024-02-15T10:05:00</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2024-01-31T20:40:00</t>
+          <t>2024-02-21T17:35:00</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d250000c071e108_0%7C091e0b774d29000027c8d6f6_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GOmTm7czA-Z8QI0TdgV6TNgGSNjIIMVgn_rnOQkJkwqATWqX_siITgEYWVZoz5ZTcr5VWrG8uBmSEj3dB5zYPd0Q7_tpFSvLAUE3H60Jf4XA2WZ0AikU7YxJSBVG21-dEBamFGkatkmdmtB_JKYujDmAm7nCx6-qZZUdBAuPAP2HHUF0NSueBXt3GmgKMCmAPWA7RXTmbYuSGuyPsArQmiJI_cr-Wx0qEM-inmmczTfJ4-aqYghUsfaEH92Zt-iwgC3cr7HTiAuz7fb2iPVaC1BdOPwFqVfYE3C5MRUA1UeBHj3vvCOtLh3U7_A5KbrrBTKP6MVmbwA_ki45JxFYk2GRN45W-R3Y22voKytUpm5zFYfpRXyLJxC8fhAGF1N5ivZMtXDyH8T39TlGq84F557Z38Eio7YVNr2-3zWR1IeLcpCPFdM3ngFowSQBkF9r0hVL9v98EieQ2ac86aSsSUsypNFsBANqxp2xOMH0uD7DGAgfUcCKZQTxQm2QVqZHdwFEbb2fkhHQrjnt74pkxbdN2t8bTCkj0DRZW3CBvgGffW20jZCLTYX1D_qUy-W5jyrjf586evaxMXyeN_VamRj5viaTMe4hJbnZ0VdQx-pA=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b770a7c4d3800002487bc30_0%7C1cb20b774d3e0000e8c54a05_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=ORY&amp;booking_token=GsTXstQUIszhCw0OoNXxFUtBqTaqDmiDqMwJAbRmcHLGvw4zHnJrFuoa55Knr6OOijmlYJQ7AqkCZQqnkbmfPUC4YjQN_VhpK7OMYfJK8eKEOXLo4EfoSwclGUscwr8FcWQq0ttxVmcgcGPkDg5Di6FzcUHYc8P1CoWjGe0auxFTo2Id2J9_142r75m5yvxxiwEF9aq7FHOUi9rCeK4LGT3vuIC0Lxgg0PSNz5QzE8Ho4fEotjhUWQiuz85tLBQyVxta-YHkzw-QgbeM9GHYSvQaBONj8ugPe-Rr2qOM_gRNnHmt0fqPKH7W9mLHTGgiejIPWSd0UxkwXcFyDZDDp3YiBoCJg0abN0KnzpANuX8hdFR4fsmIa5KqXFDV4z3Sm-K9dSDv4ziLqlsQeHpoIB8e3sB-mcTuPRUhp-xNnJw1WHA8yEnfypm7UXj6wSnqdqX7j_kiLgHJpcdRI4t2Zoa6LZ6Rr2t2XvN0WGF_d1SwZkpoyOlc09s0vf7_6gagweB4RYah-QDxgZFlkCErRRZvRlRcf3TOpfyUZaDq7NXd8qKCOZ581sr3dp_qBpifg</t>
         </is>
       </c>
     </row>
@@ -3445,30 +3445,30 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>EUR: 31</t>
+          <t>EUR: 71</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2024-01-13T06:00:00</t>
+          <t>2024-02-14T10:05:00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2024-01-16T17:45:00</t>
+          <t>2024-02-20T09:00:00</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d170000a24f8549_0%7C091e0b774d1a0000ac977017_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GZoTpSzCECZe78LzuBfCAK4hix10HCSnpFMRhR7GsITtI1eaJQG-24czaYwr0STrsWBk3K2f1ch2uFzn5xxHGduRAQinUQH5X0FLI5_5kLPwbv0wsUsr3kGEFBg-W4pJ4Gh-Nia_HmjrVYU7dNXrJTpFmhK1ZPDhUfGAIrkBXIF7gV9lkZQOUMcTbJCp3ElN8BM9xT5MsR3XgZ0B074PXlJGUw_O-Q7ozI6zdA8QkySztmValIMLch6j3cm0QOhNBwUrm0uYAeTVnoACe4BfU6bdUSiHVCHUvvQ745tN8639BMwwv4cljBoHvCw-As9JaQa7WFgwHxYPUjMwIakVioZREtUKT5xUlO-tGuTK1RqAzdoW9OpsbcI3uN5rprp_kQb94nu_kicudjUdbEmPWcedxVenJbNCXS4pS6BdYjrUt4rKM8pSLrk7COtm2zNxw4N6920mOyNHUdQD56tK_vLlqfUc0YtlcFk6hkOI9HuLPVBvQlXIdyhMNnqFASGpsg4qQ4H-nQh84KMMeb1oX-LUmyT_QbpHNK9yaFY4OxTOZfXmZTEO1rOWvekx8NBJS</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b770a7c4d3700006eb1236c_0%7C1cb20b774d3d0000e9535bfd_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=ORY&amp;booking_token=GymLaUGxzcQTfwjpRVKCcNwEPvi3hSq6faxbisSM7QnrddmhOe1lwukz1GS2XFqBV_32LQSqg5bw58PIO4yi2eZ7vBD_rdYOQo7S4kUbFewVCGlLedYG_V-ULB92hA8-9wEvQc4ps0zDPtvfReb2TrESpyFpN5SFn47MmZQqcRDO84Z8Owt6w62DA37W7wY_hWuBAC_APKrwY5XPRC954P5CRXO0Nt5yPAzPgI21TZuMJ_eqd1ED87BjyEc8h8CmpbvSI_xOEL4sjFq6L7rp-wiN_xXIeS6GOyWK1aWQ9EtSP9tju4WnbAc5KVgj0VYG1vx7cYWau9HGFL5KSKdngn6NVi7LWfKnSmdkKoZleVG4p7tpAfwKyK8-96_URJTZsFuDTCwzWikZzCo1U3aL4Q5Djan3iqNSUiMu1O09m7QEsAfg-dv2oVUN_iHn_SuceTuZ-zvPpW4KFXeGDordlQS2SseAyLmUCEaCfW37ym14mMI9Ji_-MYbKtXXjX4BQkhEM24dNh-ES_0QllQWc50C7gsv0aKbQd9m3vWkNVfwAFeTvrBZwR2VqkUlffu_GhDBCpthWPowl1wVLeQ0j_77SIwmMujkrLbh6HU08-MFU=</t>
         </is>
       </c>
     </row>
@@ -3483,30 +3483,30 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>EUR: 31</t>
+          <t>EUR: 72</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2024-01-18T06:00:00</t>
+          <t>2024-01-23T06:15:00</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2024-01-25T17:50:00</t>
+          <t>2024-01-27T10:00:00</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d1c0000d757654e_0%7C091e0b774d230000bb00dd14_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GILQ351XPFScwaBxYymeKo-cy5-DBrQzyXPweofiJI1T8V6ZmZScO0iN8P63yCEQLr8N3o28qq6f_C_QrIEeTS1mgqUacI7r3tvNuetZv_gRmKQEeJcqBFqw3GKE49gwcI6iNb0gX9IdrAT0Z6EefkXAECYnlEwp1CNl767lwF7WAfakXjTQdWlhF1_F4mVVDTSSiQlfbM2B8guA2NR3scWnos7zpGUPmxyRINncD1T1Lw-1IWff1_Igj9aEPwmBnZhnOk3BihdTDbqvY8R-Nmonn6_Ujd22SqoAT4kHIYQkBa0gpu8XBKRimf6QqcSxZw3BSLxWNC13oAuNw67NRhkGLnA0a5vCQD_Qu-mogNk29U2H8On71z-ITdaBVcvNmuXGmWa4Qb5nWwjeAuct6atYXzJhgGkxm-OmPC7mF7UMb8ZxTbpOkrqthX2cvJYIxmC_K-TpOKp9ULnlUbCqjiv3gpGfr2KeqEX8_xK8PUewOa2O6M3otff9cPwoQBgsqHX-uGWhv8SMLIxNXmMbPcXusxKfcjFqLPCESKukqdyw=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d2100004965382c_0%7C1cb20b774d25000025d1fcdf_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=GoTar2xlQIlvaGLZEv7LaBtYgDVDeedVfHFSbW4ZrhYUzHSMrJGnbor7x0MJ0xxXSb731z4mLXEVT_UowemO1C1ruqYVqCS1uMt-iu9z6oDlljCJv23B30gylVqP6OC3n_2t3fQxtFOoVEIuhOvJUBIilDEkS6kxzbfW328gKq-F-lMzoFwjkSF-WlioXZZkUntTOM3KVcYh4r1OUTXyVd90lFDbanS0G-yxwZqaB5Zctx8EB5kmEgg_K7QJCy5D3rJQraPNh3__FnI0FJKyLx-L3n23fuV6pv6xDlDcPIcRcrkztiJgNkTzahIwgn6412v81-JrsDP3tfH68KqJnA9XF83PcdK4N1RB8MSUPSXWmo3AQp_GC3-VqkWPAYBGoJIZ3jIUySXN7lGj_G3g9SpwcnIs2z5gZSeCkR5IlnSbyv6PFckDx4xZD21tg194LDioZBBGIwkMagFw090c8zOEANckhDN2U-G7xzrKAXhdYMfUA2hvh3twwpfMQMGmZ_otUxuxbZUVVXBIyW3qb8FEy4YO4Iokq41qMSfs4iIB56p4wAjH8oOZ8ly_A3rry</t>
         </is>
       </c>
     </row>
@@ -3521,22 +3521,22 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>EUR: 31</t>
+          <t>EUR: 72</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2024-01-15T06:00:00</t>
+          <t>2024-02-22T05:55:00</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2024-01-22T06:45:00</t>
+          <t>2024-02-29T08:45:00</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d1900002462cb02_0%7C091e0b774d2000003746afc7_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GTE6Auf-CU585Zwnx5YCqBlD_EtAGRjA7eSaPL9s-PNiURNVT-48jlOwuzxqV190I973I9OK22M22XP-HSA6kEzGV2Xk-TkW45uRUH7NKOUCAYoK3L0vs5LcVG3S8X4qyMNlM_SlE-neWNqPczHYWkebhDUC69b-fmKC_1u3Otp59aedmsLnLsQkp_UAJOz9iUzfI2RVs2IoACYbpyL8u-POF1djk1Bvq4zxu5hzeedAn8hTh5TXw2EisCW7gZlqaOuUyG1C0UZebo-5b8bWEJhrtn2QVXKcDXlefLE2_Lg3ZTk8UpVyHj8olyKAeNwlCb6REelnRd4NdT3162oOXfUIgkn9S9TWs0edFlKs313BljqILUiikodSip91myJFLC_tTw9Ncx1LlusqNXQYGvFKcor-K7bUQv8p48tEdeCNVlygJ8GZWrPFJRtLIfey8QISnzglxJAYfb7iycJipOlhx33CbpzrK6rf2HHkX8jv_745BCYD9oi_86_HlQ3QQrG9WkUkhJNK2Rhjdz0vG7u97otanD4KLw6FIS8ogLsQtLIkhOtnOKf6bgb3_gPlD</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d3f00006608091d_0%7C1cb20b774d4600009c1ebeed_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=GgTncckTtvJPT8kTJ5nmj-Dsk9_fzDuhAFDdaekzjfvQboMz2wOKyzY4KU4DLeXhG0vpvyukREfNAqLvi781zs_4ncaLC9JbrV26EKETsvV3h1pHtqpBY7wx1mtdoxfoZLHt828lNkgr2v3MtQaKdT_PHVr2_sG0ElDHzMNpvpLsQqN2OjVnuurajnoY1DDz772Yv0d1hKHAoIGZC9sgedmbotiwS2gl3zx4nBXMMHT2Igs8fBUezFwrKJpwLfSdt2iUoC94EJ_DThzqVqPeZSH2zzhij0-FZUT9YhIgu-ARTsc1XvVhuuupQ8OhqU87X9Y4KaoKlIp83vRgsH_SnI3i2h_gZdfNZT5YLxdkngn2q-VlzEX0e06dW3dHouWZSEKS42PlaXKVyg1-s1CrGeRMHwOOaX-gtYk_alSH0usAk5U-3ZRzW1y4Jrg-wO7AHZBM6gUX4BNdyjmUnvfGjPy6yRR_FtAUi0P1NgVudAkt-CKVRE-KkO9_YiMGoAIqW4d97oxu5vkRs_2lq7yyikx5NK2hkdZiVJeV3vFBo3-s=</t>
         </is>
       </c>
     </row>
@@ -3559,30 +3559,30 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>EUR: 97</t>
+          <t>EUR: 72</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2024-01-23T20:10:00</t>
+          <t>2024-01-17T10:05:00</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2024-01-28T15:10:00</t>
+          <t>2024-01-24T17:35:00</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d2100009e28760f_0%7C1f2b0b774d2600003d54bd03_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GVFkcA9-co7dl8Tg6jQVe-dKHdG4rR8d0Qj606VYqAAIxv9qw95zmad37L2GDKu4rPzrBykDEwQIFhOVixuTrWz30b4k0D2x5_lfhmZKIL0qYx6OpODQ1dpTPiHnVPrlWxBpks29avlBam3kiSkbWXPrc5dMKuhVhpW8IBli9srjcXAmELgNzHwx2szYvJYXgMONZqNXGonS-w2kxfZ66gfZjNrqrDBcG0ScdPKLnknDJ55MjGAvvjJGJF_nBNr87jv5vcxICC63wtPGrbHLcNGA09GzAYimBEPz6zhiF82XlUkpGZSWqLkh43eQkJy9IFTsTsVLRsIP8XJevkwwvjTYFxOVKt3tMLqRNRe_i4EcD9zNQ5Hy1Y-GLfRIVxjNt3EAn_qBFPQHtmaVf2yIW6S3SgpjFbgOnjpGOKst3v0lvlEVFNYHaCjCNaADW3-N5R87KqZ4eHDwhabme11grSPIS3icoRwF_qsaMalPvmRPB-qZMh5z-CB2uioulspeQ1u9D3ih79gmy--22oOFA_VoSPpG8ShKbRImfn3Q0rQFyHegXIUs9Gzt9pz9DfH99IHW0mYR4MKQp3z1yYUk3Vg==</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b770a7c4d1b00008e94f978_0%7C1cb20b774d220000939c5010_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=ORY&amp;booking_token=G1oT-1YguhsEA-XKWYIQd9GdbjMH0dBFWNv4ChpZcrTH08F6v9uTV_ENuoRwxi_gtVK2GQaMS46O2U7CNazUsYd8FV5cGlFZAYSvvU2cRvfCC02IzXuERy2EpGvL_b5DWpwFNVx4NT3Suye31gvwyC3dvaNaXNMsfHBT5_CAnmAHinLMubgmHzUO0heoEbJx9jd4-ZpvFGLebuAH_kNgwOU2ldjOBcpqNjuAkFjXKdFZzqe7sR7f4Z_aZ3I91lPtJuk7U78OazKBgFaYBVjv877Iq7Uc9uZKr20-XVR7HMoY6QcSmisNyUIDekpA4fy3J0XPB2R3yhDevvVKDpyJVcColLlFmqpm8dUCyXbTO6IzlKyrYhoKxxwB5xlJwIZiJI1rCds0q9413R_PLFUthwQszPl_6irvPeNUN607tq6cTY5BgVFmWtmXOmrPhNvP3JtClYkiX48lX2wPm9YSbHqNMX1CA4nLYRG0SwDzZonTVVFyBORqAS6qPUVWZIYbJZUpfelDFXrIZmSJikTd8xlqywfPXeZgqnw-psti_PTH7DFoCpxdRY3ZTFzFQF13v</t>
         </is>
       </c>
     </row>
@@ -3597,30 +3597,30 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>EUR: 97</t>
+          <t>EUR: 72</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2024-01-18T20:15:00</t>
+          <t>2024-01-18T10:05:00</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2024-01-21T15:10:00</t>
+          <t>2024-01-24T17:35:00</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d1c000060c3f022_0%7C1f2b0b774d1f0000278f600a_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=G-TSIIFftn-1g0Lf_z6ipUmWqnoVTzwzvp8qu2ejbCJv0w_adsxtN-mt_ZMaehzTPbsPBjm22Ko-NXUARhDW3ZpiFFeBTd5_otpBrnMQxgRR_w63A-NdIJjvhnHi-mX6_S7RbAiPYJeYnxDEgLmIj1BxqnTS1VMkEGb1qDdEFj_ekKeWfC-jxvcvw9uCchSWBbqBeK3JKX4xuS2nHlBCh7KMazHnwIUAzhUwa16ROaW9r-Ert-3BA9uAvD63Cy9vwVdtervP6xPH3XTgYzmlFABxH_Xg2Hnee5j1uHPoaSeH3xGQITwbt-ZDjkJCu7MTObDxrXK_9yy04zXrsQ45n5wqr2IVT2ilOfLlz_PKwBcXLyObKdNhJKr79T9swQxuQqYZXK2t2Om5OR5xj58x9bK8FB-asNAvtm8K-FZAYAusDMQe0ihpYdpbZTQoOzlCh1wTbYf4F-UyvMre6-h8TvIoJh2NZd_Nl-kg4Vz44HvBeIAFLGC3pV9wzG99Zmklh1IhSb4fj5-DyoQ9Kquq-vltB7BQ6TuZUnWkB7U2cjXL3ma55N6C2ga98K5aEqD1p</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b770a7c4d1c0000b410fb97_0%7C1cb20b774d220000939c5010_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=ORY&amp;booking_token=G9wJhI1S1WYuRQZoE0CeLB6_EunQ35mFeclfhOwZo4Xa-PLpr4D8tFL6ZuwIJPmvKy0u1SZBt5QdQ1AFGNQYvMlQ_HeQknlqZ8oaSbQDEQ-xFtDMA7tiRGBZz17U0h-JG2kwDqxDV5cR10EPJvQiWEcjUyiFX-AL7gqByt0dXx3ESQkt388QrvCY6WBpNMwxDXuWyo0kAbbIgJbVXoNKNzBZXCGOSS73uvDrHEc6fzJbf3-Iof3XTSqSmIQlW8FKSzQX3OkZGFHABF5NxEbz22HrHGoIb16lM7Zz_hlN5cchyf2B_bsCokucxi3xJhbrDY6i7ccaU5wRYjULeDRzrL8dY8j5-sBzczG-uLn6xgCtF4PtlKoaJxL9Xvho7EJAYtvvYfu0ExLbrGCtIvdo5GeH09OUjWC2Cct6hr6FYVoqaXKghoDot5nKpmZxre4mOWM7g3_j4z1YRqx3URQErFFM2wHlsdrv6kH-8DhOYAF28VFxdwioEbp4sC1mI5Pz2ypoVjULROJ2ljgZYy2WrML8t7-6coHQAtYiBVqs78nrQ5Y9A_5WUHfH5-aDJe3aF</t>
         </is>
       </c>
     </row>
@@ -3635,30 +3635,30 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>EUR: 97</t>
+          <t>EUR: 72</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2024-01-23T20:10:00</t>
+          <t>2024-02-15T10:05:00</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2024-01-25T15:10:00</t>
+          <t>2024-02-21T13:05:00</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d2100009e28760f_0%7C1f2b0b774d230000960daa8e_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=G8KGdiA6bctrJthOiSNGKx3FxFJQn2yozBqVIKW9-kXvov8QyyVc7iP6VluYHCUat9rf5XUPFumtercHv_H9tyAfpV6dTua9lydKKQ9WOZunRvsba8NW-1pPb5DPLdIOfahedipWlco7dOt2ICvQGQJxvABHXq8UtXxb5W4aAEqQhn5E2-Sve49h93XtmvgADq9SY3olbkvQM_IDRmInN9sDprmchOM9h5baoy9a7uiTFtDJw2WJ349cg6hB-UiiU0GemtzqVPwOpef6kulmE3CgmXmSl5r1-xphQvOvHQExKzi7018DLLJZWms61H575qOt3TFZ79LyX-kbr1YqCYdHkjqUBMQjp5cHysLg_1iLLGcFwZQNjCqoA3nzcpCd_QXOHN4ABKhqNjWYEB1OaM57bsuHmiNX5vj3Wkjc6tKjkISYB2cq6RRIHhE8PK8-kdMmzWbSGKzRQ5OnwzfAZeQ9ukDtYiqIVuYpqgNWDiis-ykRAXwHAb6VmZtBSTGziemkKUHqvEHUVyB59AB7i6RB-LKyrHGR8u56-xhEXealj67APBFhRRr8rSV8uCNyxRBrB6Q5Z5-aHl0QzX53-KQ==</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b770a7c4d3800002487bc30_0%7C0a7c0b774d3e00000b2ebc4f_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=ORY&amp;booking_token=GyZvC66YwEaLa_IqYC_goRiXURcbQOuwt04yY5GsaX4_rwi288-UEIA9QQ2o-fEyR6MrwDwafykCcfrivac7-YXvymc3coCMrGA_sbWkprh-XK3eakEFt8tD0U_pre5LBXV85lbWtiqN46TWvKaZnIyLgVOj0mnXdt_4GUFOrcsW6OQ1mqV04wFcVSB04_0CVNjMR4l0WCVmfiRmFbu-iArac7S3F4I4tLgW1MzjTe4hhwapo4W9fYC6J6PCfgAnj61j8VPhEHdjCM4HH2n2kuVJ7_ulhJgxTsAWglr9tt9OllnGKbatCBNuQetJCuyfoAudkP8sQ_Tulrs2btxuKoyes_K3wLFuFamx_sZr899t9akMLkP4FU1KHxMJQN2DHSWMvlZIS1pjIckzLiLSW2VaNoTzagjgFlKsSAr9sMvCCXldcAG8U7xYcihhejuCYvSgOJM8JS9fDwDpRhtNch6oPLPtAWDX5j3ZhcEc8sJJZ-Byougp2PWp_QV3-bUGnaWocAgquOoySd_JkzocsXXR-b0B7MHcpseozHIvnEMoRdEVTOj7wzAEKdjEsEBFtw6IaAI_lRZApfRJuvqgYoQ==</t>
         </is>
       </c>
     </row>
@@ -3673,30 +3673,30 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>EUR: 97</t>
+          <t>EUR: 79</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2024-01-17T18:10:00</t>
+          <t>2023-12-16T15:40:00</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2024-01-21T15:10:00</t>
+          <t>2023-12-19T21:50:00</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d1b00005d6c7e8c_0%7C1f2b0b774d1f0000278f600a_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=G7QD-o2cFNK6EifeBI4x8HniV2_9tlLehkZsJU0FSKS0NLsC-WkDW48fAKcsmygHoMCiwMmS_YrGgnTU_W8NoAYveJioN_m2iJWwZsXKS-k_0rmlwhRQsww1hC-_F7m4GGO3QnyBVnQLn7PyXwBKJPlp__BnkCdLJMqA3LcJvv7c5OvJEmRHrCsZMs0VO3CswvXeughxmXfPvg5DUHjqtpV-nX7mND1jJx8G7CFJKpGMPOSR8IEuVnST3qRIPfaOZlIU0d9E3E7QqR_PFxZMpUFL6FB2l_bQl3mjzJfA_XjB_fozgL4B6OSwVzu3nMpZ1uPgNfLcYst6uARwcCX9AzMYSLB9H69PjCTBuxVs_1t2kiTmab3xH-zqdo_v-hLWwL1MXY2oPs_dXwFyA91fCmmVysMYNz8hbgOxzv4JMDjbGv9V8LSzSAbV_NU7EGdWM9HuU6kvhDzJ5P1AQSo6SO4eH-ElzvZU9hloCDuBARkvpx59jDrY_aiUq8hIzcTSbGx-XDrcjAdPsmOdN5RVJIDgRWZaFab8oqJtTyXp8_7avEFkuBiFOXnBb2eCauuPHvJVesi0oCjY5cUISNOlS9A==</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24cfb00007f0db503_0%7C1cb20b774cfe00008a37ec2e_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=Gredf5-HPuoExK7SrXITT4H8FadtdqHf4T-HL77e7FqRFzMQHjFnUPgEayBmm_yVY8XviqL7VAZL77aYDyAZaYjHQzRNsECboMMJVB8d5cS_tqZGODATUbjXkdeWSp6vEj9-VNT4TkfIJ5cgVs_8Sh3b4f-E3TdW_jrDt6beCOxZV8bVokhhKpT5eoxKaQczqlKQoijWoDUqoYEAlt4i3fr6bHFJQnFUUX3vH0lnJFzL9wuF6qtEGd51yPTZeuEbsmjGGefE2LtngXyv_N6Of5i7tjUPOZPLdYcfhuCjruqvHLWhe_mO4Mz-afLUos4VAp0enM5jDqH4Hh5h5PuMhPD9KyphUXRh2B9FXNJCWmGkub5xXDWLllcCeja007VLNjX6VHvk3pKF2ULGekuKILwby_9Nd2xj08CpzDoj3WmWOMKU4i62HEpAaoWZRpn1O0mMSTaGBcxLgYFGgEpKn0kTmox7zTaf4BjBm27JiZsUlOKc99YTh1Ewx0YLIOfM7x1LEv3xBZ_3QmfrV940_8eLyswa_-Z_3u5woK5smx2IDVhCvVBdW5wUaQBPXvmwb</t>
         </is>
       </c>
     </row>
@@ -3711,30 +3711,30 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>EUR: 110</t>
+          <t>EUR: 79</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2024-01-29T09:10:00</t>
+          <t>2023-12-13T14:50:00</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2024-02-05T15:10:00</t>
+          <t>2023-12-19T21:50:00</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d2700005a740122_0%7C1f2b0b774d2e0000bf63ba1a_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GJxDTG4iNQPq7aW-7Cf1T9nf-ee24pri4kqeLJaRk_-CjdWgBiLdD2wdT7eKubovxElwSgeTukCYFfKoxdFaqIQsKZP6Q89s7xlX-dVwbAFUBCSZe4IZT4XuywzguuYTUGTE3aYzMqDihb4EHfuIYXz-VGEDG8WdFpaGy1hq8o2D9kURb_1WCBSvkp-7GN2Eu0KH5lueBnyJx-NKKxA_zqFCPUquz97QdGuD9uU2cRexrn0x97q-VSJ8IaliPbIoDu5qsSA4FjEak2-r4tGiBbpzapHR4jWqOyXg-bVt6SS8Kt_IZxsXC5vjaDWw34bXcKVn53l3sWSCLlqn_tAG4CWEnIxb8O7FXJO5uaNEvgE8-MP_T-GvO_26_LncN7DDAs43wSgDJMHBogOuBIbvHiBlLRwzGx2cYm0o22v-B5QOBQlBLPLzYmIm5vRCjvJs--6Kn6_aAzbNKbft1PwqhIraRNXxONPCJeQUuh_XVM7WHrM8WjklscSaiz9KzaC-DUPKZz9DKU_OSdjEUEnYwU1F2StwB2rswviqlOIv333gZvPUtsSsrfLD4hWtQmWXHzhl0-Qn2KnwYVfEyDSGHiA==</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24cf80000c8a2d20e_0%7C1cb20b774cfe00008a37ec2e_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=G2a2V8Qk-5ILEPMjmFQeNxbRIPm8KR8FDvu3yjeoVyn0crwYqJUmf0KSIhUi9Io5h1VlXzKO63tQyvyLi0Ado9Y-zzpdHVAFV0uxOuDVZJVSVOx7Jhi-SXfDzdI0X5g5UwJPkwiLrf2-hTc6qc2mkBF6hnnfkO3Iggvmm_aCC7l7iaD71EwAJZeFMaN1UDbqSi-qbEFkDRZW63tzxWl6fdfn8HCRtm3Wvvw9h1Ov7BaYANB60CQT1yteDdg9q9Vfj9issAiyttsiayRlSZ7W5qaQCGtXdhZa9kvPhwK3usaXtzM5HSlamxelcbknj-PUb53qvZ3t78mzOx8dUqE0twuyIMFjQzs-KR6Qhu3IiF-KCHl-jxNamJpZSxPzY7PD5D2OTcOLDYpcTS2C2v8AG5bGSkipSIGynJPEUXVCNoodKAmhsRCrUNpxlXWOWMbrNdziDjpdlQDhTVEgLMOxsxogOLqZlS_OCs5U0csCP56xwNCbsvLpqsPZy6apxT5g_BFKEqiX-5Z9t1kMDFw1aeHdp2JYVjDWC0ef6k3TvZ9mv34tn0c6ZlbX5BHdKR97R</t>
         </is>
       </c>
     </row>
@@ -3749,30 +3749,30 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>EUR: 110</t>
+          <t>EUR: 83</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2024-01-29T09:10:00</t>
+          <t>2023-12-14T05:55:00</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2024-02-04T15:10:00</t>
+          <t>2023-12-19T21:50:00</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d2700005a740122_0%7C1f2b0b774d2d00009821c857_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GPXdQqHG95so15pxab_7ygnrkOGRuRC1f1CaQWZEVWQakLHItbc0KqpK_KVws5XtFcey3SA9nyQUZmEu8cQ4lU3Fad_AcxVgjzJdjhRgV3eZV422p8TB4xvjWxoorSwX3nq1jTvsFJTQRIlCVhQs3Tz0X0eCY3pCa-zafadpdE5JWS4JVKtvXy4D2Vq2X18Gley9NI-qauSfWhoUpOa3HShD2SgA2Q0Y8xFzv2qhFtPVVBdvERWwHq3JPhLACQ1sZxOUNUOozpXSyTaZYQk4uasBv_961Tb-oOGDluDJd8BkZ7AdilygJOVQtXmHNI2Inzgk9MUGq3-mqbJd8uj-ko4jMM_Hs8koEffceDHpdaERy_uVl1OipA6F7pHo_0gDRA4QlAWbnFvFtDbip8AVU1nzQ80jVGGOJ9uULSw0z2qrA8PM_N1qCL1RK5-IkoakfBsiQq9Xr6BmdH_J-XbPrAmArW27S05moeiTzDsP-JNJ4C4qgxTIeAGP1lR0o45AifWRSgAXu0Ib98YfztrXuZwTH-6d577Dy2siuF7kWJEToygMQzGTQco0Ffz5TCc4p</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24cf900004015d283_0%7C1cb20b774cfe00008a37ec2e_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=GOaJ-7n5VOgnOg63ynBCzetsAu7A1YVYqsfkoEHY4-2DU1VDYtLm6WuNEOVVtDe6xqzEMcIQAP_qh97yjcZ9CCtBE6K-No8xeTufRBRsdsHRazRR2m7s5_RFts058zFgQHy36Z9dPC7I9Eo-kHzhtcDoUHCvXqqLvjjfhRYjjfnlqZmrzUsHzc8wP3BSadUsxAxl6qjPO-Dinw7Vn7cPoPVO9R8LpLFiaCVPQPLOeDgzpChgSJGfMt5dx3u78axSSRpzebyT6g-NxavcfkMEG4hPuYmxJCvfqYaWWXasEKLDb3OjdUPoNmcwrA--nMum0h6GueCwJG6CmNBSXslJzOasrwhmhgbp9ZxCLIHUNCL7HFu9iYMMHdYrT-PyUouuBO7gD8m5OPyzg2m_IWf_6GYKxkHEb4AU1eZG2D449GR75BVnVBgAMX1jLbjFXCgX2EXU7eAddKdoESGnUPB8X8U107NEbu9Hj4QKjwAWJJ7-p3VuhrlLL-pImfewnMynTPh-B64FK42eC9ojUGOnJw8ucAnnNwb2pIh8NENuqGsxAwifGalLCARADM-8GTjNa</t>
         </is>
       </c>
     </row>
@@ -3787,30 +3787,30 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>EUR: 110</t>
+          <t>EUR: 84</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2024-01-25T20:15:00</t>
+          <t>2023-12-16T07:15:00</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2024-02-01T15:10:00</t>
+          <t>2023-12-19T21:50:00</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d230000535ea463_0%7C1f2b0b774d2a000021a537b0_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GDEVEpPM2w0sinQeR12t5s7BFju8smaUXSrvUxOtWf5uIU3VgTcdtTPPrzaEXQz3vX26v2q1A1iAE8k0lWCoZKMbwgFXfZmkBKmG4GP9dwvT1hZbEMOG3DHTCRd_xKy6eclgJryRt2Gi09voYMYR9uhvDQiPj3YNtFm8k6J3k7ut2c0tnUk7Uq535AAxVPN8-GEyGNp5eq-bPLQxYqzl4ue85EM1GwTZ_wwW9spwgHC4OXrMo9QhTXCrJDWgE45-PuZ2PIYveoxDb7xqIf8s03tKRy386kJuSAUN0W99X5OrDQ08IP-UmPYp56xwzZW0wXwzsgLcIKGxpB9C5-0WVbumXuiPXw0pQNwjIHczDnMFwAHWo0E3U9uKh_hNJ-8hdQ0WbNxmM68i6i0rmSHVzbcWvbfY4BB_1-tufJlCdw2iNo0KKyiASX2T0rNBwK5rFBniQvl9xtUGrQ4NmS5cMoI_VUpQlW9uOPV2OghMgAqnIZKTvFx_lz-GM2hb0IaP8649DYpG8pBTOuqKa38V-OTwmXErnFPYClIwzaoF46Ix3zbZ6gurICtMPrkR44si7</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24cfb0000851dfd77_0%7C1cb20b774cfe00008a37ec2e_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=GfBlJ5Bo7pUrzIwKyt30lGNGxtMjbg1EAv7VbyLwwYP_eiKT1Qz4u1-xpnZ4kjP6R4d_t72OGQqx_51SLjCZg1o42JwsDlvDDuE2ATU6ucrNkptXN6HCkcJl9WMLrX5eNG7dWuWhliGc-50rT2v0YkA2bxauzZAhBDZuiJTmeJIdD9mCL1rUZOJjMi9qkwsffT2MN6W8Yd6BE-o41ioOoIMdLLgX-4NAXrDgDqtEmPR--jBjRp_rjruORLLHKRYtwVW-q59nQJuoOjiOOW9YLCqHIsv3JFVWUomw0cuPEaFRcCPh2Q_qbnY4va6KGU63HwQKwubARWGvJoSG63A2o2rYZtkOojpW9B8xGO1cnSIt8ElqTfK1LqQ_FXB-dYbxaaKTEF_0jY69MUOtcLMqdVqjRyJSrpak90iA_wUnNV8oQqemtmQw1KZH_8MsxA8qEWUyeTthsZjrkrFCH4KlG9Ld7PLn0U8qAFy1DtEhum6nlDqj_lv3rtvqVukf0r8uHhZivcw0vqU5ooU33HIiTJAmoZwfxgkgzLzGa-MqcmNg=</t>
         </is>
       </c>
     </row>
@@ -3825,30 +3825,30 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>EUR: 110</t>
+          <t>EUR: 156</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2024-01-29T09:10:00</t>
+          <t>2024-01-17T08:50:00</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2024-02-01T15:10:00</t>
+          <t>2024-01-17T17:25:00</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b77091e4d2700005a740122_0%7C1f2b0b774d2a000021a537b0_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CRL&amp;booking_token=GZLCrBYk52iERsZd-ZTy8LndAwWHW1CsW5ESBCLY_UNuoX3Tlx6mKxTox8-kueyvv1T61ZbKoAT1c598B4GxOLDDldLbjeMl4lzmY8S4VdKliLaAiYa3VRshHi4QNSiZbsJKRU6EuFPYG7vHvU_zenn7wKmcMRfDQnyS-3e2Pqn9yWQSd-LmQ0uY-XWfo6VzXxGYSjM2qntXR_iRY3uREnXV7eD54gMoVyB9D70H2VUkIvFDDwn819le6b21XLcCXxU-ijdXsHMCXMEWD-n0FUPvE8-Ee7tzgQdqGlv5gSMsjGX1BoveNFvdlQS03WBGEkopmOIU5AkWvKn4fD6fHOJ5wt8yfGUOWTW2WwXQpnXq5ReCGFC4oWNY-c_S0urDbjwo27Ki_-DHTwNSv708K1_fbTN3mvgoF9cFOPaRK8To5x5u-dHQbmHWMeuhSDC3DkRV5YW9evJNuzkllA3RwMNdipZFSs5_2klefz7cOG88nooJShjFvH-PhP1BVIFFJcvE95-bJiZNrW6f3hP_o1ZyU08SDWpBW0rtON3HwR14W_KNGEPjRo20YYKp7Jqc-</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b7707bb4d1b0000d967240c_0%7C07bb25c34d1b4d20918a5abc_0%7C07bb25c34d1b4d20918a5abc_1%7C07bb0b774d200000392fdbbf_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CDG&amp;booking_token=GBiDlRzDSR34j7n6-WXPu6nIFT2ghHeIkHsgReALmKIhi3PqaEdJj1in0PacS5li9GqeeGu1LavmSb7fcSF1EvDgdU51Is73KD3PtGM8CE7nXf5_uXPErXLxNkQ4-8FHzyzjiGbYXxbWQlXH_h2s-vcHblj019p3dA_c-TUJIWTgjAgw-WNt_gGFbTWN9aFMEEA8F2GfuuyN286-bI3yNeVe1oW_CrX6JgEJpe3XIABrQjkUOUSRQ2iRQl1nxny_a3zUhHOGBlD9JV4tv8urdr8HUBEu408N3sz0ZsiN2Q9KRUVi1ciebvwOHnu8Sfo2OGD1fUcnJBFElTukIsykTNMb4grGlgsZ76jW7RPCX4Jrfs_6COqWgcQnDjHsGskwMnI84h2m1SGETVb6Y32ih5LnLPccu9VzWaeOHCfXzJDokJp4ZwpZNjqbuarHAGB_-94U_KSidYd_N4QGE5PtoiLXRjJmYBS35cmaRd30zG2HyD42IN5eqT0nm9RwFi69TM1CLzAkzGUwc0UOU2LPr7g13_f0F3JumOtMpgUEymzxMzdvdIO_t5ix9tdO9fNxW1SJtOQW7FRu-FB7kJ3i81lQHq5c2wta4lP20GVy1GMojKQ2I0_5k2-FfaLhcupig_QRjzuyOyVi_bg2IRfmxztHi3c5-LDFM6hoh7vxHMdM=</t>
         </is>
       </c>
     </row>
@@ -3863,30 +3863,30 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>EUR: 184</t>
+          <t>EUR: 164</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2023-12-10T20:20:00</t>
+          <t>2024-02-18T14:55:00</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2023-12-11T07:20:00</t>
+          <t>2024-02-18T17:35:00</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771f2b4cf54cf8246df2c8_0%7C0b771f2b4cf54cf8246df2c8_1%7C0b771f2b4cf54cf8246df2c8_2%7C0b771f2b4cf54cf8246df2c8_3&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BRU&amp;booking_token=Gnqb-KH_lvvOvl-HB0DWsPe3_BDTZg4WrDZmwEe-xM6kYPsPkoyBgBhvy-YbfDrLVaZBSwmPr6XSbuEP2kirP231N2fpnkSBhQkDY9vhTdDIC9cR2KQ5-tY8PE_3x6CGlo0VWMHGw1BysF7OvAg5q3YqTA0pfTplawLVPHl6p-zTsVfZvq_phxOd5j18A2teDml3FKkRufbn5nuQVN2Ji7HXwTdfLujQBWrShhP8o8Rm0g3iBxTVUoRROx04NbauVsPdQWssBHkrweIj8pbFfVnHOoXerq0l5yAn5l7jq8CHGvdQTF3wB-jmx7IHMv5fAPSL1U3Gw-zOUeOkRzVmUgXBn_FJFKFhUPP9jgRsJCpwGRPp5txl9a1D_Gj4LE-PaNMYKewj9mFSCyvXWxbAj3UnhYxfTZssU9q4YJ_d7vTg5Z1aXxUeDprSlEM5eQoDVq1xjNZd0YxaFQ7MCrHVtabH1WjM04Q2P-niSH6lvhzwfa_I-maRIY-rMj09LiwjCN01Sj-uVQ74ZFi_hlG04onhUUxso4KRlVdEY6qsCSOV40L8QoeYl9o6iRRlN_vOE31DsJ2AnYOxv0bOkQW4-xA==</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b7725c34d3b4d3e72b80db9_0%7C0b7725c34d3b4d3e72b80db9_1%7C0b7725c34d3b4d3e72b80db9_2%7C0b7725c34d3b4d3e72b80db9_3&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CDG&amp;booking_token=G-qlI9XjY7RHwT4ejC1pQ22qaGtebUqIgNbtPinwBfkSRsZQnlev5o13Rm0qPSsZd1XTbigpJXVVTFkQMNDfvpCchZr5rvtJSEaY3HnoZG27vr-kI_4KKxgIIR65SAACVHPBAGdgW62yhBRcBoWdQ2q_unkOYhPKktPSvcsoPjAlLwtf2Rf0AvpLmhGmUdk_vXkprixtsscol4VgyHzSyCgKYzVgJmzoYF8TB2CivSgVW0DjgigGArhxs0MdZy-aPpuROu0wIr0oQZk1BaRYI-yvv6X8lRtVcdyRwrxI_S-CGkZcQSdvv5MhacpNRTE-PpxqK4_F8hHxTowxWJOvYEIWn3ypqs6OGKHUNqhJZ9z9ESkyTtcF5qMBDJsvHsjmt03-bsBTmOd4nyhMpfZCdG5Fk5QPOD7uyvQ96-lLETuvNp37ivKMhvhhWdJ_xiDv5GaX2lx7mGtQy85fRERBulLQDT82yndv1jdVZOA_BxAwUIcx_t0zHUmrZ4UCs-aOjfsB4D7O3sV_af6ljEvp8pp5pbB_OE1QVOvG-A_zuTS4=</t>
         </is>
       </c>
     </row>
@@ -3901,22 +3901,22 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>EUR: 184</t>
+          <t>EUR: 164</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2024-02-07T10:45:00</t>
+          <t>2024-02-04T14:55:00</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2024-02-07T15:30:00</t>
+          <t>2024-02-04T17:35:00</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771f2b4d30000011fa1247_0%7C0b771f2b4d30000011fa1247_1%7C1f2b0b774d34000025dad0d2_0%7C1f2b0b774d34000025dad0d2_1&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BRU&amp;booking_token=GqPIZ8Liy7K24u06VnndIwLOZEMeVN9Z-sjLUpQouHRnrHP28-nymnSGwB6C0XOYAtR5uhOMcDU8IK8m9IBpZRQn3vjpWs1Rg4ykAQmDl4Hh_9mygmBg3Fnw9wmbfC1wiKDoiME5-uwZnZDu8MxQCJYeKxnkr7A6ZYsQc6XF9JUndhywF1dY_2X8ddqzNWICubWXZwa9OCqDRYK-R6g8LzeEichAXyoxNR-QzaxwpcZs5lK-PYgxvycRKgT4b0Gj_hzImf3bW2ImLPUw6vPyJlC0TuZmW5SNyDqFa5LOSb3VcyKC_-fqXepp5DwAAkiEf--wV2-m6shyusi8-oEer49V-4sQ4wQIyC0l2nJA3teH6Ib9jjgSj0tpZWGbfH3OgXWN-tjyM7P2nxt3EeHFueHWoFJId5oCnzBUoXXWDQQ1TR_hgQSvnyLjyFRhs78UI9AKkERfQto5A5_PY29iJ9XkHIwEXJ_iwHF3VXln5R_U3WgZ4lp7extePt2lz3iuJP7gsiwTxcYHVEnUOio7fFN6TZS39LLHBCNMy8a1Owwcio76OnbX5chFRd-4F-VTQ9XUWjSNy7KDg2nPiuJqksLRk82MT57p0hdeZDYFqHdqNT95tyq98BIT69jqi9NlbMroh3h1IUgMZOAIFJsXZSpDGbNgQc9AmYnv7gB-W3gn45Yrf1uPmyW5oK0rsKjpXjr2ReNjroTwIRdWYau7M2rEri8gGIXX_Apnt5dGDqg4=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b7725c34d2d4d31cefabfb5_0%7C0b7725c34d2d4d31cefabfb5_1%7C0b7725c34d2d4d31cefabfb5_2%7C0b7725c34d2d4d31cefabfb5_3&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CDG&amp;booking_token=Gcrxc1uZZZ0rwQDPxkhnI2GCcVdwvuqJgc1I6187rE4ujIEZbt85rUfHCH7Dew83-BkPTMMvc-Ul80xw8Tlf0Mt8hoTJlsBKvbm7YyqmX4V8ESwspbte8KiZxQVNh74NQBL6slfaYy7ReG3dKeMegmwGjFiWkaCKYViUdlPeNfjDRqQWJjaP867-IgE3nxzh-ynViCUtvmhn6dAU9BuWSun-svoXRh5oJpPgSqY_waA9z46d9ERGTwl5BUaMS-CAe4I_8a3QT4ZUx51_f4mKbAZ6en0ueD2kkEUK1rnKQy7gemWQnwwQZbPTlseKjzx7EIhS9x0voWW0RuAnIe459EInqjVVXysDzkuTFjKgtNPxiltk_Wcu-h1s4DrhPUNjzAbf3jxPem_PsVAxtM9iMrU54rkRFuwSaORDshnMRcgNgd868tKeIzAv8ABeEuP8YOPhJXCZ6YvzGBNKiQw-J0InjfbM8Y7TKlikps5qE9e9ve_0Z6vSTQGBSptG7Vfjn2Ki7vJPmhMU-otpK6xNeF27qEjuHJhzttAqQjEOAagc=</t>
         </is>
       </c>
     </row>
@@ -3939,22 +3939,22 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>EUR: 185</t>
+          <t>EUR: 164</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2023-12-05T12:55:00</t>
+          <t>2024-02-13T05:50:00</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2023-12-05T16:35:00</t>
+          <t>2024-02-13T14:25:00</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -3962,7 +3962,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771f2b4cf04cf725244a1a_0%7C0b771f2b4cf04cf725244a1a_1%7C0b771f2b4cf04cf725244a1a_2%7C0b771f2b4cf04cf725244a1a_3&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BRU&amp;booking_token=GF_iErCENKiU0XG_35I4KNXy6-zhg9qDDuGgDkcRFJPf5UnIh4I0nqdrq5it1xN4CVnbmhAigO5mclG9qV5zuj1Xt6D1YLZKNgJfih6S05vX_7rjpwsWVxyWdj0-YQJl8gu7k3oQgCm6gY5ON8evrh6Ia1qARDA3e8qFFhuw6m7sRM9jHmm3qqmaOPQfH1oHrf3G3QmRFTQLisqbYgpWv138fKbHKyYBPMJEWIQHBQG0ikll-z2fV2pg_wWNrxSFMnwzFHGW2IXgaqKZ7ZsLG5FNT85kJ9Xh-jYvnwuZBBzGpmr_TGLL9TVgxqFlqLsJW1p5Z0z-NDQTokgd55nOvhBAMReIRww778fyyAdqIpRy00YBvE5YtSHNg89h0mILsgwukPqmYZR65eVYadOyROL8vdnmPSX5HKIgmCRsk_T1MZIDgLoxj075SMM2F_lJVzzWI-F4U1EtPT_FmvYKKoGc_7JCz-JXQGjEoUNsgHcXOU2z1ANLmrho4-O5ggMzuYvJO8u3yRTC9txwXWBt5zFxfRbcIcik9KSDr2ptYzfy2GGsAQ9j3rNrtUb4DL9qC</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b770a224d36000024ce7361_0%7C0a220a7c4d364d3de697f549_0%7C0a220a7c4d364d3de697f549_1%7C0a220b774d3d0000a7fffebc_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=ORY&amp;booking_token=GiJUstKmAAJFtZD8MXdeK87A9nKPgVieGCeUsGGfHqNMhR3p_7ipjoqlYyHbvQMEreVnkYSk0qBx2gnyMw93S6mJVfN1NXbr2ODPKjcuHrJYQWbKGVeAqQkKL_4qW0tGz-Urz8BN6ZGgQZ-tGAc7ktbWxiD0t5hFwbx2mVgDV4VJmt05snpFthOL1xvEVy1YdvZ-QUw2iUSNaoQu3sHNiwVTXIkPvamn-rNjvd0EsQkuD1gq2heCbX906IFTI8FkgDWedlu3EiY1Ranvxj-xbPWvhPCTIICVz7pvFtlnsfqsCjJba3DWxB97ab9SQfD4SPOHUTzUhSZxSFLs3ycGIZNV4nQMzsTEDPgwAWp-XjK4ddFEKWt05odrX7TVGfr4PBHnWOITe7kHTMqpoNNI9iHc2LdqjWpCUhvLRf5iQFhKp7PuK3pMiFGhQ49PyTRNxRNRUotOjxof7bH_pEsBsOXoTEUnIbPLiBIpKpgcrk-wYcyomsq02JDJMHXycQeLYz7dtnHpPEWJVFpdwWNG72aKUvapIk_JXFlb_5laudmUrtza_0cetydTLXnSmV4iIUXGe7HENUy0TxBF8tSX6cU36vtcSs36eaLJrUYo6QmJRB-Suwac6gPq1ZCSNuzy8aiC-uqjsyn5rNdyixWk_vuNkp54SaYY3rok0z2eX3ZyJv4plTK2KXvRyV-Aa9MBi</t>
         </is>
       </c>
     </row>
@@ -3977,30 +3977,30 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>EUR: 185</t>
+          <t>EUR: 219</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2023-12-05T17:50:00</t>
+          <t>2023-12-13T11:15:00</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2023-12-05T20:15:00</t>
+          <t>2023-12-13T12:45:00</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771f2b4cf04cf6a70a8678_0%7C0b771f2b4cf04cf6a70a8678_1%7C0b771f2b4cf04cf6a70a8678_2%7C0b771f2b4cf04cf6a70a8678_3&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BRU&amp;booking_token=GYxhrS7aDKhOyVf2mwNH8VA5l8heHO_8crOZBWzMu4cihrO3yI3fnuv_L9r_nehrnRBNovbnEHJC0_hUglkST_FhKOHFQlN5BizPddZxuXDEd-cszsTrYx8FzqeDYEvHYzqbn-w1qNR4yzR9T_b1SwvJHFm1kmxtDzrgUAnGOXlAgFqjfSlHtVWgfli1CeMGM2tuv1BtBAh-MslLt_jPG2JfC4wlVS7CVGnUsDHy1cE2dd95WSTAya22sDqWsTH0Xv_H-gUeKMjBj__jwKc4iZLL5Aziq-YeqOsozGB8Z1o0HatX1xjHcV_t_1KidzVhCaSzsMQh_S33gfSAvvNvStcL1b5pmgVNkU45Mx2pLQ-xRjG0T4BOJb1aE1SVnvG_Zop_ucaVH0YeI4TDm5UzHjwrgntbcI1Rkp0mnhpG2XzebsJY4Bg71chtK9klX4TUmIJo1h2AY0gW6BOb0qOQQXPknzQnu6HcG3XqFVIdGBSltV1EASMicJsH96DsICkhkUcnJ11lhyxXCEWG8mnYAMLH8IFDWMgcFDp_fW2qJnQo=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b7725c34cf84cfd88096915_0%7C0b7725c34cf84cfd88096915_1%7C0b7725c34cf84cfd88096915_2%7C0b7725c34cf84cfd88096915_3&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CDG&amp;booking_token=GEDeQBCmZXHGN2wrSPJ7UBkXRRfp2ve484KOe9v3NeCYkZxRJRiztdNteLoemyNSOCqSWdZ0AChAKJ28_39gQMPiODKKgsskrUCF4A6huD8T7k9TwY792vEOLx4Xi-hrcbJwP7dLn6jojwrHpCTU2vX--nouB31eOtHbIVsbPiLEE8tEe-1X6R9JkgaqMQFASq-GBZYkyCQylXlyf_pO3-OsjrATlovaOyfpnBq9c5sDorr06nrkELuk3oJzVMMMLvd3rkgb_AR_acK5L7STmI_U3NHrIk3FBID5u7VJh8wPZZu9Vv3MHYHC54ZFidszT2hJ-UkrhrDAaHulKaYEzpXb18xBrvLmXSZcjvKWVQC0xtXIIyjLf02_Z86eS2yKqu4zGLpRmIQmSO-pqTzH-3Ce9tivyNLbHLYDUHVHUDbqbhmuxn39U_1N2-H1hz9m1VdlvGHdmjO4B-pRdcGR0SCwNT-oYtcbfBITBY46HR1Xk_Hddkj7kqtc_l7leYjXxG2PRit19CGx7m6pLwFla48vNLNJUyY2QTiJW3Z2Z4uOhvrtN9qVlcTdFy6K10rEn</t>
         </is>
       </c>
     </row>
@@ -4015,30 +4015,30 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>EUR: 185</t>
+          <t>EUR: 219</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2023-12-05T12:55:00</t>
+          <t>2023-12-13T16:45:00</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2023-12-05T16:35:00</t>
+          <t>2023-12-13T20:25:00</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771f2b4cf04cf68dc57186_0%7C0b771f2b4cf04cf68dc57186_1%7C0b771f2b4cf04cf68dc57186_2%7C0b771f2b4cf04cf68dc57186_3&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BRU&amp;booking_token=GRvHXb9XC-w47yg4aIcEbqNX07__OH_1lK9LqCKAc1hyph0ROlAIU8_65RiOnV16YsXVc1Ds7QedIeJfsQRGmRgbeDd7EKpYb4kwHhpT24Ryy19nK9Bvzcz1on5TF7rvf68NmCuHYdvRibvcOv87DOTqym5z8Gf-V1ERlSgWfYzsRDefD2lCWbPW7AJP4F7P8g9AjLQ0PLIimPDXunDPQM0bjhYhrZpw5OH9DJO2cTXN0X8lPL11wD-Tb5UfOgBGPojjWNFSQsh7Wk2OUoGHafw90i0U9WyoedXYITZb2pabQFp1TQL9-zD0CRjY7zprgc0v2AcOYsmMRWzOdT_I4Q-n4jy3LQULsr_gp5t3JYvbTon5KF9vGD2inEKMHvOlvvojW0sqzH-GE--EEJDzXo02lV7Z_gMLyBdqgHH-o875o9QrZpoGiLZLpTLOhLHBFw5thz6i2-A7KkkH2_YgXawAtpkBG5BA1Avn_zNzP_P7EudWHFceTakpRvRYd3oYWVD_7qpfMkssaOh1kgrD5zs7izgxJTxvz4ZEvcUSqhmo=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b7725c34cf84cfd2c3e3122_0%7C0b7725c34cf84cfd2c3e3122_1%7C0b7725c34cf84cfd2c3e3122_2%7C0b7725c34cf84cfd2c3e3122_3&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CDG&amp;booking_token=Gr3rnMeg9MKmZSVfiRYghof5BtMvkkdpltaKGSMmNGx0Ew5_iTGPcNtTgCw0PIOlPl_7ZKMeo5slgYaNhkuz1YzRLysvsyfmenBytJPf7ctnq4sPUaFLnqTk1sgBi9-0KurJ4UqbUXzG-Ux0fE6m33P9k4OslYqpFDRgpSyI916l6jZ_DJkUsxW7qCMUtpdAYFGBCMz13qi8-AyQH6029BlYcbarq5NvCRDLZr1_FYwI0Kl2XJVUsrWPr7PBjvBvEDfcLTDPLUgruP6DgAFvVV9T-HHCCoNc7VX9vdXpcTpPPk85zXsyi4Lct3kaprcgS-aKos_pmD8ps5enL7GksWbX7pmbhAr7XLASUVhq01IYqYdf840tozZAkL-2JXh9ApN6134Nt7DyLWPz07_nOWEEL9xvOvPcbDCwB-2CXyyvo6qpoIr5GQCM4pJNKRFfKWCO9X4xe0VCgqko6r-kNmrTFbw3KPuKGlFuZoBDm70p3zVGp8yRL20qsADvlr4xL28_cXjsKHwxLNLXLE64ECaHYwQ7nyRUQrpxLWnbwtjJA6PCRq0bNg4xOqRHVfU0NbjO9xKGkRXNavO4zpStU_A==</t>
         </is>
       </c>
     </row>
@@ -4053,30 +4053,30 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>EUR: 185</t>
+          <t>EUR: 221</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2023-12-05T12:55:00</t>
+          <t>2023-12-14T13:20:00</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2023-12-05T16:35:00</t>
+          <t>2023-12-14T16:50:00</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771f2b4cf04cf7d3ca0223_0%7C0b771f2b4cf04cf7d3ca0223_1%7C0b771f2b4cf04cf7d3ca0223_2%7C0b771f2b4cf04cf7d3ca0223_3&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BRU&amp;booking_token=GEdxplxVcqOJ7nzS6FZqA_6SXs-hBnv0L755QSdgEZqO5tV2zKYwGIv3gAORDxmfev0G_Q8zEbt8TOKQ-We2pjXNtqPpU776nv8JvrdakNSOhgb3A5wRX2Wtt7XZrydGuZtrlwpVF69UekEyIN3khXRssc4k6FmCFfJvYpRAOHnneE3Dot3mthFYq8Ujk7vNqjbTUxr1XDhlAbJum0qgO4JcBQRhD6salGUYUQ8BqEhcMMK__OmnqvIGHkKlYFLFB70WI0Z8LcD3sfwyibtpMtOFuypEDyw7foHWmL08FEnYS2P5-5iZUQprABpWoH9dexpNi-N2xQ685LUB8I2YHVYCj71wEqLyRLexgvZKEaAPAVTZYIvIcNzHH801_zaqUU3LJo7BStWoRp3dGm7iaLlEpqV6yzk6Q7xf3mwnQT8sKyLK6frATTdFv7K2eeDH3uAU4rdiAUi1Jz5x3p-l5LogCVEXd0NBIOzAQ7nZRPDQnCxHYS3UZ-EYrs3Hno1XPj9bOgJ9PMEZLqmIXNT4ay3oUlMsMVix-g715djQHedk=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b770a7c4cf94cfd4cc6939d_0%7C0b770a7c4cf94cfd4cc6939d_1%7C0b770a7c4cf94cfd4cc6939d_2%7C0b770a7c4cf94cfd4cc6939d_3&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=ORY&amp;booking_token=GAj2LAKlZL0xc3RV9aiX0EfpgQdoJ70jjOphFsr2pMx_IeGnrQN1GT9L_1VuVEy4OuJLp4FsQ632bEGY5X2bgXNi2_2QCbXXRvfe7R_yfe8bZ1MXiiNPy6vtJZzj0eGV5gzLfeq0EC420fUAnFB99jjc6sXAnpYfhwtvRqOfqvbfzfRslif6oUiiptlNrLSFIcEf1gbRTNoTbOrcUtrstVVpqMhdjAkjMZKFJqXNOtGWbp_eclYUTau8d3vrOPriohlA5Okr1hILxqxfzJyTYpS2QPWyV1-eLUSa6QcE8GbA_ItgXnLRCyUi-EkXK7plVFFCjzbVmu3JZz0fh01oE83ggU1nxBP0CVXuuNgGVI1An7ic6bp1YXdti2OS7qjZPLl_HjhnJo15OyttCxT8dhw9FcjwEERa85dv5GcHhIUoJAO7CMgSoR89rPKuVlMYyIksA4rfsWFzlgH-6YOYye0uOTs2uJRAG96vGZVbJDYZIbrswKzR6diGEkPA-VogFzswGegZkzr5VgZXsOf84-dGgJgcXCXLmipzS1GhVrgQisVo75DfvLFHaUSoGKu_3</t>
         </is>
       </c>
     </row>
@@ -4091,30 +4091,30 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>EUR: 206</t>
+          <t>EUR: 221</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2024-01-22T10:45:00</t>
+          <t>2023-12-14T13:20:00</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2024-01-22T15:30:00</t>
+          <t>2023-12-14T16:50:00</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771f2b4d2000005e78470b_0%7C0b771f2b4d2000005e78470b_1%7C1f2b0b774d25000051958a8b_0%7C1f2b0b774d25000051958a8b_1&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BRU&amp;booking_token=GiVBFDtosxHhf7rwJ48gZfP7qANfmvPoEfpJug644mcfNces8YM_xFD18It-9q3oiJD8KQ80_QVtPN9LG83DAGeqlsyKFecVPD92UF_g2iPEN-BWUtmDjKsAOIrQHD2KYn4Y2J9fCTSiFBivlfd9dpd9uXW27KHIXgTucppjWQx6HIDu0d55-N34BzgFH3DatyeATMEZiVFKlHU0xlv8R1vkSWRI0X96Xs3h6faRZm6nsuU_fEMBrNaLlpnHJzkoSjN3dID8De4s2UIGfHiIbJ2NIQJ2I_jPg75AANEe_ORAlpsEYKMgyrlvsizDh9AtYhUb84WykYsXMwFWHix4hWsGdY3VMb6FK-0ZF_WRaSGGXW3jV64J_Phfl1gUnwymOE9PhASAyUj775hwqQQgMwTINLSC5iG-baaBnnwDnv-XTRIU2MWGoN3ktAsLKi_DoULKvTo7J1-Es6p8KLz3jXO4zpJssj3LbO-9KjNocweqHqMHf7NquatHgSrL_BIaETQmsT0NSCIjLiFFdUgu9xIvp3-ZyTYX9N73-4iI4AyxYAjTntP09JrR6AXTR-YVb81QHpiWfIt_C717oSp3dWU34_CPsYUXeetVAPw7naXUhtr1iqgIwu62Y8o0ycPyQc9xO2A7hK_MHsYJ6pXF26jGp_HKh7OqdjFf5wc_Ccw4=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b770a7c4cf94cfdea6339ad_0%7C0b770a7c4cf94cfdea6339ad_1%7C0b770a7c4cf94cfdea6339ad_2%7C0b770a7c4cf94cfdea6339ad_3&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=ORY&amp;booking_token=G3DJWn1I7__q3JntPa9WCI6Lh8EjxxVlsDOqUCuszFXeU-KmbK1hfv2r4IZWloxd22iNxIZBQkb_k-jFcLHaJ86LhdK6J1pf2qOrV8gBaIkYHtmxIkn5VzaC6Uh6TjnjeVRiwcG1E5_2UpUW4E5cZH13L6mOPvgAlNwfky1d36wlpmy-cmv88zvv2zJ5e1S4VKoxtAR1tZxJ1fTBLAbMt46R7frLyiCrD9MVIPJZmkoEHE50UY9jjaqgjwEsTARMEIyuzMCRT--0m2sSQbyrVRgTNxxMfDwl_pXOk4Ztx7OPZGKOVGOhZDmsHvOwP7Syg89J5kPfR1b1NdBU_1FlbVlHH4EUH28tMwHEg9nSotqPiaF2gYOgY07HDhw6vM3vG6Y8JVKFUFnXzGs-viIAVRJVZccPb4WI5UFw8ml6GuJLSq9y3U4Iuzq6IAj4LRJCHk196m203wSyqMsC2mkKtaKMxRmk4mpr0gqD-6qbG7dpQ0mteZC14l2pcbGdBrJmAy7Z7qlz62SOhlH6bGyOuBvAubS4QIwAhxHVJnALPYDL9h9V7-yWFmisUJZq_j1DI</t>
         </is>
       </c>
     </row>
@@ -4129,30 +4129,30 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>EUR: 206</t>
+          <t>EUR: 222</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2024-01-22T10:45:00</t>
+          <t>2024-01-11T14:40:00</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2024-01-22T15:30:00</t>
+          <t>2024-01-11T17:25:00</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771f2b4d2000005e78470b_0%7C0b771f2b4d2000005e78470b_1%7C1f2b0b774d250000fc9dd9b4_0%7C1f2b0b774d250000fc9dd9b4_1&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BRU&amp;booking_token=G_SMP_rO33vjT0Ws-jCBiOkWbeu9saLq5l9OdNCCh-6-CERCKDxRO9CB1RfRi2Z-8I12C9ScQa75PMNVy7GcC-hCJuYl5eEwf_aqJdyKzOUmnriAIEcS9YxVsSh0gYD8TWlU6uHB6frhVZUedkwjNMbPTVtiiGTg1haUpCh1O4PoTMBXt_G2toI9_Y8cBhpXy232EwH3uctICRCDcjj_CzDShtptrFxhbdqNOALUXaOyN1_f6QNy9NGBuo84z0n3E0dEp8wSYcjbvz75WVLBFUbOj4yeDOLzGLsq_OrhUPiTt835lb0wlggzZboConzkYv8QSfwKdLZ_aOUp67ZCqmjDFVPlXFfKriXTMwI4PBPRJbCztCByZN9RabYfnLu4dRh87kKAYrUR4DRaw1bNbOLjLj3wrqUv0axDfCg3LssyMv2RDJQ1TIhydxEuqnZzHwhp0WCU-umBXxtQ38hiTTjn8KZjvobr084OH515dZuR2IUKsLvdn39amI-J6xI5PTWggyS1niNDZV_3R31eHfbgYce0n7qxog-mclN8-E0BhqwWOqnglRViiw7ZW-vcG4K7OuWIV__kfeRS1bqVlomYoKUt_gRfCjnGxkqSWYJgxR4eOn8Uz5BZf6OQX-hyjU_idZYB5wQzmCoTjz833GUc-Uk8O9aMlF7HBp_1_I44=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b7725c34d154d1c911efcb3_0%7C0b7725c34d154d1c911efcb3_1%7C0b7725c34d154d1c911efcb3_2%7C0b7725c34d154d1c911efcb3_3&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CDG&amp;booking_token=GpU890YGl-LIasSjuYFp9Myt1kuiu2jzSdZ88A_qpXROr1nUC1-nQpWer6-VJamCLHcmqrP_Gywd-woocliCYKZk2BmxXUSqAkwY9wr9jMlV0is7q5DWsZxOUBuURmY6zk1reLSanE-YWgW_cdAglW3AjVv7GGKlYLjncRYkMOlWZTv3PfE3pH3SIpHjaLYW-0gf__jvL_WzXaXDP6UEjSUtj4GgHQZFbtIYDM8B18y6G5W3iLt_ZUD9kzieXV8ZrRYouon7aq_ZZR5J3DaCT_v9VtjA3iRqKZo6Gxso5VylmARlnIHuyZKoiNX1120TdETIVeQLlowCldaheFo3hZzL2k0hQ9K0IDvVG-PF6lYL9Oo_Rnvz0_ILndr5KNIyYlbLtpVFP8Kk0UzOpqQPqZuq_AHqiYcNEVFMizACvZxBKJKw1opoJt82MB1Ou0ocKmwtDfLN5OGvtptHt2-B1Yz6rbGxo4r790vSNWloOEIzBllsgWPEVSw4wA1nlzX-HY7BB5JEjr05aDEHMdmZml4i6vZoKU_20gIOnaiVJNrg=</t>
         </is>
       </c>
     </row>
@@ -4167,30 +4167,30 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>EUR: 206</t>
+          <t>EUR: 222</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2024-01-22T10:45:00</t>
+          <t>2023-12-13T16:55:00</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2024-01-22T15:30:00</t>
+          <t>2023-12-13T21:20:00</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771f2b4d2000005e78470b_0%7C0b771f2b4d2000005e78470b_1%7C1f2b0b774d230000e56e95fe_0%7C1f2b0b774d230000e56e95fe_1&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BRU&amp;booking_token=GZEbA3ISN9rhY0sTX0txD-_bOGgig_n8dpPMVIhexGIntwiPa8ugbtr38o5VJ8Qp_KI_wLTuf-YveAV2vrTFEvpPgw1cfpd--9XpJjtU3ibLRQrQdB104S-swhXxio3_YNaNSEa6lUKahVRt9NjWUjgxCwMrHOCVL2_PoiZcEWFROwDbBYez7nZj62A3MkQ_bZpAA4rZhZKbIW1Klobdjq-RK9TBmBaNdlQAjFuP00pWKwPoaL13F2FpPfO8hS-rF0XflrnEOEHlyEaKVA4G78jB-Ng_TXNioDICtIYRkrkixxEVSr3FerFlxr2UmoOxHaqDiJuXI-Ah-G72mduGdR9X2ByWwzyT8ptIcNmk8s5_qpVMLvyiy1AnoAG9tTeOoGdGYFBPZpb347damd5qDgROcaXLdLUdBPErcRg7ItqRBPeJMsGzr1-VrSD2KxAj8S6wc0jEriHoR1P_3iauctx-CkjLTgYeCSkOyP_meTtUhjzNFOxG3uPNpW4gx2dBP0x3MyejiG8SMBgcPied_hYQjtbcLdd-93JGqu48-0vc234e0Ta9T6l90mPC-tvETJz4NeTL6FSCze1XL4BODQ0JFXC-w51d7XKgMGkvtadvHYSkoPn5w7jRi0pNWNIo9_42Pgbj1ZdQTSw6HiLNd7k-8dRT3pbqVwYci_i7czEU=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b7725c34cf84cfdf0dbfc94_0%7C0b7725c34cf84cfdf0dbfc94_1%7C0b7725c34cf84cfdf0dbfc94_2%7C0b7725c34cf84cfdf0dbfc94_3&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CDG&amp;booking_token=GcbgybwS6IpvPy_6zVuLXHeC4qOaaHd6IgKoDWNYtER6jkT0q9lHFPnMXVJ2oVLJ6QkdkPVD9OKojB_Nnnte6IDuRDhZ9Kfml51dYGH67REiuPCxqy-1VqOypyRHlopwzckg7z65Df2NcfqOfJdtVu_Y9SnP_SrsF3W9SfJjtMOxDk3nzCCm_CZh1VU-amrOWr6am--s4j_dQ4GGUR1Z6D6DBDQ27bC21WbICaGwRYobTjIIQ-Xeujr3LRnDxEMlqMyi945hnQF9C6wzX8tWzJqq6M5b1no4nc1rlk8dxSMROqj9bgCumzy_9amqNkp0fy4OG-vwkFHJqaz0KB097YWGFHl1ZkcR1F2PS3ttEhLCN_dGYBB6KBuSrU6OWjVB1JNr-18zWCHdG5eYVLWRgx_d5aXyeRwzyNgHsszebhLwATmydB_FDfbGH-XNWQxF77LUqsFFafsdivVE34nJ9nO5Z0GWDp-zEhazizYm2uLXnBEUHYkBcFc4V5odlaAx1H-XMkbWI7lj1JFQMh0vLmA==</t>
         </is>
       </c>
     </row>
@@ -4205,30 +4205,30 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>EUR: 258</t>
+          <t>EUR: 224</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2024-01-26T17:55:00</t>
+          <t>2024-01-11T14:40:00</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2024-01-29T15:10:00</t>
+          <t>2024-01-11T17:25:00</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771f2b4d244d2752399a21_0%7C0b771f2b4d244d2752399a21_1&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BRU&amp;booking_token=GXnj7kaLd1rU4fSgeQ9CUamIvmoSIxTSjXhjRpBDK33UnNTi1L3AqIb3lNvrHJCpT-JN78XazmAwgTpKfk1YAR9SFJH7xHggccU_A-IYit-aq7og93akSgRwBBN-zosXYln8D1o2rF9RMzOLN1wp87_WTNm1yUwLig9nUdtE-b-MspH5Iqgo2HeXwxIy8nFO44yG7NkY50sjSH8gi-C1EWK9YFZ0v99Ed_r5VejN2eT-QkJq9j4Is_e21TEbF6lV2sWzFHhtdpVOtCoVvZhtvATH9DuYq3K9vnn-8GsVD6aKKmOQyOFLb-69Q3ZPgRMuGRKTudRD4pwXWxXYpNfiu_ZGvuKZUQYuhKCV3eIzbJfcsoJ-fItt2Oxr_t0qktPkWfSiZHWWFuPm8HqIoqh9kjl_AjmPNLWB3XWOyOpte1RKKFk--vghHXOnOUJzT1MQ3c-PRv0qvF9tlqgEFEcI5wCT30VTQ1so1dZ4z54_KEYsi8OWKoBFsTeqps0m1_FCYpmJDaGrZuW-JGkd5YmENwgLD0a0qSaxVM5P1t2tO7cncXeJv0OtPYO86CS6Y9VDyX4ITS-BtrP2gW-NYxc6dg3skDaY_sH4ABIcf7hu0ti0=</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b7725c34d154d179571678c_0%7C0b7725c34d154d179571678c_1%7C0b7725c34d154d179571678c_2%7C0b7725c34d154d179571678c_3&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=CDG&amp;booking_token=G4vlr9gd22T-3iyl6ZLPPRxvXmB3c1Lr89ricZ6lIG0UHpJJI5zJo462aS3avCI6YWef5Wyep45vtqfD78qJRiAM5LUmJc47hjiSXp6c9EpauBKo8Xw31rNcDaRUxZmx73fYuhG9_ww4l46x1ynbm1kEWl0lBPouz6NcFeNzDUZL8bhs2vJVvsJm2405pG3NwlY8pqroJKbCGxD0b2TG0C3ubHAYSSAmOHcbsHChlStY593twbQ0VbKWuacSFoHL22EsWaKmO8yIlamnVAj-EsJp5TdTd6axnzfnMPBdoWr-ryWnjJAI52v---OJtNKBqlVmbuU6XyTguQHTO8mbURXIUh1THXiGaleKyyP-cNG6IEQU8bj9DIO2CH2FWOb0Nd8EZ4B2-2HJq2II1HFiu4hFr3fJk_BJ1tsE6I0omjRzXEOq3nNcQkC1hZuIGOUxmbSCKLZxY7BxSJZ1lb_gwKDAZ0mZK0SdSQCyyGuBqSzxSqPUh4XWeBKrvX9IoMUSQY6lH9ZvF79f6JoPerzjLOor1Tbb8YO8sf99JtyVzDv0=</t>
         </is>
       </c>
     </row>
@@ -4243,30 +4243,30 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Paris</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>EUR: 304</t>
+          <t>EUR: 225</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2023-12-25T17:55:00</t>
+          <t>2023-12-23T15:40:00</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2024-01-01T15:10:00</t>
+          <t>2023-12-26T21:50:00</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771f2b4d044d0b7025ce86_0%7C0b771f2b4d044d0b7025ce86_1&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BRU&amp;booking_token=GTKkrTmbosIzTXgWO7auubzW65j1oHa5RcltSlhguMStQSaHpLKCcFPUNw3D5B_BIIiWRLrV1zKrE2JpjWBuIfRqLHvwzGEZZA9oUdRBXCdGqB0uVQsqL43lmMSmDTsAgmsTvbpx-lrNGcxOXoHqiw1L1-z8geVSAkPKWGQneRvpP0pzmLXoXhC3NFjJzYE_I14XHuDdXFRBM3Q8obk6-FwNps6zrI5J8BfGPXlI4xvwWZ0kFlqAOqXCnMhQaSpF1EM7sP2--MmswSijbkTHN9uvIBAFaNtyBaMsMu1Svwh3mqQ3GJXmjt-1xtnV0s7oXuYUAdv2ZU9XlMIwBbDVLVFBokwAeul5XeXWuK0q1dy2qgd_MYH3kJjUdCF6ZvIFmvaZqAZOM4uo5jhHcgvUHfH6rvkcKdRTJ9JT0_f8IkXy-xCXRURi7Q_Wht0-JEYDKAUCS0FrA8YGxXtyooqB15r7kMXx8yVhAnIf15Qxxty9uOBZ9maZTy23FzrdkhOU3A_yzLgvVlVSbI01bgg6RHA==</t>
+          <t>https://www.kiwi.com/deep?affilid=istvanpisti&amp;currency=EUR&amp;flightsId=0b771cb24d020000b0b47f8b_0%7C1cb20b774d0500002e59da27_0&amp;from=BUD&amp;lang=en&amp;passengers=1&amp;to=BVA&amp;booking_token=GdiC0WKBKs5U-_0iKLhsAUAoBrJItTJelk2x7D_zLJAwPw10sydte1l73HsJ0OXde6wIKw7nMF0lAlXaJkfmbTAp3qiR3f20f81rpaYnWrVreoP-7i_CqWPUN9z-VYOSiV9BM8a36EU9ejArHQbppLHeTx-yQCmhDPjZDM3OSHQ8cAmxOV1NC1H-23MVMaNiauroiHIpKkZ5De00M36yaaJwMEMS04LDLuZJjnZx5Lcc26LCZg759uzendk6WgUXnN1C-IzlpPgTtNaUIWyLLZl2v59uLAapW_4jBJ8OhqNkZMAxUF66hxLuo3qlgoGHEmJpmwyzZjX91Wl32ffPzj36vzbuZJY7xIvOe9GYwz8hafWl04Q1dYk6cG6N6_vcjlVSMHKFvQLBRqogNGeLPEOLykhoqGtMKhe0zqQ9ybv7I0S73OZeKn_kZgTeG7v-nTytS4_cgS4p77vHUK05B5KK6BzlzFaQrhrC-a9Un-RRuO0eSZjcXYzz52VgbLhxqohvwFozCAxhVDOFVUsbOztqgFpTuBw3kxoYY-BPq2XI=</t>
         </is>
       </c>
     </row>
